--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
@@ -688,7 +688,7 @@
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>4.5</v>
@@ -826,19 +826,19 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
         <v>3.85</v>
@@ -847,7 +847,7 @@
         <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>1.34</v>
@@ -952,25 +952,25 @@
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
@@ -979,7 +979,7 @@
         <v>5.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="U4" t="n">
         <v>1.6</v>
@@ -991,7 +991,7 @@
         <v>2.34</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y4" t="n">
         <v>18</v>
@@ -1078,16 +1078,16 @@
         <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
         <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1210,10 +1210,10 @@
         <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="I6" t="n">
         <v>2.98</v>
@@ -1246,7 +1246,7 @@
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,13 +1345,13 @@
         <v>2.94</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
@@ -1366,22 +1366,22 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
         <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.71</v>
@@ -1393,7 +1393,7 @@
         <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1405,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
         <v>15.5</v>
@@ -1423,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1432,7 +1432,7 @@
         <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
         <v>42</v>
@@ -1480,19 +1480,19 @@
         <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,10 +1501,10 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
         <v>2.02</v>
@@ -1516,19 +1516,19 @@
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
         <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G9" t="n">
         <v>1.94</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
@@ -1645,10 +1645,10 @@
         <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
         <v>3.35</v>
@@ -1657,10 +1657,10 @@
         <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
         <v>2.06</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1774,7 +1774,7 @@
         <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
         <v>1.94</v>
@@ -1783,10 +1783,10 @@
         <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.78</v>
@@ -1798,7 +1798,7 @@
         <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1930,7 +1930,7 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
         <v>2.14</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
         <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2044,25 +2044,25 @@
         <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>1.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
         <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>5.2</v>
@@ -2176,19 +2176,19 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
         <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
         <v>3.1</v>
@@ -2197,7 +2197,7 @@
         <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>2.18</v>
@@ -2290,7 +2290,7 @@
         <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>2.28</v>
@@ -2305,7 +2305,7 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2314,25 +2314,25 @@
         <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V14" t="n">
         <v>1.76</v>
@@ -2350,13 +2350,13 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
         <v>12.5</v>
@@ -2383,7 +2383,7 @@
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2431,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2560,7 +2560,7 @@
         <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>6.2</v>
@@ -2569,7 +2569,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G17" t="n">
         <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>1.58</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.09</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>1.09</v>
+        <v>2.62</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.07</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I20" t="n">
         <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G21" t="n">
         <v>3.35</v>
       </c>
       <c r="H21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
         <v>2.48</v>
@@ -3262,10 +3262,10 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3370,19 +3370,19 @@
         <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I22" t="n">
         <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H23" t="n">
         <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>4.3</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,23 +3637,23 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G24" t="n">
         <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K24" t="n">
         <v>5</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.07</v>
+        <v>1.81</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
         <v>1.66</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G27" t="n">
         <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I27" t="n">
         <v>2.42</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G28" t="n">
         <v>2.68</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I28" t="n">
         <v>3.05</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
         <v>3.8</v>
@@ -4312,23 +4312,23 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.1</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.6</v>
-      </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
@@ -4336,16 +4336,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.89</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.26</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
         <v>1000</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,19 +4585,19 @@
         <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H31" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="I31" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q31" t="n">
         <v>1.83</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G32" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I32" t="n">
         <v>3.65</v>
@@ -4753,7 +4753,7 @@
         <v>2.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
         <v>5.2</v>
@@ -4771,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y32" t="n">
         <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
         <v>95</v>
@@ -4792,7 +4792,7 @@
         <v>16</v>
       </c>
       <c r="AE32" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="n">
         <v>14</v>
@@ -4858,13 +4858,13 @@
         <v>2.04</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
         <v>4.8</v>
@@ -4885,7 +4885,7 @@
         <v>1.99</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="H35" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="I35" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="K35" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.07</v>
+        <v>1.68</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="K36" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
         <v>1.01</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G37" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H37" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K37" t="n">
         <v>5.3</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I38" t="n">
         <v>3.05</v>
       </c>
       <c r="J38" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="I39" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K39" t="n">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q39" t="n">
         <v>1.94</v>
@@ -5803,7 +5803,7 @@
         <v>2.04</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I40" t="n">
         <v>4.3</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="Q40" t="n">
         <v>1.46</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G41" t="n">
         <v>3.35</v>
       </c>
       <c r="H41" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I41" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5956,16 +5956,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O41" t="n">
         <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6748,10 +6748,10 @@
         <v>1.88</v>
       </c>
       <c r="H47" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6880,13 +6880,13 @@
         <v>2.18</v>
       </c>
       <c r="G48" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H48" t="n">
         <v>3.75</v>
       </c>
       <c r="I48" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J48" t="n">
         <v>3.1</v>
@@ -6910,7 +6910,7 @@
         <v>1.64</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H51" t="n">
         <v>2.66</v>
@@ -7315,7 +7315,7 @@
         <v>1.69</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G52" t="n">
         <v>1.59</v>
       </c>
       <c r="H52" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I52" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J52" t="n">
         <v>4.4</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7597,7 +7597,7 @@
         <v>2.32</v>
       </c>
       <c r="U53" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G54" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H54" t="n">
         <v>3.75</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q54" t="n">
         <v>2.04</v>
@@ -7825,13 +7825,13 @@
         <v>2.8</v>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H55" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J55" t="n">
         <v>3.15</v>
@@ -7855,7 +7855,7 @@
         <v>1.67</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R55" t="n">
         <v>1.25</v>
@@ -7891,7 +7891,7 @@
         <v>9.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD55" t="n">
         <v>13.5</v>
@@ -7906,7 +7906,7 @@
         <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI55" t="n">
         <v>60</v>
@@ -7924,10 +7924,10 @@
         <v>160</v>
       </c>
       <c r="AN55" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="G56" t="n">
         <v>2.52</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
         <v>4.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K56" t="n">
         <v>4.4</v>
@@ -7981,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="O56" t="n">
         <v>1.01</v>
       </c>
       <c r="P56" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8098,10 +8098,10 @@
         <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I57" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J57" t="n">
         <v>3.3</v>
@@ -8125,7 +8125,7 @@
         <v>1.92</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G58" t="n">
         <v>2.42</v>
@@ -8239,10 +8239,10 @@
         <v>3.1</v>
       </c>
       <c r="J58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8251,28 +8251,28 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O58" t="n">
         <v>1.19</v>
       </c>
       <c r="P58" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R58" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S58" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T58" t="n">
         <v>1.54</v>
       </c>
       <c r="U58" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>55</v>
       </c>
       <c r="AN58" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO58" t="n">
         <v>18.5</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G59" t="n">
         <v>1.12</v>
       </c>
-      <c r="G59" t="n">
-        <v>1.13</v>
-      </c>
       <c r="H59" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I59" t="n">
         <v>36</v>
       </c>
       <c r="J59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K59" t="n">
         <v>13</v>
@@ -8398,16 +8398,16 @@
         <v>1.29</v>
       </c>
       <c r="R59" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S59" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="T59" t="n">
         <v>2.22</v>
       </c>
       <c r="U59" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK59" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL59" t="n">
         <v>44</v>
@@ -8464,7 +8464,7 @@
         <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AO59" t="n">
         <v>1000</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H60" t="n">
         <v>5.5</v>
@@ -8521,22 +8521,22 @@
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R60" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T60" t="n">
         <v>1.96</v>
@@ -8575,7 +8575,7 @@
         <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG60" t="n">
         <v>9.800000000000001</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G61" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I61" t="n">
         <v>5.1</v>
@@ -8671,7 +8671,7 @@
         <v>1.64</v>
       </c>
       <c r="S61" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T61" t="n">
         <v>1.64</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H62" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I62" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K62" t="n">
         <v>3.45</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8932,22 +8932,22 @@
         <v>1.29</v>
       </c>
       <c r="P63" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q63" t="n">
         <v>1.88</v>
       </c>
       <c r="R63" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T63" t="n">
         <v>2.08</v>
       </c>
       <c r="U63" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -9043,13 +9043,13 @@
         <v>1.27</v>
       </c>
       <c r="H64" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I64" t="n">
         <v>14.5</v>
       </c>
       <c r="J64" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K64" t="n">
         <v>7.2</v>
@@ -9076,7 +9076,7 @@
         <v>1.66</v>
       </c>
       <c r="S64" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T64" t="n">
         <v>2.18</v>
@@ -9127,7 +9127,7 @@
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK64" t="n">
         <v>14</v>
@@ -9196,13 +9196,13 @@
         <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O65" t="n">
         <v>1.35</v>
       </c>
       <c r="P65" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q65" t="n">
         <v>2.06</v>
@@ -9253,13 +9253,13 @@
         <v>23</v>
       </c>
       <c r="AG65" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH65" t="n">
         <v>17</v>
       </c>
       <c r="AI65" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="n">
         <v>55</v>
@@ -9313,7 +9313,7 @@
         <v>3.55</v>
       </c>
       <c r="H66" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I66" t="n">
         <v>2.3</v>
@@ -9322,7 +9322,7 @@
         <v>3.55</v>
       </c>
       <c r="K66" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q66" t="n">
         <v>1.81</v>
@@ -9445,16 +9445,16 @@
         <v>3.7</v>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H67" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I67" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J67" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K67" t="n">
         <v>3.6</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9580,19 +9580,19 @@
         <v>2.28</v>
       </c>
       <c r="G68" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I68" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
         <v>3.2</v>
       </c>
       <c r="K68" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H69" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I69" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K69" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G70" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H70" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="I70" t="n">
         <v>3.2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K70" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="Q70" t="n">
         <v>1.64</v>
@@ -9982,19 +9982,19 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G71" t="n">
         <v>2.1</v>
       </c>
       <c r="H71" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I71" t="n">
         <v>5.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K71" t="n">
         <v>6.2</v>
@@ -10012,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G72" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H72" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I72" t="n">
         <v>4.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K72" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q72" t="n">
         <v>1.01</v>
@@ -10258,13 +10258,13 @@
         <v>1.36</v>
       </c>
       <c r="H73" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="I73" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J73" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K73" t="n">
         <v>6.8</v>
@@ -10285,7 +10285,7 @@
         <v>2.28</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10393,16 +10393,16 @@
         <v>3.7</v>
       </c>
       <c r="H74" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I74" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K74" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10411,10 +10411,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O74" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
         <v>1.78</v>
@@ -10528,7 +10528,7 @@
         <v>1.34</v>
       </c>
       <c r="H75" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I75" t="n">
         <v>12</v>
@@ -10657,13 +10657,13 @@
         </is>
       </c>
       <c r="F76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G76" t="n">
         <v>1.24</v>
       </c>
-      <c r="G76" t="n">
-        <v>1.25</v>
-      </c>
       <c r="H76" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I76" t="n">
         <v>15.5</v>
@@ -10672,7 +10672,7 @@
         <v>7.6</v>
       </c>
       <c r="K76" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10693,7 +10693,7 @@
         <v>1.4</v>
       </c>
       <c r="R76" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S76" t="n">
         <v>2</v>
@@ -10714,19 +10714,19 @@
         <v>40</v>
       </c>
       <c r="Y76" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="Z76" t="n">
         <v>170</v>
       </c>
       <c r="AA76" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AB76" t="n">
         <v>13.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD76" t="n">
         <v>50</v>
@@ -10798,10 +10798,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I77" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J77" t="n">
         <v>3.05</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="G78" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="H78" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I78" t="n">
         <v>1.39</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K78" t="n">
-        <v>950</v>
+        <v>7.4</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q78" t="n">
         <v>1.7</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G79" t="n">
         <v>4.6</v>
       </c>
       <c r="H79" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="I79" t="n">
         <v>2.38</v>
       </c>
       <c r="J79" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K79" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11200,16 +11200,16 @@
         <v>2.4</v>
       </c>
       <c r="G80" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H80" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I80" t="n">
         <v>3.15</v>
       </c>
       <c r="J80" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K80" t="n">
         <v>4</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q80" t="n">
         <v>1.7</v>
@@ -11332,13 +11332,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H81" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I81" t="n">
         <v>2.24</v>
@@ -11347,7 +11347,7 @@
         <v>3.3</v>
       </c>
       <c r="K81" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q81" t="n">
         <v>2.18</v>
@@ -11467,16 +11467,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G82" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H82" t="n">
         <v>3.1</v>
       </c>
       <c r="I82" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J82" t="n">
         <v>3.05</v>
@@ -11500,7 +11500,7 @@
         <v>1.64</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11602,19 +11602,19 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="G83" t="n">
-        <v>1000</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I83" t="n">
         <v>1000</v>
       </c>
       <c r="J83" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="K83" t="n">
         <v>1000</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11737,19 +11737,19 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G84" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H84" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I84" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="J84" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K84" t="n">
         <v>980</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G85" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H85" t="n">
         <v>1.68</v>
       </c>
       <c r="I85" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="J85" t="n">
         <v>4.5</v>
       </c>
       <c r="K85" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11908,7 +11908,7 @@
         <v>1.48</v>
       </c>
       <c r="R85" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S85" t="n">
         <v>2.18</v>
@@ -11917,7 +11917,7 @@
         <v>1.56</v>
       </c>
       <c r="U85" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -11932,7 +11932,7 @@
         <v>16.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA85" t="n">
         <v>21</v>
@@ -11950,10 +11950,10 @@
         <v>18</v>
       </c>
       <c r="AF85" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG85" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH85" t="n">
         <v>18.5</v>
@@ -11971,13 +11971,13 @@
         <v>1000</v>
       </c>
       <c r="AM85" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN85" t="n">
         <v>36</v>
       </c>
       <c r="AO85" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="86">
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="G86" t="n">
-        <v>1000</v>
+        <v>1.65</v>
       </c>
       <c r="H86" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="I86" t="n">
         <v>1000</v>
       </c>
       <c r="J86" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K86" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12142,19 +12142,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G87" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H87" t="n">
         <v>3.05</v>
       </c>
       <c r="I87" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K87" t="n">
         <v>3.3</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H90" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J90" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K90" t="n">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12826,13 +12826,13 @@
         <v>12</v>
       </c>
       <c r="I92" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J92" t="n">
         <v>5.3</v>
       </c>
       <c r="K92" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -12850,7 +12850,7 @@
         <v>1.96</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R92" t="n">
         <v>1.36</v>
@@ -12859,7 +12859,7 @@
         <v>3.6</v>
       </c>
       <c r="T92" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="U92" t="n">
         <v>1.61</v>
@@ -12883,7 +12883,7 @@
         <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC92" t="n">
         <v>13</v>
@@ -12907,7 +12907,7 @@
         <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK92" t="n">
         <v>18</v>
@@ -12919,7 +12919,7 @@
         <v>360</v>
       </c>
       <c r="AN92" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO92" t="n">
         <v>1000</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G93" t="n">
         <v>4.6</v>
       </c>
       <c r="H93" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="I93" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="J93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K93" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13093,7 +13093,7 @@
         <v>1.75</v>
       </c>
       <c r="H94" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I94" t="n">
         <v>5.7</v>
@@ -13120,7 +13120,7 @@
         <v>2.18</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -13225,16 +13225,16 @@
         <v>3.25</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I95" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="J95" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K95" t="n">
         <v>3.8</v>
@@ -13252,10 +13252,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -13360,16 +13360,16 @@
         <v>1.39</v>
       </c>
       <c r="G96" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I96" t="n">
         <v>3.55</v>
       </c>
       <c r="J96" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="K96" t="n">
         <v>980</v>
@@ -13492,13 +13492,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G97" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H97" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I97" t="n">
         <v>7.8</v>
@@ -13507,7 +13507,7 @@
         <v>3.95</v>
       </c>
       <c r="K97" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13522,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q97" t="n">
         <v>2.14</v>
@@ -13639,7 +13639,7 @@
         <v>1000</v>
       </c>
       <c r="J98" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="K98" t="n">
         <v>1000</v>
@@ -13657,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13762,19 +13762,19 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G99" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I99" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J99" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K99" t="n">
         <v>3.5</v>
@@ -13801,7 +13801,7 @@
         <v>1.3</v>
       </c>
       <c r="S99" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T99" t="n">
         <v>1.9</v>
@@ -13819,7 +13819,7 @@
         <v>12.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z99" t="n">
         <v>14</v>
@@ -13834,28 +13834,28 @@
         <v>7.6</v>
       </c>
       <c r="AD99" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF99" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG99" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI99" t="n">
         <v>44</v>
       </c>
       <c r="AJ99" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK99" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL99" t="n">
         <v>60</v>
@@ -13867,7 +13867,7 @@
         <v>55</v>
       </c>
       <c r="AO99" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
@@ -13900,7 +13900,7 @@
         <v>2.9</v>
       </c>
       <c r="G100" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H100" t="n">
         <v>2.72</v>
@@ -13978,7 +13978,7 @@
         <v>19.5</v>
       </c>
       <c r="AG100" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH100" t="n">
         <v>17.5</v>
@@ -14035,7 +14035,7 @@
         <v>1.45</v>
       </c>
       <c r="G101" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>6.6</v>
@@ -14047,7 +14047,7 @@
         <v>4.5</v>
       </c>
       <c r="K101" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14167,16 +14167,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G102" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I102" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J102" t="n">
         <v>3.85</v>
@@ -14194,10 +14194,10 @@
         <v>5.4</v>
       </c>
       <c r="O102" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P102" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q102" t="n">
         <v>1.63</v>
@@ -14206,7 +14206,7 @@
         <v>1.6</v>
       </c>
       <c r="S102" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T102" t="n">
         <v>1.56</v>
@@ -14233,7 +14233,7 @@
         <v>44</v>
       </c>
       <c r="AB102" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC102" t="n">
         <v>9.199999999999999</v>
@@ -14335,7 +14335,7 @@
         <v>2.2</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14437,10 +14437,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G104" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H104" t="n">
         <v>2.58</v>
@@ -14449,10 +14449,10 @@
         <v>2.78</v>
       </c>
       <c r="J104" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K104" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G105" t="n">
         <v>1.89</v>
@@ -14596,22 +14596,22 @@
         <v>1.06</v>
       </c>
       <c r="N105" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O105" t="n">
         <v>1.31</v>
       </c>
       <c r="P105" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R105" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S105" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T105" t="n">
         <v>1.83</v>
@@ -14737,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G107" t="n">
         <v>1.86</v>
@@ -14851,7 +14851,7 @@
         <v>5.2</v>
       </c>
       <c r="I107" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J107" t="n">
         <v>3.65</v>
@@ -14872,10 +14872,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -14977,22 +14977,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G108" t="n">
         <v>2.26</v>
       </c>
       <c r="H108" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I108" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J108" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K108" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -15010,7 +15010,7 @@
         <v>2.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -15115,19 +15115,19 @@
         <v>1.93</v>
       </c>
       <c r="G109" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H109" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I109" t="n">
         <v>5.1</v>
       </c>
       <c r="J109" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="K109" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -15142,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q109" t="n">
         <v>1.8</v>
@@ -15247,22 +15247,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="I110" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="J110" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K110" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -15277,10 +15277,10 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.8</v>
+        <v>2.24</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -15382,19 +15382,19 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G111" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H111" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I111" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J111" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K111" t="n">
         <v>4.1</v>
@@ -15412,10 +15412,10 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="G112" t="n">
         <v>1.66</v>
@@ -15529,10 +15529,10 @@
         <v>12.5</v>
       </c>
       <c r="J112" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K112" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -15550,7 +15550,7 @@
         <v>1.7</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G113" t="n">
         <v>2.5</v>
@@ -15661,10 +15661,10 @@
         <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J113" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K113" t="n">
         <v>3.55</v>
@@ -15787,22 +15787,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G114" t="n">
         <v>4.3</v>
       </c>
       <c r="H114" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I114" t="n">
         <v>2.74</v>
       </c>
       <c r="J114" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K114" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -15811,16 +15811,16 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O114" t="n">
         <v>1.36</v>
       </c>
       <c r="P114" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -15922,22 +15922,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G115" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H115" t="n">
         <v>2.76</v>
       </c>
-      <c r="H115" t="n">
-        <v>2.68</v>
-      </c>
       <c r="I115" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J115" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="K115" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -15952,10 +15952,10 @@
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -16057,22 +16057,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G116" t="n">
-        <v>1000</v>
+        <v>1.86</v>
       </c>
       <c r="H116" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J116" t="n">
-        <v>1.21</v>
+        <v>3.7</v>
       </c>
       <c r="K116" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -16081,16 +16081,16 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P116" t="n">
         <v>1.25</v>
       </c>
-      <c r="O116" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P116" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Q116" t="n">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -16195,19 +16195,19 @@
         <v>2.24</v>
       </c>
       <c r="G117" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H117" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I117" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J117" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K117" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -16222,10 +16222,10 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -16327,19 +16327,19 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="G118" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H118" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="I118" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J118" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K118" t="n">
         <v>4</v>
@@ -16360,7 +16360,7 @@
         <v>1.25</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -16492,10 +16492,10 @@
         <v>1.35</v>
       </c>
       <c r="P119" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R119" t="n">
         <v>1.33</v>
@@ -16507,7 +16507,7 @@
         <v>2.08</v>
       </c>
       <c r="U119" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V119" t="n">
         <v>0</v>
@@ -16519,7 +16519,7 @@
         <v>14.5</v>
       </c>
       <c r="Y119" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z119" t="n">
         <v>60</v>
@@ -16531,7 +16531,7 @@
         <v>7.6</v>
       </c>
       <c r="AC119" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD119" t="n">
         <v>26</v>
@@ -16600,13 +16600,13 @@
         <v>1.65</v>
       </c>
       <c r="G120" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H120" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I120" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J120" t="n">
         <v>4.5</v>
@@ -16630,7 +16630,7 @@
         <v>2.72</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -16732,19 +16732,19 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G121" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="H121" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I121" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J121" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K121" t="n">
         <v>3.65</v>
@@ -16759,25 +16759,25 @@
         <v>4</v>
       </c>
       <c r="O121" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P121" t="n">
         <v>2</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R121" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S121" t="n">
         <v>3.4</v>
       </c>
       <c r="T121" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U121" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V121" t="n">
         <v>0</v>
@@ -16789,25 +16789,25 @@
         <v>14.5</v>
       </c>
       <c r="Y121" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z121" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA121" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB121" t="n">
         <v>10.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD121" t="n">
         <v>15</v>
       </c>
       <c r="AE121" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF121" t="n">
         <v>14</v>
@@ -16819,10 +16819,10 @@
         <v>17.5</v>
       </c>
       <c r="AI121" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ121" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK121" t="n">
         <v>23</v>
@@ -16834,7 +16834,7 @@
         <v>90</v>
       </c>
       <c r="AN121" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO121" t="n">
         <v>44</v>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G122" t="n">
         <v>1.26</v>
@@ -16879,7 +16879,7 @@
         <v>19.5</v>
       </c>
       <c r="J122" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K122" t="n">
         <v>7.2</v>
@@ -16894,7 +16894,7 @@
         <v>4.9</v>
       </c>
       <c r="O122" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P122" t="n">
         <v>2.3</v>
@@ -16960,7 +16960,7 @@
         <v>8.6</v>
       </c>
       <c r="AK122" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL122" t="n">
         <v>65</v>
@@ -17005,19 +17005,19 @@
         <v>1.87</v>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H123" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I123" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J123" t="n">
         <v>3.55</v>
       </c>
       <c r="K123" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -17032,10 +17032,10 @@
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
@@ -17140,13 +17140,13 @@
         <v>1.64</v>
       </c>
       <c r="G124" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H124" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I124" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J124" t="n">
         <v>4.2</v>
@@ -17170,7 +17170,7 @@
         <v>2.06</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R124" t="n">
         <v>1.42</v>
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="X124" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y124" t="n">
         <v>24</v>
@@ -17221,7 +17221,7 @@
         <v>10.5</v>
       </c>
       <c r="AH124" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI124" t="n">
         <v>85</v>
@@ -17230,7 +17230,7 @@
         <v>17</v>
       </c>
       <c r="AK124" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL124" t="n">
         <v>38</v>
@@ -17284,10 +17284,10 @@
         <v>7.6</v>
       </c>
       <c r="J125" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K125" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -17305,7 +17305,7 @@
         <v>1.71</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
@@ -17422,7 +17422,7 @@
         <v>3.4</v>
       </c>
       <c r="K126" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -17434,13 +17434,13 @@
         <v>3.75</v>
       </c>
       <c r="O126" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P126" t="n">
         <v>1.95</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -17542,22 +17542,22 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.09</v>
+        <v>1.69</v>
       </c>
       <c r="G127" t="n">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="H127" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="I127" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J127" t="n">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="K127" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -17566,16 +17566,16 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O127" t="n">
         <v>1.16</v>
       </c>
       <c r="P127" t="n">
-        <v>1.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -17677,19 +17677,19 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G128" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H128" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I128" t="n">
         <v>11</v>
       </c>
       <c r="J128" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K128" t="n">
         <v>7</v>
@@ -17701,16 +17701,16 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O128" t="n">
         <v>1.22</v>
       </c>
       <c r="P128" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -17812,22 +17812,22 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G129" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I129" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J129" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K129" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -17842,10 +17842,10 @@
         <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
@@ -17950,16 +17950,16 @@
         <v>1.04</v>
       </c>
       <c r="G130" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H130" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="I130" t="n">
         <v>1000</v>
       </c>
       <c r="J130" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="K130" t="n">
         <v>1000</v>
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q130" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO165"/>
+  <dimension ref="A1:AO166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
         <v>2.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
         <v>1.55</v>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.4</v>
@@ -826,13 +826,13 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q3" t="n">
         <v>1.79</v>
@@ -847,7 +847,7 @@
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
@@ -952,7 +952,7 @@
         <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
         <v>2.12</v>
@@ -1237,16 +1237,16 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.98</v>
@@ -1261,7 +1261,7 @@
         <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G7" t="n">
         <v>1.89</v>
@@ -1366,22 +1366,22 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.78</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G9" t="n">
         <v>1.66</v>
@@ -1660,7 +1660,7 @@
         <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
         <v>2.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G10" t="n">
         <v>2.92</v>
@@ -1783,7 +1783,7 @@
         <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
         <v>2.44</v>
@@ -1798,7 +1798,7 @@
         <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X10" t="n">
         <v>14.5</v>
@@ -1885,7 +1885,7 @@
         <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -1933,7 +1933,7 @@
         <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2185,7 +2185,7 @@
         <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
         <v>1.43</v>
@@ -2206,7 +2206,7 @@
         <v>1.23</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.6</v>
@@ -2290,7 +2290,7 @@
         <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.28</v>
@@ -2311,13 +2311,13 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
         <v>1.58</v>
@@ -2326,10 +2326,10 @@
         <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U14" t="n">
         <v>2.76</v>
@@ -2368,10 +2368,10 @@
         <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>40</v>
@@ -2581,13 +2581,13 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q16" t="n">
         <v>1.01</v>
@@ -2833,16 +2833,16 @@
         <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I18" t="n">
         <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2878,7 +2878,7 @@
         <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2968,13 +2968,13 @@
         <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -3004,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
         <v>1.4</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G20" t="n">
         <v>1.67</v>
@@ -3145,7 +3145,7 @@
         <v>1.77</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W20" t="n">
         <v>2.48</v>
@@ -3235,7 +3235,7 @@
         <v>5.7</v>
       </c>
       <c r="G21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>1.53</v>
@@ -3244,7 +3244,7 @@
         <v>1.68</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>5.3</v>
@@ -3256,7 +3256,7 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -3265,7 +3265,7 @@
         <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
         <v>1.28</v>
@@ -3280,10 +3280,10 @@
         <v>1.71</v>
       </c>
       <c r="V21" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="W21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
@@ -3301,7 +3301,7 @@
         <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G22" t="n">
         <v>1.38</v>
@@ -3382,7 +3382,7 @@
         <v>4.9</v>
       </c>
       <c r="K22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
         <v>2.86</v>
       </c>
       <c r="H23" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="I23" t="n">
         <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>3.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3778,16 +3778,16 @@
         <v>2.14</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
         <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.31</v>
@@ -3949,7 +3949,7 @@
         <v>2.24</v>
       </c>
       <c r="T26" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U26" t="n">
         <v>2.3</v>
@@ -3973,13 +3973,13 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
         <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -3988,7 +3988,7 @@
         <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
@@ -4045,16 +4045,16 @@
         <v>2.42</v>
       </c>
       <c r="G27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
@@ -4084,13 +4084,13 @@
         <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W27" t="n">
         <v>1.56</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G28" t="n">
         <v>2.04</v>
@@ -4192,7 +4192,7 @@
         <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.34</v>
@@ -4216,7 +4216,7 @@
         <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T28" t="n">
         <v>1.54</v>
@@ -4453,13 +4453,13 @@
         <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
         <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -4753,7 +4753,7 @@
         <v>1.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S32" t="n">
         <v>2.58</v>
@@ -4762,7 +4762,7 @@
         <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V32" t="n">
         <v>1.69</v>
@@ -4786,10 +4786,10 @@
         <v>19</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
         <v>26</v>
@@ -4798,10 +4798,10 @@
         <v>30</v>
       </c>
       <c r="AG32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH32" t="n">
         <v>17</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>18</v>
       </c>
       <c r="AI32" t="n">
         <v>36</v>
@@ -4822,7 +4822,7 @@
         <v>27</v>
       </c>
       <c r="AO32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="33">
@@ -4858,7 +4858,7 @@
         <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I33" t="n">
         <v>2.42</v>
@@ -4924,7 +4924,7 @@
         <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE33" t="n">
         <v>26</v>
@@ -4990,7 +4990,7 @@
         <v>2.48</v>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H34" t="n">
         <v>2.8</v>
@@ -5005,7 +5005,7 @@
         <v>3.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5020,7 +5020,7 @@
         <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
         <v>1.45</v>
@@ -5074,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ34" t="n">
         <v>980</v>
@@ -5083,7 +5083,7 @@
         <v>32</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
         <v>90</v>
@@ -5140,7 +5140,7 @@
         <v>4.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5152,7 +5152,7 @@
         <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" t="n">
         <v>1.66</v>
@@ -5161,7 +5161,7 @@
         <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="T35" t="n">
         <v>1.55</v>
@@ -5416,28 +5416,28 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O37" t="n">
         <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S37" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="n">
         <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V37" t="n">
         <v>1.01</v>
@@ -5446,7 +5446,7 @@
         <v>1.01</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y37" t="n">
         <v>16.5</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G39" t="n">
         <v>2.04</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
         <v>4.9</v>
@@ -5677,7 +5677,7 @@
         <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
         <v>1.39</v>
@@ -5704,7 +5704,7 @@
         <v>2.8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
         <v>2.1</v>
@@ -5725,7 +5725,7 @@
         <v>980</v>
       </c>
       <c r="AA39" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB39" t="n">
         <v>980</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G40" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G42" t="n">
         <v>2.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
         <v>4.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,19 +6091,19 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.1</v>
+        <v>2.16</v>
       </c>
       <c r="O42" t="n">
         <v>1.19</v>
       </c>
       <c r="P42" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q42" t="n">
         <v>1.19</v>
       </c>
       <c r="R42" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S42" t="n">
         <v>2.28</v>
@@ -6208,7 +6208,7 @@
         <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I43" t="n">
         <v>2.68</v>
@@ -6502,7 +6502,7 @@
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q45" t="n">
         <v>1.59</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G46" t="n">
         <v>2.88</v>
@@ -6640,7 +6640,7 @@
         <v>2.72</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="R46" t="n">
         <v>1.6</v>
@@ -6664,25 +6664,25 @@
         <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
         <v>1000</v>
@@ -6691,19 +6691,19 @@
         <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
         <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6766,10 +6766,10 @@
         <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P47" t="n">
         <v>1.74</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G48" t="n">
-        <v>980</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
-        <v>1.04</v>
+        <v>18</v>
       </c>
       <c r="I48" t="n">
         <v>1000</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.97</v>
+        <v>1.34</v>
       </c>
       <c r="G50" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I50" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J50" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K50" t="n">
         <v>980</v>
@@ -7171,10 +7171,10 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="O50" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
         <v>1.45</v>
@@ -7186,7 +7186,7 @@
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T50" t="n">
         <v>1.04</v>
@@ -7198,7 +7198,7 @@
         <v>1.19</v>
       </c>
       <c r="W50" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G51" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H51" t="n">
         <v>3.85</v>
@@ -7297,7 +7297,7 @@
         <v>2.72</v>
       </c>
       <c r="K51" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L51" t="n">
         <v>1.48</v>
@@ -7420,13 +7420,13 @@
         <v>1.04</v>
       </c>
       <c r="G52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H52" t="n">
         <v>1.04</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
@@ -7441,22 +7441,22 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="O52" t="n">
         <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G54" t="n">
         <v>3.05</v>
@@ -7846,10 +7846,10 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O55" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P55" t="n">
         <v>1.51</v>
@@ -7978,25 +7978,25 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>1.24</v>
+        <v>4.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="P56" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R56" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="S56" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G57" t="n">
         <v>3.85</v>
@@ -8101,10 +8101,10 @@
         <v>2.22</v>
       </c>
       <c r="I57" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K57" t="n">
         <v>3.65</v>
@@ -8140,7 +8140,7 @@
         <v>2.16</v>
       </c>
       <c r="V57" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W57" t="n">
         <v>1.35</v>
@@ -8236,7 +8236,7 @@
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J58" t="n">
         <v>3.9</v>
@@ -8398,10 +8398,10 @@
         <v>1.59</v>
       </c>
       <c r="R59" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S59" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T59" t="n">
         <v>1.04</v>
@@ -8641,7 +8641,7 @@
         <v>2.64</v>
       </c>
       <c r="I61" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J61" t="n">
         <v>3.05</v>
@@ -8680,7 +8680,7 @@
         <v>1.84</v>
       </c>
       <c r="V61" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W61" t="n">
         <v>1.45</v>
@@ -8767,25 +8767,25 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G62" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="H62" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I62" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J62" t="n">
         <v>3.65</v>
       </c>
-      <c r="J62" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K62" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L62" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -8797,28 +8797,28 @@
         <v>1.27</v>
       </c>
       <c r="P62" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q62" t="n">
         <v>1.53</v>
       </c>
       <c r="R62" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S62" t="n">
         <v>2.68</v>
       </c>
       <c r="T62" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
       <c r="U62" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="W62" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X62" t="n">
         <v>17.5</v>
@@ -8827,52 +8827,52 @@
         <v>18</v>
       </c>
       <c r="Z62" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AA62" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC62" t="n">
         <v>9.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AF62" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH62" t="n">
         <v>20</v>
       </c>
       <c r="AI62" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK62" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL62" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="n">
         <v>100</v>
       </c>
       <c r="AN62" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -8923,7 +8923,7 @@
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
         <v>2.76</v>
@@ -8935,7 +8935,7 @@
         <v>1.59</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R63" t="n">
         <v>1.22</v>
@@ -8950,7 +8950,7 @@
         <v>1.78</v>
       </c>
       <c r="V63" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W63" t="n">
         <v>1.73</v>
@@ -8959,43 +8959,43 @@
         <v>1000</v>
       </c>
       <c r="Y63" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z63" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD63" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG63" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH63" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK63" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL63" t="n">
         <v>1000</v>
@@ -9139,7 +9139,7 @@
         <v>140</v>
       </c>
       <c r="AN64" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO64" t="n">
         <v>140</v>
@@ -9202,7 +9202,7 @@
         <v>1.61</v>
       </c>
       <c r="P65" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q65" t="n">
         <v>2.86</v>
@@ -9316,7 +9316,7 @@
         <v>2.94</v>
       </c>
       <c r="I66" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
         <v>3.15</v>
@@ -9355,7 +9355,7 @@
         <v>1.96</v>
       </c>
       <c r="V66" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W66" t="n">
         <v>1.53</v>
@@ -9412,7 +9412,7 @@
         <v>40</v>
       </c>
       <c r="AO66" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
@@ -9448,16 +9448,16 @@
         <v>2.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I67" t="n">
         <v>4.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K67" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
@@ -9619,10 +9619,10 @@
         <v>3.75</v>
       </c>
       <c r="T68" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U68" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V68" t="n">
         <v>1.17</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="G69" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H69" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="I69" t="n">
         <v>3.6</v>
       </c>
       <c r="J69" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="K69" t="n">
-        <v>12.5</v>
+        <v>4.8</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9736,16 +9736,16 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="O69" t="n">
         <v>1.28</v>
       </c>
       <c r="P69" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R69" t="n">
         <v>1.33</v>
@@ -9760,10 +9760,10 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W69" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9853,7 +9853,7 @@
         <v>2.84</v>
       </c>
       <c r="H70" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I70" t="n">
         <v>3.2</v>
@@ -9871,7 +9871,7 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O70" t="n">
         <v>1.34</v>
@@ -9880,7 +9880,7 @@
         <v>1.83</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
         <v>1.26</v>
@@ -9991,10 +9991,10 @@
         <v>3.7</v>
       </c>
       <c r="I71" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J71" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K71" t="n">
         <v>3.35</v>
@@ -10009,7 +10009,7 @@
         <v>1.64</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="P71" t="n">
         <v>1.64</v>
@@ -10030,7 +10030,7 @@
         <v>1.89</v>
       </c>
       <c r="V71" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W71" t="n">
         <v>1.72</v>
@@ -10264,10 +10264,10 @@
         <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K73" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10282,10 +10282,10 @@
         <v>1.27</v>
       </c>
       <c r="P73" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R73" t="n">
         <v>1.33</v>
@@ -10522,13 +10522,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G75" t="n">
         <v>3.85</v>
       </c>
       <c r="H75" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I75" t="n">
         <v>2.7</v>
@@ -10699,10 +10699,10 @@
         <v>3.5</v>
       </c>
       <c r="T76" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U76" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V76" t="n">
         <v>1.2</v>
@@ -10711,31 +10711,31 @@
         <v>2.42</v>
       </c>
       <c r="X76" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y76" t="n">
         <v>18.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AA76" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB76" t="n">
         <v>8</v>
       </c>
       <c r="AC76" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD76" t="n">
         <v>22</v>
       </c>
       <c r="AE76" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="AF76" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG76" t="n">
         <v>9.4</v>
@@ -10747,22 +10747,22 @@
         <v>85</v>
       </c>
       <c r="AJ76" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM76" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN76" t="n">
         <v>11</v>
       </c>
       <c r="AO76" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
@@ -10801,7 +10801,7 @@
         <v>32</v>
       </c>
       <c r="I77" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J77" t="n">
         <v>12</v>
@@ -10828,13 +10828,13 @@
         <v>1.28</v>
       </c>
       <c r="R77" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="S77" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="T77" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U77" t="n">
         <v>1.79</v>
@@ -10846,7 +10846,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X77" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y77" t="n">
         <v>1000</v>
@@ -10894,7 +10894,7 @@
         <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AO77" t="n">
         <v>1000</v>
@@ -11092,10 +11092,10 @@
         <v>1.19</v>
       </c>
       <c r="P79" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R79" t="n">
         <v>1.64</v>
@@ -11104,13 +11104,13 @@
         <v>2.48</v>
       </c>
       <c r="T79" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U79" t="n">
         <v>2.46</v>
       </c>
       <c r="V79" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W79" t="n">
         <v>2.34</v>
@@ -11125,7 +11125,7 @@
         <v>44</v>
       </c>
       <c r="AA79" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB79" t="n">
         <v>12.5</v>
@@ -11332,13 +11332,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G81" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H81" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I81" t="n">
         <v>2.2</v>
@@ -11383,7 +11383,7 @@
         <v>1.83</v>
       </c>
       <c r="W81" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X81" t="n">
         <v>16.5</v>
@@ -11398,10 +11398,10 @@
         <v>27</v>
       </c>
       <c r="AB81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD81" t="n">
         <v>11</v>
@@ -11410,25 +11410,25 @@
         <v>22</v>
       </c>
       <c r="AF81" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH81" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI81" t="n">
         <v>980</v>
       </c>
       <c r="AJ81" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL81" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM81" t="n">
         <v>90</v>
@@ -11470,7 +11470,7 @@
         <v>3.65</v>
       </c>
       <c r="G82" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>2.1</v>
@@ -11494,7 +11494,7 @@
         <v>3.35</v>
       </c>
       <c r="O82" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P82" t="n">
         <v>1.86</v>
@@ -11530,10 +11530,10 @@
         <v>14.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB82" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC82" t="n">
         <v>9.4</v>
@@ -11545,7 +11545,7 @@
         <v>26</v>
       </c>
       <c r="AF82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG82" t="n">
         <v>17</v>
@@ -11554,16 +11554,16 @@
         <v>23</v>
       </c>
       <c r="AI82" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ82" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK82" t="n">
         <v>60</v>
       </c>
       <c r="AL82" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM82" t="n">
         <v>130</v>
@@ -11629,13 +11629,13 @@
         <v>5.9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
         <v>2.66</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R83" t="n">
         <v>1.68</v>
@@ -11644,7 +11644,7 @@
         <v>2.42</v>
       </c>
       <c r="T83" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U83" t="n">
         <v>1.82</v>
@@ -11656,13 +11656,13 @@
         <v>4.6</v>
       </c>
       <c r="X83" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y83" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z83" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA83" t="n">
         <v>980</v>
@@ -11692,7 +11692,7 @@
         <v>170</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK83" t="n">
         <v>13</v>
@@ -11737,25 +11737,25 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G84" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I84" t="n">
         <v>8.4</v>
       </c>
       <c r="J84" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K84" t="n">
         <v>4.9</v>
       </c>
-      <c r="K84" t="n">
-        <v>5</v>
-      </c>
       <c r="L84" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -11767,10 +11767,10 @@
         <v>1.28</v>
       </c>
       <c r="P84" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R84" t="n">
         <v>1.44</v>
@@ -11788,7 +11788,7 @@
         <v>1.13</v>
       </c>
       <c r="W84" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X84" t="n">
         <v>17</v>
@@ -11800,7 +11800,7 @@
         <v>70</v>
       </c>
       <c r="AA84" t="n">
-        <v>980</v>
+        <v>260</v>
       </c>
       <c r="AB84" t="n">
         <v>8.4</v>
@@ -11809,13 +11809,13 @@
         <v>10.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE84" t="n">
         <v>130</v>
       </c>
       <c r="AF84" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG84" t="n">
         <v>9.800000000000001</v>
@@ -11836,7 +11836,7 @@
         <v>38</v>
       </c>
       <c r="AM84" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN84" t="n">
         <v>7.4</v>
@@ -11875,13 +11875,13 @@
         <v>3.2</v>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H85" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I85" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J85" t="n">
         <v>3.5</v>
@@ -11896,19 +11896,19 @@
         <v>1.08</v>
       </c>
       <c r="N85" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O85" t="n">
         <v>1.35</v>
       </c>
       <c r="P85" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R85" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S85" t="n">
         <v>3.7</v>
@@ -11923,7 +11923,7 @@
         <v>1.67</v>
       </c>
       <c r="W85" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X85" t="n">
         <v>12.5</v>
@@ -11932,7 +11932,7 @@
         <v>10.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA85" t="n">
         <v>30</v>
@@ -11947,34 +11947,34 @@
         <v>11.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG85" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH85" t="n">
         <v>17</v>
       </c>
       <c r="AI85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ85" t="n">
         <v>50</v>
       </c>
       <c r="AK85" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM85" t="n">
         <v>95</v>
       </c>
       <c r="AN85" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO85" t="n">
         <v>22</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G86" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H86" t="n">
         <v>5.5</v>
       </c>
       <c r="I86" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="J86" t="n">
         <v>4.2</v>
       </c>
       <c r="K86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12049,22 +12049,22 @@
         <v>2.06</v>
       </c>
       <c r="T86" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="U86" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="W86" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z86" t="n">
         <v>1000</v>
@@ -12073,37 +12073,37 @@
         <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE86" t="n">
         <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI86" t="n">
         <v>1000</v>
       </c>
       <c r="AJ86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL86" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM86" t="n">
         <v>1000</v>
@@ -12163,7 +12163,7 @@
         <v>1.33</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N87" t="n">
         <v>2.96</v>
@@ -12403,121 +12403,121 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.56</v>
+        <v>2.22</v>
       </c>
       <c r="G89" t="n">
-        <v>1.94</v>
+        <v>2.52</v>
       </c>
       <c r="H89" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="J89" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K89" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="L89" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N89" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="O89" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P89" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R89" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="S89" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V89" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="W89" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="X89" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y89" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA89" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB89" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE89" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF89" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG89" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH89" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK89" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL89" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM89" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN89" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -12826,7 +12826,7 @@
         <v>10.5</v>
       </c>
       <c r="I92" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J92" t="n">
         <v>5.1</v>
@@ -12943,121 +12943,121 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="G93" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="J93" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K93" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="P93" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S93" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q93" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S93" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T93" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="W93" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="X93" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
@@ -13078,55 +13078,55 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F94" t="n">
         <v>1.67</v>
       </c>
       <c r="G94" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="H94" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I94" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="J94" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K94" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="L94" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M94" t="n">
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O94" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="P94" t="n">
-        <v>2.28</v>
+        <v>1.84</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.43</v>
+        <v>1.77</v>
       </c>
       <c r="R94" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="S94" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13135,10 +13135,10 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="W94" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="X94" t="n">
         <v>1000</v>
@@ -13225,10 +13225,10 @@
         <v>1.07</v>
       </c>
       <c r="G95" t="n">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="H95" t="n">
-        <v>3.95</v>
+        <v>1.09</v>
       </c>
       <c r="I95" t="n">
         <v>120</v>
@@ -13237,7 +13237,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13273,7 +13273,7 @@
         <v>1.01</v>
       </c>
       <c r="W95" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -13504,7 +13504,7 @@
         <v>2.4</v>
       </c>
       <c r="J97" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K97" t="n">
         <v>3.65</v>
@@ -13546,7 +13546,7 @@
         <v>1.38</v>
       </c>
       <c r="X97" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y97" t="n">
         <v>11</v>
@@ -13570,7 +13570,7 @@
         <v>32</v>
       </c>
       <c r="AF97" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG97" t="n">
         <v>18.5</v>
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G98" t="n">
         <v>1.23</v>
       </c>
       <c r="H98" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I98" t="n">
         <v>17</v>
       </c>
       <c r="J98" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L98" t="n">
         <v>1.18</v>
@@ -13666,7 +13666,7 @@
         <v>1.95</v>
       </c>
       <c r="S98" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T98" t="n">
         <v>1.96</v>
@@ -13678,7 +13678,7 @@
         <v>1.06</v>
       </c>
       <c r="W98" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X98" t="n">
         <v>42</v>
@@ -13906,7 +13906,7 @@
         <v>2.56</v>
       </c>
       <c r="I100" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J100" t="n">
         <v>3.8</v>
@@ -13945,7 +13945,7 @@
         <v>1.04</v>
       </c>
       <c r="V100" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W100" t="n">
         <v>2.5</v>
@@ -14023,127 +14023,127 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="H101" t="n">
-        <v>2.12</v>
+        <v>3.1</v>
       </c>
       <c r="I101" t="n">
-        <v>2.22</v>
+        <v>3.45</v>
       </c>
       <c r="J101" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K101" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L101" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="M101" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N101" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="O101" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P101" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="R101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S101" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T101" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U101" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V101" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="W101" t="n">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="X101" t="n">
         <v>12</v>
       </c>
       <c r="Y101" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="Z101" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AA101" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AB101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG101" t="n">
         <v>13</v>
       </c>
-      <c r="AC101" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH101" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI101" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ101" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AK101" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL101" t="n">
         <v>60</v>
       </c>
-      <c r="AL101" t="n">
-        <v>75</v>
-      </c>
       <c r="AM101" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN101" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AO101" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14158,127 +14158,127 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="G102" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="I102" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="J102" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K102" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L102" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M102" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N102" t="n">
-        <v>1.24</v>
+        <v>3.05</v>
       </c>
       <c r="O102" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P102" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R102" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S102" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="T102" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U102" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V102" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="W102" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X102" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y102" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z102" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA102" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB102" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC102" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD102" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE102" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF102" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG102" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH102" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI102" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ102" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK102" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL102" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM102" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN102" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO102" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14293,127 +14293,127 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="G103" t="n">
-        <v>2.72</v>
+        <v>980</v>
       </c>
       <c r="H103" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I103" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="J103" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K103" t="n">
-        <v>3.35</v>
+        <v>980</v>
       </c>
       <c r="L103" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="M103" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>2.86</v>
+        <v>1.24</v>
       </c>
       <c r="O103" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="P103" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R103" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S103" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="T103" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="U103" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V103" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="W103" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="X103" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y103" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z103" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA103" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC103" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD103" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE103" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF103" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG103" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH103" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI103" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK103" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL103" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM103" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO103" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14428,127 +14428,127 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.4</v>
+        <v>8.6</v>
       </c>
       <c r="G104" t="n">
+        <v>16</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S104" t="n">
         <v>2.58</v>
       </c>
-      <c r="H104" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N104" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P104" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R104" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S104" t="n">
-        <v>2.74</v>
-      </c>
       <c r="T104" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>1.47</v>
+        <v>3.25</v>
       </c>
       <c r="W104" t="n">
-        <v>1.63</v>
+        <v>1.06</v>
       </c>
       <c r="X104" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z104" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA104" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB104" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC104" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD104" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE104" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF104" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG104" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH104" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI104" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ104" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL104" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM104" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14563,67 +14563,67 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T105" t="n">
         <v>1.62</v>
       </c>
-      <c r="G105" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I105" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K105" t="n">
-        <v>980</v>
-      </c>
-      <c r="L105" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P105" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R105" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S105" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1.42</v>
-      </c>
       <c r="U105" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V105" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="W105" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14683,7 +14683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14698,67 +14698,67 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="G106" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="H106" t="n">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="I106" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J106" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="K106" t="n">
         <v>980</v>
       </c>
       <c r="L106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T106" t="n">
         <v>1.42</v>
       </c>
-      <c r="M106" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N106" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="O106" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P106" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R106" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S106" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U106" t="n">
         <v>1.01</v>
       </c>
       <c r="V106" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W106" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X106" t="n">
         <v>1000</v>
@@ -14818,7 +14818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14833,56 +14833,56 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>8.6</v>
+        <v>1.39</v>
       </c>
       <c r="G107" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="H107" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="I107" t="n">
-        <v>1.44</v>
+        <v>1000</v>
       </c>
       <c r="J107" t="n">
-        <v>4.7</v>
+        <v>1.02</v>
       </c>
       <c r="K107" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="L107" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M107" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>3.55</v>
+        <v>1.18</v>
       </c>
       <c r="O107" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="P107" t="n">
-        <v>2.02</v>
+        <v>1.18</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="R107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S107" t="n">
         <v>1.34</v>
       </c>
-      <c r="S107" t="n">
-        <v>2.58</v>
-      </c>
       <c r="T107" t="n">
         <v>1.01</v>
       </c>
@@ -14890,10 +14890,10 @@
         <v>1.01</v>
       </c>
       <c r="V107" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="W107" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -14989,7 +14989,7 @@
         <v>10</v>
       </c>
       <c r="J108" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K108" t="n">
         <v>5</v>
@@ -15025,7 +15025,7 @@
         <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W108" t="n">
         <v>2.68</v>
@@ -15088,7 +15088,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15103,127 +15103,127 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>5.4</v>
+        <v>1.36</v>
       </c>
       <c r="G109" t="n">
-        <v>5.6</v>
+        <v>1.63</v>
       </c>
       <c r="H109" t="n">
-        <v>1.64</v>
+        <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>1.66</v>
+        <v>10</v>
       </c>
       <c r="J109" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K109" t="n">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
       </c>
       <c r="M109" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N109" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="O109" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P109" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="R109" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="S109" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="T109" t="n">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="U109" t="n">
-        <v>2.62</v>
+        <v>1.94</v>
       </c>
       <c r="V109" t="n">
-        <v>2.5</v>
+        <v>1.11</v>
       </c>
       <c r="W109" t="n">
-        <v>1.21</v>
+        <v>2.58</v>
       </c>
       <c r="X109" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y109" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z109" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA109" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AB109" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC109" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD109" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE109" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF109" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG109" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH109" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI109" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK109" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL109" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM109" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN109" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO109" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -15238,121 +15238,121 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.36</v>
+        <v>5.4</v>
       </c>
       <c r="G110" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.63</v>
       </c>
-      <c r="H110" t="n">
-        <v>6</v>
-      </c>
       <c r="I110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N110" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X110" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD110" t="n">
         <v>10</v>
       </c>
-      <c r="J110" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M110" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N110" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O110" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P110" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R110" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S110" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T110" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U110" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V110" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W110" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE110" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF110" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG110" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH110" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AJ110" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK110" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL110" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM110" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN110" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO110" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="111">
@@ -15373,118 +15373,118 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SV Ried</t>
+          <t>Austria Wien</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>RZ Pellets WAC</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.54</v>
+        <v>1.66</v>
       </c>
       <c r="G111" t="n">
-        <v>2.76</v>
+        <v>1.74</v>
       </c>
       <c r="H111" t="n">
-        <v>2.88</v>
+        <v>5.6</v>
       </c>
       <c r="I111" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="J111" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K111" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L111" t="n">
         <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N111" t="n">
-        <v>1.86</v>
+        <v>3.4</v>
       </c>
       <c r="O111" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P111" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q111" t="n">
         <v>2.02</v>
       </c>
       <c r="R111" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S111" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T111" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="U111" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="V111" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="W111" t="n">
-        <v>1.56</v>
+        <v>2.36</v>
       </c>
       <c r="X111" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y111" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Z111" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AA111" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB111" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC111" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD111" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE111" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF111" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AG111" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN111" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>1000</v>
       </c>
       <c r="AO111" t="n">
         <v>1000</v>
@@ -15508,121 +15508,121 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Grazer AK</t>
+          <t>SV Ried</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FC Blau Weiss Linz</t>
+          <t>RZ Pellets WAC</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="G112" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="H112" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I112" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J112" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K112" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>2.8</v>
+        <v>1.86</v>
       </c>
       <c r="O112" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="P112" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="R112" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S112" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="T112" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="U112" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V112" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W112" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X112" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y112" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z112" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA112" t="n">
         <v>65</v>
       </c>
       <c r="AB112" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC112" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE112" t="n">
         <v>980</v>
       </c>
       <c r="AF112" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG112" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH112" t="n">
         <v>25</v>
       </c>
       <c r="AI112" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ112" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK112" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL112" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM112" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO112" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
@@ -15643,121 +15643,121 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Austria Wien</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>FC Blau Weiss Linz</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.66</v>
+        <v>2.72</v>
       </c>
       <c r="G113" t="n">
-        <v>1.74</v>
+        <v>2.98</v>
       </c>
       <c r="H113" t="n">
-        <v>5.6</v>
+        <v>2.84</v>
       </c>
       <c r="I113" t="n">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="J113" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K113" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L113" t="n">
         <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N113" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O113" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="P113" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R113" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S113" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="T113" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="U113" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V113" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="W113" t="n">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="X113" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y113" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AA113" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB113" t="n">
         <v>11</v>
       </c>
       <c r="AC113" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD113" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE113" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF113" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AG113" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH113" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI113" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ113" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AK113" t="n">
         <v>980</v>
       </c>
       <c r="AL113" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM113" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN113" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AO113" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
@@ -15820,7 +15820,7 @@
         <v>1.61</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R114" t="n">
         <v>1.22</v>
@@ -15829,10 +15829,10 @@
         <v>4.5</v>
       </c>
       <c r="T114" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U114" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="V114" t="n">
         <v>1.4</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G115" t="n">
         <v>1.67</v>
@@ -15946,22 +15946,22 @@
         <v>1.01</v>
       </c>
       <c r="N115" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="O115" t="n">
         <v>1.02</v>
       </c>
       <c r="P115" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R115" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S115" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T115" t="n">
         <v>1.01</v>
@@ -15970,7 +15970,7 @@
         <v>1.01</v>
       </c>
       <c r="V115" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="W115" t="n">
         <v>2.48</v>
@@ -16072,7 +16072,7 @@
         <v>2.72</v>
       </c>
       <c r="K116" t="n">
-        <v>5</v>
+        <v>980</v>
       </c>
       <c r="L116" t="n">
         <v>1.41</v>
@@ -16081,13 +16081,13 @@
         <v>1.01</v>
       </c>
       <c r="N116" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O116" t="n">
         <v>1.01</v>
       </c>
       <c r="P116" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q116" t="n">
         <v>2.16</v>
@@ -16096,7 +16096,7 @@
         <v>1.18</v>
       </c>
       <c r="S116" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T116" t="n">
         <v>1.01</v>
@@ -16375,7 +16375,7 @@
         <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W118" t="n">
         <v>2.28</v>
@@ -16438,7 +16438,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -16453,121 +16453,121 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="G119" t="n">
-        <v>2.24</v>
+        <v>3.55</v>
       </c>
       <c r="H119" t="n">
-        <v>3.4</v>
+        <v>2.22</v>
       </c>
       <c r="I119" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="J119" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K119" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L119" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M119" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N119" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O119" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P119" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="R119" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V119" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W119" t="n">
         <v>1.39</v>
       </c>
-      <c r="S119" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T119" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U119" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V119" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W119" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y119" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Z119" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB119" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AC119" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD119" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AE119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF119" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG119" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AH119" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ119" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK119" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL119" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM119" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="120">
@@ -16762,10 +16762,10 @@
         <v>1.16</v>
       </c>
       <c r="P121" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R121" t="n">
         <v>1.18</v>
@@ -16843,7 +16843,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -16858,31 +16858,31 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="G122" t="n">
-        <v>980</v>
+        <v>2.48</v>
       </c>
       <c r="H122" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I122" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="J122" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K122" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L122" t="n">
         <v>1.01</v>
@@ -16891,34 +16891,34 @@
         <v>1.01</v>
       </c>
       <c r="N122" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O122" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P122" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="R122" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S122" t="n">
-        <v>1.23</v>
+        <v>2.68</v>
       </c>
       <c r="T122" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U122" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V122" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W122" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X122" t="n">
         <v>1000</v>
@@ -16978,7 +16978,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -16993,127 +16993,127 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
       <c r="G123" t="n">
-        <v>3.55</v>
+        <v>1.37</v>
       </c>
       <c r="H123" t="n">
-        <v>2.22</v>
+        <v>11</v>
       </c>
       <c r="I123" t="n">
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="J123" t="n">
-        <v>3.55</v>
+        <v>5.4</v>
       </c>
       <c r="K123" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="L123" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M123" t="n">
         <v>1.06</v>
       </c>
       <c r="N123" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O123" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P123" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R123" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S123" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="T123" t="n">
-        <v>1.69</v>
+        <v>2.52</v>
       </c>
       <c r="U123" t="n">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="V123" t="n">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="W123" t="n">
-        <v>1.39</v>
+        <v>3.7</v>
       </c>
       <c r="X123" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y123" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z123" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AA123" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="AB123" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="AC123" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AD123" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="AE123" t="n">
-        <v>980</v>
+        <v>330</v>
       </c>
       <c r="AF123" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="AG123" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH123" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI123" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AJ123" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AK123" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AL123" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM123" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AN123" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AO123" t="n">
-        <v>980</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -17128,121 +17128,121 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Trencin</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Dunajska Streda</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.36</v>
+        <v>4.8</v>
       </c>
       <c r="G124" t="n">
-        <v>1.38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>11</v>
+        <v>1.49</v>
       </c>
       <c r="I124" t="n">
-        <v>12.5</v>
+        <v>1.79</v>
       </c>
       <c r="J124" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="K124" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="L124" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M124" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N124" t="n">
         <v>3.85</v>
       </c>
       <c r="O124" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P124" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="R124" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S124" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="T124" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="U124" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V124" t="n">
-        <v>1.08</v>
+        <v>2.26</v>
       </c>
       <c r="W124" t="n">
-        <v>3.65</v>
+        <v>1.13</v>
       </c>
       <c r="X124" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y124" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z124" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA124" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="AB124" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC124" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD124" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE124" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AF124" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AG124" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH124" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI124" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ124" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK124" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL124" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM124" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN124" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO124" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="125">
@@ -17305,7 +17305,7 @@
         <v>2.64</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R125" t="n">
         <v>1.66</v>
@@ -17518,7 +17518,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -17533,31 +17533,31 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Trencin</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Dunajska Streda</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="G127" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="H127" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="I127" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="J127" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="K127" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="L127" t="n">
         <v>1.01</v>
@@ -17566,22 +17566,22 @@
         <v>1.01</v>
       </c>
       <c r="N127" t="n">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="O127" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P127" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="R127" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S127" t="n">
-        <v>2.34</v>
+        <v>1.23</v>
       </c>
       <c r="T127" t="n">
         <v>1.01</v>
@@ -17590,10 +17590,10 @@
         <v>1.01</v>
       </c>
       <c r="V127" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="W127" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="X127" t="n">
         <v>1000</v>
@@ -17653,7 +17653,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -17668,121 +17668,121 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="G128" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="H128" t="n">
-        <v>2.56</v>
+        <v>2.24</v>
       </c>
       <c r="I128" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J128" t="n">
         <v>3.45</v>
       </c>
-      <c r="J128" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K128" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L128" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M128" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N128" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O128" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="P128" t="n">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="R128" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S128" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="T128" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U128" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V128" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="W128" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="X128" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y128" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z128" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA128" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB128" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC128" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD128" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE128" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF128" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG128" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH128" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI128" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ128" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK128" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL128" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM128" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN128" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO128" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
@@ -17803,31 +17803,31 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="G129" t="n">
-        <v>1.66</v>
+        <v>3.05</v>
       </c>
       <c r="H129" t="n">
-        <v>6.4</v>
+        <v>2.56</v>
       </c>
       <c r="I129" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="J129" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K129" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="L129" t="n">
         <v>1.01</v>
@@ -17836,94 +17836,94 @@
         <v>1.01</v>
       </c>
       <c r="N129" t="n">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="O129" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P129" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="Q129" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="R129" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S129" t="n">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="T129" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U129" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V129" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="W129" t="n">
-        <v>2.5</v>
+        <v>1.48</v>
       </c>
       <c r="X129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z129" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA129" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB129" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE129" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF129" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG129" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI129" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL129" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM129" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN129" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO129" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -17938,121 +17938,121 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3.65</v>
+        <v>1.61</v>
       </c>
       <c r="G130" t="n">
-        <v>3.75</v>
+        <v>1.66</v>
       </c>
       <c r="H130" t="n">
-        <v>2.26</v>
+        <v>6.4</v>
       </c>
       <c r="I130" t="n">
-        <v>2.3</v>
+        <v>7.6</v>
       </c>
       <c r="J130" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K130" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L130" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M130" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N130" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="O130" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P130" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S130" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T130" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U130" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="V130" t="n">
-        <v>1.77</v>
+        <v>1.15</v>
       </c>
       <c r="W130" t="n">
-        <v>1.36</v>
+        <v>2.5</v>
       </c>
       <c r="X130" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y130" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z130" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AA130" t="n">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="AB130" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="AC130" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD130" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE130" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AF130" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AG130" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI130" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AJ130" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AK130" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL130" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM130" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AN130" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="AO130" t="n">
-        <v>22</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131">
@@ -18085,7 +18085,7 @@
         <v>1.31</v>
       </c>
       <c r="G131" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>9.800000000000001</v>
@@ -18094,7 +18094,7 @@
         <v>14.5</v>
       </c>
       <c r="J131" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="K131" t="n">
         <v>7</v>
@@ -18193,7 +18193,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -18208,70 +18208,70 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H132" t="n">
         <v>5.5</v>
       </c>
       <c r="I132" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J132" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K132" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M132" t="n">
         <v>1.01</v>
       </c>
       <c r="N132" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="O132" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P132" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R132" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="S132" t="n">
-        <v>2.7</v>
+        <v>1.63</v>
       </c>
       <c r="T132" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U132" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V132" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="W132" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="X132" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y132" t="n">
         <v>1000</v>
@@ -18283,7 +18283,7 @@
         <v>1000</v>
       </c>
       <c r="AB132" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC132" t="n">
         <v>1000</v>
@@ -18355,7 +18355,7 @@
         <v>1.52</v>
       </c>
       <c r="G133" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>5.1</v>
@@ -18622,16 +18622,16 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H135" t="n">
         <v>2.76</v>
       </c>
       <c r="I135" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J135" t="n">
         <v>3.4</v>
@@ -18733,7 +18733,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -18748,70 +18748,70 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="G136" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H136" t="n">
         <v>5.5</v>
       </c>
       <c r="I136" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J136" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K136" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="L136" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M136" t="n">
         <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="O136" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P136" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="R136" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="S136" t="n">
-        <v>1.63</v>
+        <v>2.7</v>
       </c>
       <c r="T136" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U136" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V136" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="W136" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X136" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y136" t="n">
         <v>1000</v>
@@ -18823,7 +18823,7 @@
         <v>1000</v>
       </c>
       <c r="AB136" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC136" t="n">
         <v>1000</v>
@@ -18892,19 +18892,19 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G137" t="n">
         <v>2.26</v>
       </c>
       <c r="H137" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I137" t="n">
         <v>3.75</v>
       </c>
       <c r="J137" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K137" t="n">
         <v>4.1</v>
@@ -18940,10 +18940,10 @@
         <v>2.36</v>
       </c>
       <c r="V137" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W137" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X137" t="n">
         <v>23</v>
@@ -18994,7 +18994,7 @@
         <v>85</v>
       </c>
       <c r="AN137" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO137" t="n">
         <v>36</v>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="G138" t="n">
         <v>2.9</v>
@@ -19036,7 +19036,7 @@
         <v>2.66</v>
       </c>
       <c r="I138" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="J138" t="n">
         <v>3.5</v>
@@ -19075,7 +19075,7 @@
         <v>1.01</v>
       </c>
       <c r="V138" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W138" t="n">
         <v>1.52</v>
@@ -19132,7 +19132,7 @@
         <v>1000</v>
       </c>
       <c r="AO138" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139">
@@ -19162,19 +19162,19 @@
         </is>
       </c>
       <c r="F139" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G139" t="n">
         <v>1.86</v>
       </c>
-      <c r="G139" t="n">
-        <v>1.88</v>
-      </c>
       <c r="H139" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I139" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J139" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K139" t="n">
         <v>4</v>
@@ -19195,7 +19195,7 @@
         <v>2.02</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R139" t="n">
         <v>1.4</v>
@@ -19204,7 +19204,7 @@
         <v>3.35</v>
       </c>
       <c r="T139" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U139" t="n">
         <v>2.12</v>
@@ -19213,13 +19213,13 @@
         <v>1.25</v>
       </c>
       <c r="W139" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X139" t="n">
         <v>16.5</v>
       </c>
       <c r="Y139" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z139" t="n">
         <v>40</v>
@@ -19228,19 +19228,19 @@
         <v>140</v>
       </c>
       <c r="AB139" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC139" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD139" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE139" t="n">
         <v>65</v>
       </c>
       <c r="AF139" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG139" t="n">
         <v>10.5</v>
@@ -19303,7 +19303,7 @@
         <v>10.5</v>
       </c>
       <c r="H140" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I140" t="n">
         <v>1.4</v>
@@ -19369,7 +19369,7 @@
         <v>14.5</v>
       </c>
       <c r="AD140" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE140" t="n">
         <v>18.5</v>
@@ -19408,7 +19408,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -19423,34 +19423,34 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Puszcza Niepolomice</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="G141" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="H141" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="I141" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="J141" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K141" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L141" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M141" t="n">
         <v>1.01</v>
@@ -19459,19 +19459,19 @@
         <v>3.1</v>
       </c>
       <c r="O141" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P141" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="R141" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S141" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="T141" t="n">
         <v>1.01</v>
@@ -19480,10 +19480,10 @@
         <v>1.01</v>
       </c>
       <c r="V141" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="W141" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="X141" t="n">
         <v>1000</v>
@@ -19558,31 +19558,31 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="G142" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="H142" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="I142" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="J142" t="n">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="K142" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="L142" t="n">
         <v>1.01</v>
@@ -19591,22 +19591,22 @@
         <v>1.01</v>
       </c>
       <c r="N142" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="O142" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P142" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="R142" t="n">
         <v>1.18</v>
       </c>
       <c r="S142" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="T142" t="n">
         <v>1.01</v>
@@ -19615,10 +19615,10 @@
         <v>1.01</v>
       </c>
       <c r="V142" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W142" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X142" t="n">
         <v>1000</v>
@@ -19678,7 +19678,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -19693,34 +19693,34 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="G143" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="H143" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="I143" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="J143" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="K143" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="L143" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M143" t="n">
         <v>1.01</v>
@@ -19729,19 +19729,19 @@
         <v>3.1</v>
       </c>
       <c r="O143" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P143" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="R143" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S143" t="n">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="T143" t="n">
         <v>1.01</v>
@@ -19750,10 +19750,10 @@
         <v>1.01</v>
       </c>
       <c r="V143" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="W143" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="X143" t="n">
         <v>1000</v>
@@ -19828,31 +19828,31 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="G144" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="H144" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="I144" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="J144" t="n">
-        <v>1.02</v>
+        <v>2.7</v>
       </c>
       <c r="K144" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L144" t="n">
         <v>1.01</v>
@@ -19861,22 +19861,22 @@
         <v>1.01</v>
       </c>
       <c r="N144" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="O144" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P144" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="R144" t="n">
         <v>1.18</v>
       </c>
       <c r="S144" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="T144" t="n">
         <v>1.01</v>
@@ -19885,10 +19885,10 @@
         <v>1.01</v>
       </c>
       <c r="V144" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W144" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X144" t="n">
         <v>1000</v>
@@ -20083,7 +20083,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -20098,55 +20098,55 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Rapid Vienna (Am)</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SK Sturm Graz II</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2.18</v>
+        <v>1.49</v>
       </c>
       <c r="G146" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
-        <v>2.98</v>
+        <v>7.6</v>
       </c>
       <c r="I146" t="n">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="J146" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K146" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L146" t="n">
         <v>1.01</v>
       </c>
       <c r="M146" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N146" t="n">
-        <v>2.28</v>
+        <v>3.25</v>
       </c>
       <c r="O146" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="P146" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="R146" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="S146" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="T146" t="n">
         <v>1.01</v>
@@ -20155,10 +20155,10 @@
         <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="W146" t="n">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="X146" t="n">
         <v>1000</v>
@@ -20218,7 +20218,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -20233,127 +20233,127 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="G147" t="n">
-        <v>1.92</v>
+        <v>2.62</v>
       </c>
       <c r="H147" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I147" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="J147" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K147" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="L147" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M147" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N147" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="O147" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P147" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="R147" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="S147" t="n">
-        <v>2.28</v>
+        <v>4</v>
       </c>
       <c r="T147" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U147" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V147" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="W147" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="X147" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y147" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA147" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB147" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC147" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD147" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE147" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF147" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG147" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH147" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI147" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ147" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK147" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL147" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM147" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN147" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO147" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -20368,127 +20368,127 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Vinotinto Ecuador</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="G148" t="n">
-        <v>2.52</v>
+        <v>4.3</v>
       </c>
       <c r="H148" t="n">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="I148" t="n">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="J148" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K148" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="L148" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M148" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N148" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O148" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="P148" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="R148" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S148" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="T148" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U148" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V148" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="W148" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="X148" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y148" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z148" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA148" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB148" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC148" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD148" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE148" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF148" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG148" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH148" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI148" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ148" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK148" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL148" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM148" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN148" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO148" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -20503,32 +20503,32 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vinotinto Ecuador</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>SK Sturm Graz II</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.86</v>
+        <v>2.2</v>
       </c>
       <c r="G149" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K149" t="n">
         <v>4.3</v>
       </c>
-      <c r="H149" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K149" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L149" t="n">
         <v>1.01</v>
       </c>
@@ -20536,22 +20536,22 @@
         <v>1.01</v>
       </c>
       <c r="N149" t="n">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
       <c r="O149" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="P149" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="R149" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="S149" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="T149" t="n">
         <v>1.01</v>
@@ -20560,10 +20560,10 @@
         <v>1.01</v>
       </c>
       <c r="V149" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="W149" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="X149" t="n">
         <v>1000</v>
@@ -20623,7 +20623,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -20638,55 +20638,55 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="H150" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="I150" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J150" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K150" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="L150" t="n">
         <v>1.01</v>
       </c>
       <c r="M150" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N150" t="n">
-        <v>3.25</v>
+        <v>2.04</v>
       </c>
       <c r="O150" t="n">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="P150" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="R150" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="S150" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="T150" t="n">
         <v>1.01</v>
@@ -20695,10 +20695,10 @@
         <v>1.01</v>
       </c>
       <c r="V150" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="W150" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="X150" t="n">
         <v>1000</v>
@@ -20920,7 +20920,7 @@
         <v>2.32</v>
       </c>
       <c r="G152" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="H152" t="n">
         <v>2.86</v>
@@ -20944,19 +20944,19 @@
         <v>2.46</v>
       </c>
       <c r="O152" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P152" t="n">
         <v>2.46</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="R152" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S152" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="T152" t="n">
         <v>1.01</v>
@@ -20968,7 +20968,7 @@
         <v>1.42</v>
       </c>
       <c r="W152" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X152" t="n">
         <v>1000</v>
@@ -21088,10 +21088,10 @@
         <v>1.46</v>
       </c>
       <c r="R153" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S153" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="T153" t="n">
         <v>1.01</v>
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="F154" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G154" t="n">
         <v>1.67</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1.68</v>
       </c>
       <c r="H154" t="n">
         <v>6.2</v>
@@ -21199,7 +21199,7 @@
         <v>6.4</v>
       </c>
       <c r="J154" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K154" t="n">
         <v>4.2</v>
@@ -21211,34 +21211,34 @@
         <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O154" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P154" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R154" t="n">
         <v>1.32</v>
       </c>
       <c r="S154" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T154" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U154" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V154" t="n">
         <v>1.18</v>
       </c>
       <c r="W154" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X154" t="n">
         <v>13</v>
@@ -21256,7 +21256,7 @@
         <v>7.4</v>
       </c>
       <c r="AC154" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD154" t="n">
         <v>25</v>
@@ -21298,7 +21298,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -21313,127 +21313,127 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="G155" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="H155" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I155" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J155" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K155" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L155" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="M155" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N155" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="O155" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="P155" t="n">
-        <v>2.72</v>
+        <v>1.79</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.49</v>
+        <v>2.08</v>
       </c>
       <c r="R155" t="n">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="S155" t="n">
-        <v>2.06</v>
+        <v>3.85</v>
       </c>
       <c r="T155" t="n">
-        <v>1.39</v>
+        <v>1.96</v>
       </c>
       <c r="U155" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V155" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W155" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="X155" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y155" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Z155" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AA155" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB155" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ155" t="n">
         <v>20</v>
       </c>
-      <c r="AC155" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD155" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>26</v>
-      </c>
       <c r="AK155" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL155" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM155" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AN155" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO155" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -21448,127 +21448,127 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2.26</v>
+        <v>1.23</v>
       </c>
       <c r="G156" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="H156" t="n">
-        <v>3.55</v>
+        <v>20</v>
       </c>
       <c r="I156" t="n">
-        <v>3.65</v>
+        <v>22</v>
       </c>
       <c r="J156" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="K156" t="n">
-        <v>3.55</v>
+        <v>7.4</v>
       </c>
       <c r="L156" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M156" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N156" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="O156" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P156" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="R156" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="S156" t="n">
-        <v>3.4</v>
+        <v>2.78</v>
       </c>
       <c r="T156" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="U156" t="n">
-        <v>2.22</v>
+        <v>1.58</v>
       </c>
       <c r="V156" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="W156" t="n">
-        <v>1.78</v>
+        <v>5.1</v>
       </c>
       <c r="X156" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y156" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="Z156" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL156" t="n">
         <v>65</v>
       </c>
-      <c r="AB156" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>36</v>
-      </c>
       <c r="AM156" t="n">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="AN156" t="n">
-        <v>17</v>
+        <v>4.4</v>
       </c>
       <c r="AO156" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -21583,127 +21583,127 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>5</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P157" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S157" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2</v>
+      </c>
+      <c r="V157" t="n">
         <v>1.23</v>
       </c>
-      <c r="G157" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H157" t="n">
+      <c r="W157" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB157" t="n">
         <v>20</v>
       </c>
-      <c r="I157" t="n">
-        <v>21</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K157" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L157" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N157" t="n">
-        <v>5</v>
-      </c>
-      <c r="O157" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P157" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R157" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S157" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T157" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U157" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V157" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W157" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X157" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y157" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AC157" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD157" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE157" t="n">
         <v>75</v>
       </c>
-      <c r="AE157" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF157" t="n">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="AG157" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH157" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AI157" t="n">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="AJ157" t="n">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="AK157" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AL157" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM157" t="n">
-        <v>410</v>
+        <v>90</v>
       </c>
       <c r="AN157" t="n">
-        <v>4.4</v>
+        <v>9</v>
       </c>
       <c r="AO157" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -21718,121 +21718,121 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="G158" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="I158" t="n">
-        <v>5.6</v>
+        <v>3.65</v>
       </c>
       <c r="J158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K158" t="n">
         <v>3.55</v>
       </c>
-      <c r="K158" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L158" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M158" t="n">
         <v>1.07</v>
       </c>
       <c r="N158" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="O158" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P158" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R158" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="S158" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="T158" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="U158" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="V158" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="W158" t="n">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="X158" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y158" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z158" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA158" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AB158" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AC158" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD158" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE158" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AF158" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AG158" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH158" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK158" t="n">
         <v>23</v>
       </c>
-      <c r="AI158" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ158" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK158" t="n">
-        <v>21</v>
-      </c>
       <c r="AL158" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM158" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AN158" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO158" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159">
@@ -21862,10 +21862,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G159" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H159" t="n">
         <v>6</v>
@@ -21895,7 +21895,7 @@
         <v>2.08</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R159" t="n">
         <v>1.42</v>
@@ -21904,7 +21904,7 @@
         <v>3.25</v>
       </c>
       <c r="T159" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U159" t="n">
         <v>2.02</v>
@@ -21913,7 +21913,7 @@
         <v>1.18</v>
       </c>
       <c r="W159" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X159" t="n">
         <v>21</v>
@@ -21940,7 +21940,7 @@
         <v>90</v>
       </c>
       <c r="AF159" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG159" t="n">
         <v>10.5</v>
@@ -21952,7 +21952,7 @@
         <v>85</v>
       </c>
       <c r="AJ159" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK159" t="n">
         <v>20</v>
@@ -21997,10 +21997,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G160" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H160" t="n">
         <v>6.4</v>
@@ -22027,7 +22027,7 @@
         <v>1.39</v>
       </c>
       <c r="P160" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q160" t="n">
         <v>2.2</v>
@@ -22045,10 +22045,10 @@
         <v>1.62</v>
       </c>
       <c r="V160" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W160" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X160" t="n">
         <v>1000</v>
@@ -22279,7 +22279,7 @@
         <v>5.9</v>
       </c>
       <c r="J162" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K162" t="n">
         <v>6.2</v>
@@ -22291,7 +22291,7 @@
         <v>1.01</v>
       </c>
       <c r="N162" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O162" t="n">
         <v>1.14</v>
@@ -22300,7 +22300,7 @@
         <v>2.4</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R162" t="n">
         <v>1.65</v>
@@ -22540,7 +22540,7 @@
         <v>1.97</v>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H164" t="n">
         <v>4.1</v>
@@ -22573,7 +22573,7 @@
         <v>2.24</v>
       </c>
       <c r="R164" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S164" t="n">
         <v>3.6</v>
@@ -22585,10 +22585,10 @@
         <v>1.01</v>
       </c>
       <c r="V164" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W164" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="X164" t="n">
         <v>1000</v>
@@ -22675,109 +22675,244 @@
         <v>1.04</v>
       </c>
       <c r="G165" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S165" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W165" t="n">
         <v>2.28</v>
       </c>
-      <c r="I165" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J165" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="K165" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0</v>
-      </c>
-      <c r="P165" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R165" t="n">
-        <v>0</v>
-      </c>
-      <c r="S165" t="n">
-        <v>0</v>
-      </c>
-      <c r="T165" t="n">
-        <v>0</v>
-      </c>
-      <c r="U165" t="n">
-        <v>0</v>
-      </c>
-      <c r="V165" t="n">
-        <v>0</v>
-      </c>
-      <c r="W165" t="n">
-        <v>0</v>
-      </c>
       <c r="X165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN165" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO165" t="n">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Inter Miami CF</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I166" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K166" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N166" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P166" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W166" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="X166" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO166"/>
+  <dimension ref="A1:AO174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,7 +721,7 @@
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>4.4</v>
@@ -832,7 +832,7 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
         <v>1.79</v>
@@ -847,7 +847,7 @@
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
@@ -952,7 +952,7 @@
         <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1237,13 +1237,13 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
         <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
         <v>3.4</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1636,16 +1636,16 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O9" t="n">
         <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
@@ -1663,13 +1663,13 @@
         <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>44</v>
@@ -1702,10 +1702,10 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>2.72</v>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>2.64</v>
@@ -1783,7 +1783,7 @@
         <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
         <v>2.44</v>
@@ -1900,7 +1900,7 @@
         <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1918,7 +1918,7 @@
         <v>1.01</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
         <v>1.02</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G12" t="n">
         <v>3.3</v>
@@ -2029,7 +2029,7 @@
         <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
         <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G13" t="n">
         <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4.1</v>
@@ -2182,7 +2182,7 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
         <v>1.87</v>
@@ -2200,61 +2200,61 @@
         <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W13" t="n">
         <v>1.23</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
         <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>20</v>
-      </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="n">
         <v>65</v>
       </c>
       <c r="AL13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN13" t="n">
         <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>70</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2290,7 +2290,7 @@
         <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
         <v>2.28</v>
@@ -2299,7 +2299,7 @@
         <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2329,70 +2329,70 @@
         <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="V14" t="n">
         <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2461,7 +2461,7 @@
         <v>1.16</v>
       </c>
       <c r="S15" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
@@ -3109,40 +3109,40 @@
         <v>7.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O20" t="n">
-        <v>1.02</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
         <v>1.14</v>
@@ -3412,7 +3412,7 @@
         <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V22" t="n">
         <v>1.05</v>
@@ -3544,10 +3544,10 @@
         <v>1.89</v>
       </c>
       <c r="T23" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
         <v>1.43</v>
@@ -3919,7 +3919,7 @@
         <v>2.38</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>4.7</v>
@@ -3946,7 +3946,7 @@
         <v>1.58</v>
       </c>
       <c r="S26" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T26" t="n">
         <v>1.46</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G27" t="n">
         <v>2.78</v>
@@ -4054,7 +4054,7 @@
         <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
@@ -4072,7 +4072,7 @@
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
         <v>1.68</v>
@@ -4102,7 +4102,7 @@
         <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
@@ -4126,7 +4126,7 @@
         <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G28" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
         <v>3.9</v>
@@ -4192,7 +4192,7 @@
         <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.34</v>
@@ -4207,28 +4207,28 @@
         <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R28" t="n">
         <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
@@ -4312,46 +4312,46 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="G29" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>980</v>
+        <v>5.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.24</v>
+        <v>3.45</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4459,7 +4459,7 @@
         <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -4480,13 +4480,13 @@
         <v>2.02</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T30" t="n">
         <v>1.04</v>
@@ -4720,52 +4720,52 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>2.32</v>
       </c>
       <c r="I32" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
         <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q32" t="n">
         <v>1.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S32" t="n">
         <v>2.58</v>
       </c>
       <c r="T32" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U32" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V32" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W32" t="n">
         <v>1.45</v>
@@ -4816,10 +4816,10 @@
         <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN32" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO32" t="n">
         <v>15.5</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G34" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H34" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>3.55</v>
@@ -5011,7 +5011,7 @@
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.26</v>
@@ -5020,13 +5020,13 @@
         <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
         <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T34" t="n">
         <v>1.61</v>
@@ -5035,10 +5035,10 @@
         <v>2.34</v>
       </c>
       <c r="V34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X34" t="n">
         <v>22</v>
@@ -5128,19 +5128,19 @@
         <v>2.38</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
         <v>3.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
         <v>4.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="G37" t="n">
-        <v>980</v>
+        <v>2.74</v>
       </c>
       <c r="H37" t="n">
-        <v>1.09</v>
+        <v>2.7</v>
       </c>
       <c r="I37" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5419,13 +5419,13 @@
         <v>3.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
         <v>1.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R37" t="n">
         <v>1.38</v>
@@ -5434,16 +5434,16 @@
         <v>3.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U37" t="n">
         <v>2.18</v>
       </c>
       <c r="V37" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="W37" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X37" t="n">
         <v>19.5</v>
@@ -5530,19 +5530,19 @@
         <v>6.8</v>
       </c>
       <c r="G38" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="H38" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="I38" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J38" t="n">
         <v>4.6</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5554,19 +5554,19 @@
         <v>4.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P38" t="n">
         <v>2.28</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R38" t="n">
         <v>1.51</v>
       </c>
       <c r="S38" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5575,7 +5575,7 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
         <v>1.07</v>
@@ -5665,7 +5665,7 @@
         <v>1.85</v>
       </c>
       <c r="G39" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H39" t="n">
         <v>3.95</v>
@@ -5710,10 +5710,10 @@
         <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X39" t="n">
         <v>980</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G40" t="n">
         <v>2.66</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
         <v>2.5</v>
@@ -5971,7 +5971,7 @@
         <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T41" t="n">
         <v>2.1</v>
@@ -6070,19 +6070,19 @@
         <v>1.78</v>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K42" t="n">
-        <v>7.4</v>
+        <v>950</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.16</v>
+        <v>3.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.19</v>
@@ -6109,7 +6109,7 @@
         <v>2.28</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="U42" t="n">
         <v>1.04</v>
@@ -6118,7 +6118,7 @@
         <v>1.27</v>
       </c>
       <c r="W42" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6253,7 +6253,7 @@
         <v>1.59</v>
       </c>
       <c r="W43" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6340,7 +6340,7 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>2.16</v>
@@ -6349,10 +6349,10 @@
         <v>2.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6367,28 +6367,28 @@
         <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q44" t="n">
         <v>1.53</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S44" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="T44" t="n">
         <v>1.56</v>
       </c>
       <c r="U44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V44" t="n">
         <v>1.71</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X44" t="n">
         <v>980</v>
@@ -6442,7 +6442,7 @@
         <v>980</v>
       </c>
       <c r="AO44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -6610,19 +6610,19 @@
         <v>2.56</v>
       </c>
       <c r="G46" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6637,7 +6637,7 @@
         <v>1.11</v>
       </c>
       <c r="P46" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q46" t="n">
         <v>1.41</v>
@@ -6649,13 +6649,13 @@
         <v>1.99</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="U46" t="n">
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W46" t="n">
         <v>1.53</v>
@@ -6742,28 +6742,28 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G47" t="n">
         <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I47" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J47" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
         <v>3.2</v>
@@ -6781,7 +6781,7 @@
         <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T47" t="n">
         <v>1.8</v>
@@ -6790,10 +6790,10 @@
         <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W47" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X47" t="n">
         <v>14.5</v>
@@ -6832,13 +6832,13 @@
         <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL47" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
         <v>140</v>
@@ -6889,7 +6889,7 @@
         <v>1000</v>
       </c>
       <c r="J48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="K48" t="n">
         <v>980</v>
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="I49" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J49" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="K49" t="n">
-        <v>980</v>
+        <v>5.4</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7138,67 +7138,67 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.34</v>
+        <v>1.95</v>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J50" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="K50" t="n">
         <v>980</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="R50" t="n">
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="T50" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U50" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W50" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7273,67 +7273,67 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G51" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="H51" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K51" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>1.44</v>
+        <v>2.24</v>
       </c>
       <c r="O51" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="R51" t="n">
         <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V51" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -7426,103 +7426,103 @@
         <v>1.04</v>
       </c>
       <c r="I52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K52" t="n">
         <v>980</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7558,16 +7558,16 @@
         <v>2.6</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I53" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
         <v>2.82</v>
       </c>
       <c r="K53" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -7600,7 +7600,7 @@
         <v>1.04</v>
       </c>
       <c r="V53" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W53" t="n">
         <v>1.62</v>
@@ -7693,13 +7693,13 @@
         <v>3.05</v>
       </c>
       <c r="H54" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I54" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J54" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
         <v>4.3</v>
@@ -7711,7 +7711,7 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O54" t="n">
         <v>1.21</v>
@@ -7720,13 +7720,13 @@
         <v>2.26</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R54" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S54" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T54" t="n">
         <v>1.04</v>
@@ -7735,7 +7735,7 @@
         <v>1.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W54" t="n">
         <v>1.48</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G56" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I56" t="n">
         <v>4.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K56" t="n">
         <v>4.5</v>
@@ -7981,22 +7981,22 @@
         <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R56" t="n">
         <v>1.53</v>
       </c>
-      <c r="R56" t="n">
-        <v>1.45</v>
-      </c>
       <c r="S56" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8008,7 +8008,7 @@
         <v>1.27</v>
       </c>
       <c r="W56" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J57" t="n">
         <v>3.35</v>
       </c>
-      <c r="G57" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,34 +8116,34 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O57" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P57" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R57" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S57" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T57" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U57" t="n">
         <v>2.16</v>
       </c>
       <c r="V57" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W57" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X57" t="n">
         <v>15</v>
@@ -8227,28 +8227,28 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G58" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H58" t="n">
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
         <v>3.9</v>
       </c>
       <c r="K58" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.28</v>
       </c>
       <c r="M58" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
         <v>5</v>
@@ -8275,10 +8275,10 @@
         <v>2.42</v>
       </c>
       <c r="V58" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W58" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X58" t="n">
         <v>980</v>
@@ -8293,7 +8293,7 @@
         <v>70</v>
       </c>
       <c r="AB58" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC58" t="n">
         <v>9.800000000000001</v>
@@ -8308,7 +8308,7 @@
         <v>980</v>
       </c>
       <c r="AG58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="n">
         <v>980</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G59" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H59" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I59" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K59" t="n">
         <v>980</v>
@@ -8392,16 +8392,16 @@
         <v>1.23</v>
       </c>
       <c r="P59" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="R59" t="n">
         <v>1.39</v>
       </c>
       <c r="S59" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T59" t="n">
         <v>1.04</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W59" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H61" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I61" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J61" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
         <v>3.35</v>
@@ -8662,28 +8662,28 @@
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R61" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S61" t="n">
         <v>4.1</v>
       </c>
       <c r="T61" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U61" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V61" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W61" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X61" t="n">
         <v>12</v>
@@ -8767,58 +8767,58 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="G62" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H62" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K62" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L62" t="n">
         <v>1.38</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P62" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="R62" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S62" t="n">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="U62" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="V62" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W62" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X62" t="n">
         <v>17.5</v>
@@ -8827,10 +8827,10 @@
         <v>18</v>
       </c>
       <c r="Z62" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA62" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB62" t="n">
         <v>12.5</v>
@@ -8839,13 +8839,13 @@
         <v>9.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF62" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG62" t="n">
         <v>12</v>
@@ -8854,13 +8854,13 @@
         <v>20</v>
       </c>
       <c r="AI62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ62" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL62" t="n">
         <v>40</v>
@@ -8869,10 +8869,10 @@
         <v>100</v>
       </c>
       <c r="AN62" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO62" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
@@ -8905,43 +8905,43 @@
         <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H63" t="n">
         <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J63" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K63" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O63" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P63" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q63" t="n">
         <v>2.06</v>
       </c>
       <c r="R63" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S63" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T63" t="n">
         <v>1.83</v>
@@ -8953,7 +8953,7 @@
         <v>1.27</v>
       </c>
       <c r="W63" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G64" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H64" t="n">
         <v>6.8</v>
       </c>
       <c r="I64" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J64" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K64" t="n">
         <v>4.9</v>
@@ -9058,22 +9058,22 @@
         <v>1.01</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O64" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P64" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q64" t="n">
         <v>1.73</v>
       </c>
       <c r="R64" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S64" t="n">
         <v>2.88</v>
@@ -9118,7 +9118,7 @@
         <v>11.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH64" t="n">
         <v>27</v>
@@ -9127,7 +9127,7 @@
         <v>110</v>
       </c>
       <c r="AJ64" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AK64" t="n">
         <v>19</v>
@@ -9139,7 +9139,7 @@
         <v>140</v>
       </c>
       <c r="AN64" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO64" t="n">
         <v>140</v>
@@ -9334,7 +9334,7 @@
         <v>3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P66" t="n">
         <v>1.66</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G67" t="n">
         <v>2.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I67" t="n">
         <v>4.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K67" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
@@ -9475,16 +9475,16 @@
         <v>2.24</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="R67" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S67" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="T67" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U67" t="n">
         <v>1.04</v>
@@ -9577,112 +9577,112 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G68" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H68" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I68" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K68" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L68" t="n">
         <v>1.36</v>
       </c>
       <c r="M68" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P68" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R68" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S68" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="T68" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U68" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V68" t="n">
         <v>1.17</v>
       </c>
       <c r="W68" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X68" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y68" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Z68" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA68" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD68" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE68" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF68" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG68" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI68" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ68" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AK68" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AL68" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM68" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN68" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO68" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="G69" t="n">
         <v>2.88</v>
@@ -9721,13 +9721,13 @@
         <v>2.68</v>
       </c>
       <c r="I69" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J69" t="n">
         <v>3.35</v>
       </c>
       <c r="K69" t="n">
-        <v>4.8</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9736,22 +9736,22 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="O69" t="n">
         <v>1.28</v>
       </c>
       <c r="P69" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="R69" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S69" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G70" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H70" t="n">
         <v>2.82</v>
       </c>
       <c r="I70" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
@@ -9871,25 +9871,25 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.76</v>
+        <v>1.1</v>
       </c>
       <c r="O70" t="n">
         <v>1.34</v>
       </c>
       <c r="P70" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R70" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S70" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T70" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="U70" t="n">
         <v>1.04</v>
@@ -9982,19 +9982,19 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G71" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I71" t="n">
         <v>4.2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
         <v>3.35</v>
@@ -10003,16 +10003,16 @@
         <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N71" t="n">
-        <v>1.64</v>
+        <v>2.68</v>
       </c>
       <c r="O71" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="P71" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q71" t="n">
         <v>2.32</v>
@@ -10030,52 +10030,52 @@
         <v>1.89</v>
       </c>
       <c r="V71" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W71" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z71" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA71" t="n">
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
         <v>1000</v>
       </c>
       <c r="AD71" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE71" t="n">
         <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI71" t="n">
         <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK71" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL71" t="n">
         <v>1000</v>
@@ -10288,7 +10288,7 @@
         <v>1.7</v>
       </c>
       <c r="R73" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S73" t="n">
         <v>2.7</v>
@@ -10420,7 +10420,7 @@
         <v>1.73</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R74" t="n">
         <v>1.25</v>
@@ -10534,7 +10534,7 @@
         <v>2.7</v>
       </c>
       <c r="J75" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K75" t="n">
         <v>3.35</v>
@@ -10546,7 +10546,7 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O75" t="n">
         <v>1.01</v>
@@ -10555,7 +10555,7 @@
         <v>1.52</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R75" t="n">
         <v>1.18</v>
@@ -10564,10 +10564,10 @@
         <v>4.4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U75" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="V75" t="n">
         <v>1.58</v>
@@ -10576,7 +10576,7 @@
         <v>1.35</v>
       </c>
       <c r="X75" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y75" t="n">
         <v>1000</v>
@@ -10666,7 +10666,7 @@
         <v>5.6</v>
       </c>
       <c r="I76" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J76" t="n">
         <v>4.2</v>
@@ -10681,16 +10681,16 @@
         <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O76" t="n">
         <v>1.33</v>
       </c>
       <c r="P76" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R76" t="n">
         <v>1.37</v>
@@ -10699,10 +10699,10 @@
         <v>3.5</v>
       </c>
       <c r="T76" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U76" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V76" t="n">
         <v>1.2</v>
@@ -10723,7 +10723,7 @@
         <v>180</v>
       </c>
       <c r="AB76" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC76" t="n">
         <v>8.800000000000001</v>
@@ -10798,13 +10798,13 @@
         <v>1.13</v>
       </c>
       <c r="H77" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I77" t="n">
         <v>36</v>
       </c>
       <c r="J77" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K77" t="n">
         <v>13</v>
@@ -10876,7 +10876,7 @@
         <v>16</v>
       </c>
       <c r="AH77" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI77" t="n">
         <v>1000</v>
@@ -10888,7 +10888,7 @@
         <v>14</v>
       </c>
       <c r="AL77" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM77" t="n">
         <v>1000</v>
@@ -11110,7 +11110,7 @@
         <v>2.46</v>
       </c>
       <c r="V79" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W79" t="n">
         <v>2.34</v>
@@ -11221,13 +11221,13 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="O80" t="n">
         <v>1.09</v>
       </c>
       <c r="P80" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q80" t="n">
         <v>1.27</v>
@@ -11239,7 +11239,7 @@
         <v>1.7</v>
       </c>
       <c r="T80" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U80" t="n">
         <v>2.28</v>
@@ -11248,7 +11248,7 @@
         <v>1.09</v>
       </c>
       <c r="W80" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X80" t="n">
         <v>70</v>
@@ -11341,10 +11341,10 @@
         <v>2.06</v>
       </c>
       <c r="I81" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J81" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K81" t="n">
         <v>3.85</v>
@@ -11356,34 +11356,34 @@
         <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O81" t="n">
         <v>1.28</v>
       </c>
       <c r="P81" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R81" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S81" t="n">
         <v>3.05</v>
       </c>
       <c r="T81" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U81" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W81" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X81" t="n">
         <v>16.5</v>
@@ -11413,10 +11413,10 @@
         <v>32</v>
       </c>
       <c r="AG81" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI81" t="n">
         <v>980</v>
@@ -11431,13 +11431,13 @@
         <v>50</v>
       </c>
       <c r="AM81" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN81" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="82">
@@ -11485,13 +11485,13 @@
         <v>3.6</v>
       </c>
       <c r="L82" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M82" t="n">
         <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O82" t="n">
         <v>1.35</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G83" t="n">
         <v>1.28</v>
       </c>
       <c r="H83" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I83" t="n">
         <v>14</v>
-      </c>
-      <c r="I83" t="n">
-        <v>14.5</v>
       </c>
       <c r="J83" t="n">
         <v>7</v>
@@ -11629,13 +11629,13 @@
         <v>5.9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P83" t="n">
         <v>2.66</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R83" t="n">
         <v>1.68</v>
@@ -11656,7 +11656,7 @@
         <v>4.6</v>
       </c>
       <c r="X83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y83" t="n">
         <v>44</v>
@@ -11671,7 +11671,7 @@
         <v>10</v>
       </c>
       <c r="AC83" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD83" t="n">
         <v>50</v>
@@ -11680,7 +11680,7 @@
         <v>240</v>
       </c>
       <c r="AF83" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG83" t="n">
         <v>11.5</v>
@@ -11692,7 +11692,7 @@
         <v>170</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AK83" t="n">
         <v>13</v>
@@ -11740,10 +11740,10 @@
         <v>1.49</v>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H84" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I84" t="n">
         <v>8.4</v>
@@ -11788,7 +11788,7 @@
         <v>1.13</v>
       </c>
       <c r="W84" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="X84" t="n">
         <v>17</v>
@@ -11800,7 +11800,7 @@
         <v>70</v>
       </c>
       <c r="AA84" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AB84" t="n">
         <v>8.4</v>
@@ -11818,7 +11818,7 @@
         <v>8.4</v>
       </c>
       <c r="AG84" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH84" t="n">
         <v>25</v>
@@ -11827,16 +11827,16 @@
         <v>110</v>
       </c>
       <c r="AJ84" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK84" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL84" t="n">
         <v>38</v>
       </c>
       <c r="AM84" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN84" t="n">
         <v>7.4</v>
@@ -11881,7 +11881,7 @@
         <v>2.46</v>
       </c>
       <c r="I85" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J85" t="n">
         <v>3.5</v>
@@ -11896,13 +11896,13 @@
         <v>1.08</v>
       </c>
       <c r="N85" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O85" t="n">
         <v>1.35</v>
       </c>
       <c r="P85" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q85" t="n">
         <v>2.04</v>
@@ -11911,7 +11911,7 @@
         <v>1.35</v>
       </c>
       <c r="S85" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T85" t="n">
         <v>1.82</v>
@@ -11965,7 +11965,7 @@
         <v>50</v>
       </c>
       <c r="AK85" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL85" t="n">
         <v>50</v>
@@ -11977,7 +11977,7 @@
         <v>36</v>
       </c>
       <c r="AO85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
@@ -12031,13 +12031,13 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="O86" t="n">
         <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>2.28</v>
+        <v>1.53</v>
       </c>
       <c r="Q86" t="n">
         <v>1.43</v>
@@ -12157,7 +12157,7 @@
         <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L87" t="n">
         <v>1.33</v>
@@ -12166,13 +12166,13 @@
         <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="O87" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P87" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q87" t="n">
         <v>2.02</v>
@@ -12181,10 +12181,10 @@
         <v>1.29</v>
       </c>
       <c r="S87" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T87" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U87" t="n">
         <v>2.02</v>
@@ -12286,13 +12286,13 @@
         <v>2.4</v>
       </c>
       <c r="I88" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J88" t="n">
         <v>3.35</v>
       </c>
       <c r="K88" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12328,7 +12328,7 @@
         <v>1.5</v>
       </c>
       <c r="W88" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12403,121 +12403,121 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="G89" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I89" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="J89" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K89" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
       </c>
       <c r="M89" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="P89" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S89" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q89" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S89" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T89" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U89" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="W89" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="X89" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y89" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z89" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA89" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC89" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD89" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE89" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG89" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH89" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI89" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK89" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL89" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM89" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN89" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO89" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90">
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G90" t="n">
         <v>2.66</v>
@@ -12556,13 +12556,13 @@
         <v>3.1</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J90" t="n">
         <v>2.96</v>
       </c>
       <c r="K90" t="n">
-        <v>980</v>
+        <v>5.8</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
@@ -12571,16 +12571,16 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O90" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P90" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R90" t="n">
         <v>1.23</v>
@@ -12943,121 +12943,121 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="G93" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>5.9</v>
+        <v>3.75</v>
       </c>
       <c r="J93" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K93" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O93" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="P93" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="Q93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R93" t="n">
         <v>1.43</v>
       </c>
-      <c r="R93" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S93" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="T93" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U93" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V93" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="W93" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="X93" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y93" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA93" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB93" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE93" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF93" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG93" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH93" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ93" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK93" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL93" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM93" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN93" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G94" t="n">
         <v>1.83</v>
@@ -13387,7 +13387,7 @@
         <v>1.25</v>
       </c>
       <c r="P96" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q96" t="n">
         <v>1.85</v>
@@ -13516,7 +13516,7 @@
         <v>1.07</v>
       </c>
       <c r="N97" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O97" t="n">
         <v>1.37</v>
@@ -13633,7 +13633,7 @@
         <v>1.23</v>
       </c>
       <c r="H98" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="I98" t="n">
         <v>17</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G99" t="n">
         <v>2.96</v>
       </c>
       <c r="H99" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I99" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J99" t="n">
         <v>3.1</v>
@@ -13786,7 +13786,7 @@
         <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O99" t="n">
         <v>1.44</v>
@@ -13795,7 +13795,7 @@
         <v>1.67</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R99" t="n">
         <v>1.24</v>
@@ -13897,22 +13897,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G100" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H100" t="n">
-        <v>2.56</v>
+        <v>5.5</v>
       </c>
       <c r="I100" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="J100" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K100" t="n">
-        <v>950</v>
+        <v>7.6</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13921,7 +13921,7 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O100" t="n">
         <v>1.02</v>
@@ -13945,10 +13945,10 @@
         <v>1.04</v>
       </c>
       <c r="V100" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="W100" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14059,7 +14059,7 @@
         <v>2.86</v>
       </c>
       <c r="O101" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P101" t="n">
         <v>1.63</v>
@@ -14197,7 +14197,7 @@
         <v>1.41</v>
       </c>
       <c r="P102" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q102" t="n">
         <v>2.22</v>
@@ -14209,7 +14209,7 @@
         <v>4.1</v>
       </c>
       <c r="T102" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
         <v>1.92</v>
@@ -14302,46 +14302,46 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="G103" t="n">
-        <v>980</v>
+        <v>1.79</v>
       </c>
       <c r="H103" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I103" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K103" t="n">
         <v>980</v>
       </c>
       <c r="L103" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M103" t="n">
         <v>1.01</v>
       </c>
       <c r="N103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O103" t="n">
         <v>1.24</v>
       </c>
-      <c r="O103" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P103" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R103" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S103" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="T103" t="n">
         <v>1.01</v>
@@ -14350,10 +14350,10 @@
         <v>1.01</v>
       </c>
       <c r="V103" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W103" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14596,7 +14596,7 @@
         <v>1.05</v>
       </c>
       <c r="N105" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O105" t="n">
         <v>1.23</v>
@@ -14626,58 +14626,58 @@
         <v>1.64</v>
       </c>
       <c r="X105" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y105" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z105" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA105" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB105" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC105" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD105" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF105" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG105" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH105" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI105" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK105" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL105" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM105" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN105" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO105" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -14737,13 +14737,13 @@
         <v>1.01</v>
       </c>
       <c r="P106" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q106" t="n">
         <v>1.01</v>
       </c>
       <c r="R106" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S106" t="n">
         <v>2.06</v>
@@ -14842,22 +14842,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.39</v>
+        <v>2.64</v>
       </c>
       <c r="G107" t="n">
-        <v>980</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
-        <v>1.39</v>
+        <v>2.52</v>
       </c>
       <c r="I107" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J107" t="n">
-        <v>1.02</v>
+        <v>2.48</v>
       </c>
       <c r="K107" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L107" t="n">
         <v>1.42</v>
@@ -14866,34 +14866,34 @@
         <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="O107" t="n">
         <v>1.34</v>
       </c>
       <c r="P107" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="R107" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S107" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="T107" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U107" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V107" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W107" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -14995,7 +14995,7 @@
         <v>5</v>
       </c>
       <c r="L108" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M108" t="n">
         <v>1.01</v>
@@ -15148,7 +15148,7 @@
         <v>1.67</v>
       </c>
       <c r="R109" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="S109" t="n">
         <v>2.58</v>
@@ -15256,7 +15256,7 @@
         <v>1.63</v>
       </c>
       <c r="I110" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J110" t="n">
         <v>4.7</v>
@@ -15319,7 +15319,7 @@
         <v>11.5</v>
       </c>
       <c r="AD110" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE110" t="n">
         <v>14.5</v>
@@ -15385,7 +15385,7 @@
         <v>1.66</v>
       </c>
       <c r="G111" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H111" t="n">
         <v>5.6</v>
@@ -15394,7 +15394,7 @@
         <v>6.4</v>
       </c>
       <c r="J111" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K111" t="n">
         <v>4.3</v>
@@ -15421,7 +15421,7 @@
         <v>1.28</v>
       </c>
       <c r="S111" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T111" t="n">
         <v>1.82</v>
@@ -15433,7 +15433,7 @@
         <v>1.18</v>
       </c>
       <c r="W111" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="X111" t="n">
         <v>1000</v>
@@ -15529,7 +15529,7 @@
         <v>3.2</v>
       </c>
       <c r="J112" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K112" t="n">
         <v>3.65</v>
@@ -15568,7 +15568,7 @@
         <v>1.46</v>
       </c>
       <c r="W112" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X112" t="n">
         <v>19</v>
@@ -15622,7 +15622,7 @@
         <v>1000</v>
       </c>
       <c r="AO112" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113">
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G113" t="n">
         <v>2.98</v>
@@ -15670,7 +15670,7 @@
         <v>3.4</v>
       </c>
       <c r="L113" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M113" t="n">
         <v>1.1</v>
@@ -15685,7 +15685,7 @@
         <v>1.62</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R113" t="n">
         <v>1.24</v>
@@ -15790,13 +15790,13 @@
         <v>2.5</v>
       </c>
       <c r="G114" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H114" t="n">
         <v>2.98</v>
       </c>
       <c r="I114" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J114" t="n">
         <v>3</v>
@@ -15811,31 +15811,31 @@
         <v>1.1</v>
       </c>
       <c r="N114" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="O114" t="n">
         <v>1.46</v>
       </c>
       <c r="P114" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R114" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S114" t="n">
         <v>4.5</v>
       </c>
       <c r="T114" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="U114" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V114" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W114" t="n">
         <v>1.53</v>
@@ -15886,7 +15886,7 @@
         <v>60</v>
       </c>
       <c r="AM114" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN114" t="n">
         <v>980</v>
@@ -15913,55 +15913,55 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.42</v>
+        <v>2.28</v>
       </c>
       <c r="G115" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
-        <v>6</v>
+        <v>2.78</v>
       </c>
       <c r="I115" t="n">
-        <v>27</v>
+        <v>4.3</v>
       </c>
       <c r="J115" t="n">
-        <v>3.95</v>
+        <v>2.72</v>
       </c>
       <c r="K115" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="L115" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="M115" t="n">
         <v>1.01</v>
       </c>
       <c r="N115" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="O115" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P115" t="n">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="R115" t="n">
         <v>1.18</v>
       </c>
       <c r="S115" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="T115" t="n">
         <v>1.01</v>
@@ -15970,10 +15970,10 @@
         <v>1.01</v>
       </c>
       <c r="V115" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="W115" t="n">
-        <v>2.48</v>
+        <v>1.5</v>
       </c>
       <c r="X115" t="n">
         <v>1000</v>
@@ -16048,55 +16048,55 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="H116" t="n">
-        <v>2.78</v>
+        <v>6</v>
       </c>
       <c r="I116" t="n">
-        <v>4.3</v>
+        <v>27</v>
       </c>
       <c r="J116" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="K116" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L116" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M116" t="n">
         <v>1.01</v>
       </c>
       <c r="N116" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="O116" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P116" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="R116" t="n">
         <v>1.18</v>
       </c>
       <c r="S116" t="n">
-        <v>2.18</v>
+        <v>1.76</v>
       </c>
       <c r="T116" t="n">
         <v>1.01</v>
@@ -16105,10 +16105,10 @@
         <v>1.01</v>
       </c>
       <c r="V116" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="W116" t="n">
-        <v>1.5</v>
+        <v>2.48</v>
       </c>
       <c r="X116" t="n">
         <v>1000</v>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G117" t="n">
         <v>2.72</v>
@@ -16216,10 +16216,10 @@
         <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>1.69</v>
+        <v>2.92</v>
       </c>
       <c r="O117" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P117" t="n">
         <v>1.69</v>
@@ -16762,7 +16762,7 @@
         <v>1.16</v>
       </c>
       <c r="P121" t="n">
-        <v>2.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q121" t="n">
         <v>1.58</v>
@@ -16870,7 +16870,7 @@
         <v>1.97</v>
       </c>
       <c r="G122" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
@@ -17005,7 +17005,7 @@
         <v>1.36</v>
       </c>
       <c r="G123" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H123" t="n">
         <v>11</v>
@@ -17053,7 +17053,7 @@
         <v>1.08</v>
       </c>
       <c r="W123" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X123" t="n">
         <v>15.5</v>
@@ -17092,7 +17092,7 @@
         <v>240</v>
       </c>
       <c r="AJ123" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK123" t="n">
         <v>17</v>
@@ -17179,7 +17179,7 @@
         <v>2.34</v>
       </c>
       <c r="T124" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U124" t="n">
         <v>1.01</v>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G125" t="n">
         <v>1.24</v>
@@ -17287,7 +17287,7 @@
         <v>7.2</v>
       </c>
       <c r="K125" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L125" t="n">
         <v>1.01</v>
@@ -17296,28 +17296,28 @@
         <v>1.01</v>
       </c>
       <c r="N125" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O125" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P125" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="Q125" t="n">
         <v>1.5</v>
       </c>
       <c r="R125" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S125" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T125" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="U125" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="V125" t="n">
         <v>1.05</v>
@@ -17326,7 +17326,7 @@
         <v>5.1</v>
       </c>
       <c r="X125" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y125" t="n">
         <v>60</v>
@@ -17407,25 +17407,25 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G126" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="H126" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="I126" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="J126" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K126" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="L126" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M126" t="n">
         <v>1.01</v>
@@ -17437,28 +17437,28 @@
         <v>1.29</v>
       </c>
       <c r="P126" t="n">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="R126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S126" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W126" t="n">
         <v>1.18</v>
-      </c>
-      <c r="S126" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T126" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U126" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V126" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W126" t="n">
-        <v>1.01</v>
       </c>
       <c r="X126" t="n">
         <v>1000</v>
@@ -17542,22 +17542,22 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="G127" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="J127" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K127" t="n">
-        <v>980</v>
+        <v>6.8</v>
       </c>
       <c r="L127" t="n">
         <v>1.01</v>
@@ -17566,22 +17566,22 @@
         <v>1.01</v>
       </c>
       <c r="N127" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="O127" t="n">
         <v>1.23</v>
       </c>
       <c r="P127" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="R127" t="n">
         <v>1.18</v>
       </c>
       <c r="S127" t="n">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="T127" t="n">
         <v>1.01</v>
@@ -17590,10 +17590,10 @@
         <v>1.01</v>
       </c>
       <c r="V127" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="W127" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X127" t="n">
         <v>1000</v>
@@ -17692,7 +17692,7 @@
         <v>3.45</v>
       </c>
       <c r="K128" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L128" t="n">
         <v>1.37</v>
@@ -17710,7 +17710,7 @@
         <v>1.81</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R128" t="n">
         <v>1.3</v>
@@ -17734,7 +17734,7 @@
         <v>12</v>
       </c>
       <c r="Y128" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z128" t="n">
         <v>13.5</v>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G131" t="n">
         <v>1.4</v>
@@ -18133,7 +18133,7 @@
         <v>1.07</v>
       </c>
       <c r="W131" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18193,7 +18193,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -18208,70 +18208,70 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="G132" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H132" t="n">
         <v>5.5</v>
       </c>
       <c r="I132" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J132" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K132" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="L132" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M132" t="n">
         <v>1.01</v>
       </c>
       <c r="N132" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="O132" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P132" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="R132" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="S132" t="n">
-        <v>1.63</v>
+        <v>2.72</v>
       </c>
       <c r="T132" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U132" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V132" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="W132" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X132" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y132" t="n">
         <v>1000</v>
@@ -18283,7 +18283,7 @@
         <v>1000</v>
       </c>
       <c r="AB132" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC132" t="n">
         <v>1000</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G134" t="n">
         <v>2.7</v>
@@ -18496,7 +18496,7 @@
         <v>2.72</v>
       </c>
       <c r="I134" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J134" t="n">
         <v>3.8</v>
@@ -18523,19 +18523,19 @@
         <v>1.63</v>
       </c>
       <c r="R134" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S134" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T134" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U134" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V134" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W134" t="n">
         <v>1.59</v>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G135" t="n">
         <v>2.92</v>
@@ -18640,7 +18640,7 @@
         <v>3.45</v>
       </c>
       <c r="L135" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M135" t="n">
         <v>1.08</v>
@@ -18661,7 +18661,7 @@
         <v>1.34</v>
       </c>
       <c r="S135" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T135" t="n">
         <v>1.82</v>
@@ -18733,7 +18733,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -18748,70 +18748,70 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="G136" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H136" t="n">
         <v>5.5</v>
       </c>
       <c r="I136" t="n">
-        <v>8.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="J136" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K136" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="L136" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M136" t="n">
         <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="O136" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P136" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R136" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="S136" t="n">
-        <v>2.7</v>
+        <v>1.63</v>
       </c>
       <c r="T136" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U136" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V136" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="W136" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X136" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y136" t="n">
         <v>1000</v>
@@ -18823,7 +18823,7 @@
         <v>1000</v>
       </c>
       <c r="AB136" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC136" t="n">
         <v>1000</v>
@@ -18907,7 +18907,7 @@
         <v>3.65</v>
       </c>
       <c r="K137" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L137" t="n">
         <v>1.32</v>
@@ -18943,7 +18943,7 @@
         <v>1.36</v>
       </c>
       <c r="W137" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X137" t="n">
         <v>23</v>
@@ -19066,7 +19066,7 @@
         <v>1.25</v>
       </c>
       <c r="S138" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T138" t="n">
         <v>1.01</v>
@@ -19204,7 +19204,7 @@
         <v>3.35</v>
       </c>
       <c r="T139" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U139" t="n">
         <v>2.12</v>
@@ -19246,7 +19246,7 @@
         <v>10.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI139" t="n">
         <v>70</v>
@@ -19303,7 +19303,7 @@
         <v>10.5</v>
       </c>
       <c r="H140" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I140" t="n">
         <v>1.4</v>
@@ -19330,7 +19330,7 @@
         <v>2.16</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R140" t="n">
         <v>1.46</v>
@@ -19357,19 +19357,19 @@
         <v>10.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA140" t="n">
         <v>14</v>
       </c>
       <c r="AB140" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC140" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD140" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE140" t="n">
         <v>18.5</v>
@@ -19378,13 +19378,13 @@
         <v>110</v>
       </c>
       <c r="AG140" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH140" t="n">
         <v>36</v>
       </c>
       <c r="AI140" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ140" t="n">
         <v>450</v>
@@ -19402,13 +19402,13 @@
         <v>280</v>
       </c>
       <c r="AO140" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -19423,67 +19423,67 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.67</v>
+        <v>2.68</v>
       </c>
       <c r="G141" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="H141" t="n">
-        <v>4.8</v>
+        <v>2.72</v>
       </c>
       <c r="I141" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="J141" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="K141" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L141" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M141" t="n">
         <v>1.01</v>
       </c>
       <c r="N141" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="O141" t="n">
         <v>1.01</v>
       </c>
       <c r="P141" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="R141" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S141" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="T141" t="n">
         <v>1.01</v>
       </c>
       <c r="U141" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V141" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="W141" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="X141" t="n">
         <v>1000</v>
@@ -19510,7 +19510,7 @@
         <v>1000</v>
       </c>
       <c r="AF141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG141" t="n">
         <v>1000</v>
@@ -19558,28 +19558,28 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Puszcza Niepolomice</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="G142" t="n">
-        <v>980</v>
+        <v>2.42</v>
       </c>
       <c r="H142" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I142" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="J142" t="n">
-        <v>1.02</v>
+        <v>2.98</v>
       </c>
       <c r="K142" t="n">
         <v>980</v>
@@ -19591,22 +19591,22 @@
         <v>1.01</v>
       </c>
       <c r="N142" t="n">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O142" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P142" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R142" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S142" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="T142" t="n">
         <v>1.01</v>
@@ -19615,10 +19615,10 @@
         <v>1.01</v>
       </c>
       <c r="V142" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W142" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="X142" t="n">
         <v>1000</v>
@@ -19693,31 +19693,31 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Puszcza Niepolomice</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="G143" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="H143" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I143" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J143" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="K143" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="L143" t="n">
         <v>1.01</v>
@@ -19726,22 +19726,22 @@
         <v>1.01</v>
       </c>
       <c r="N143" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="O143" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P143" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="R143" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S143" t="n">
-        <v>2.92</v>
+        <v>1.56</v>
       </c>
       <c r="T143" t="n">
         <v>1.01</v>
@@ -19750,10 +19750,10 @@
         <v>1.01</v>
       </c>
       <c r="V143" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W143" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="X143" t="n">
         <v>1000</v>
@@ -19813,7 +19813,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -19828,55 +19828,55 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2.68</v>
+        <v>1.67</v>
       </c>
       <c r="G144" t="n">
-        <v>3.45</v>
+        <v>1.83</v>
       </c>
       <c r="H144" t="n">
-        <v>2.72</v>
+        <v>4.8</v>
       </c>
       <c r="I144" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="J144" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="K144" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L144" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M144" t="n">
         <v>1.01</v>
       </c>
       <c r="N144" t="n">
-        <v>1.62</v>
+        <v>3.15</v>
       </c>
       <c r="O144" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="P144" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="R144" t="n">
         <v>1.18</v>
       </c>
       <c r="S144" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T144" t="n">
         <v>1.01</v>
@@ -19885,10 +19885,10 @@
         <v>1.01</v>
       </c>
       <c r="V144" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="W144" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="X144" t="n">
         <v>1000</v>
@@ -19972,19 +19972,19 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="G145" t="n">
-        <v>980</v>
+        <v>2.1</v>
       </c>
       <c r="H145" t="n">
-        <v>1.04</v>
+        <v>3.85</v>
       </c>
       <c r="I145" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="J145" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="K145" t="n">
         <v>950</v>
@@ -19996,34 +19996,34 @@
         <v>1.01</v>
       </c>
       <c r="N145" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R145" t="n">
         <v>1.24</v>
       </c>
-      <c r="O145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P145" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R145" t="n">
+      <c r="S145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V145" t="n">
         <v>1.18</v>
       </c>
-      <c r="S145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V145" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W145" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="X145" t="n">
         <v>1000</v>
@@ -20083,7 +20083,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -20098,67 +20098,67 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tecnico Universitario</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Manta FC</t>
+          <t>SK Sturm Graz II</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.49</v>
+        <v>2.18</v>
       </c>
       <c r="G146" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K146" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P146" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S146" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W146" t="n">
         <v>1.6</v>
-      </c>
-      <c r="H146" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L146" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M146" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N146" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O146" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P146" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R146" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S146" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T146" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U146" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V146" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W146" t="n">
-        <v>2.66</v>
       </c>
       <c r="X146" t="n">
         <v>1000</v>
@@ -20218,7 +20218,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -20233,127 +20233,127 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="G147" t="n">
-        <v>2.62</v>
+        <v>1.92</v>
       </c>
       <c r="H147" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I147" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="J147" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="K147" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="L147" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M147" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N147" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="O147" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="P147" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="R147" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S147" t="n">
-        <v>4</v>
+        <v>2.28</v>
       </c>
       <c r="T147" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U147" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V147" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="W147" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="X147" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y147" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z147" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA147" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB147" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC147" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD147" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE147" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF147" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG147" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH147" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI147" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ147" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK147" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL147" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM147" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN147" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO147" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -20368,127 +20368,127 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Vinotinto Ecuador</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="G148" t="n">
-        <v>4.3</v>
+        <v>2.62</v>
       </c>
       <c r="H148" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="I148" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="J148" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K148" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="L148" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M148" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N148" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O148" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P148" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R148" t="n">
         <v>1.26</v>
       </c>
-      <c r="P148" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R148" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S148" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="T148" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U148" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V148" t="n">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="W148" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="X148" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y148" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z148" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA148" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB148" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC148" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD148" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE148" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF148" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG148" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH148" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI148" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ148" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK148" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL148" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM148" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN148" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO148" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -20503,31 +20503,31 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Rapid Vienna (Am)</t>
+          <t>Vinotinto Ecuador</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SK Sturm Graz II</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="G149" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="H149" t="n">
-        <v>2.98</v>
+        <v>2.1</v>
       </c>
       <c r="I149" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="J149" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="K149" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L149" t="n">
         <v>1.01</v>
@@ -20536,22 +20536,22 @@
         <v>1.01</v>
       </c>
       <c r="N149" t="n">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
       <c r="O149" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P149" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="R149" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="S149" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="T149" t="n">
         <v>1.01</v>
@@ -20560,10 +20560,10 @@
         <v>1.01</v>
       </c>
       <c r="V149" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="W149" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="X149" t="n">
         <v>1000</v>
@@ -20623,7 +20623,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -20638,55 +20638,55 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Tecnico Universitario</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Manta FC</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="G150" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="I150" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J150" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K150" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L150" t="n">
         <v>1.01</v>
       </c>
       <c r="M150" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q150" t="n">
         <v>2.04</v>
       </c>
-      <c r="O150" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P150" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>1.53</v>
-      </c>
       <c r="R150" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="S150" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="T150" t="n">
         <v>1.01</v>
@@ -20695,10 +20695,10 @@
         <v>1.01</v>
       </c>
       <c r="V150" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="W150" t="n">
-        <v>2.08</v>
+        <v>2.66</v>
       </c>
       <c r="X150" t="n">
         <v>1000</v>
@@ -20893,7 +20893,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -20908,55 +20908,55 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2.32</v>
+        <v>1.52</v>
       </c>
       <c r="G152" t="n">
-        <v>2.54</v>
+        <v>1.77</v>
       </c>
       <c r="H152" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="I152" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
       <c r="J152" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K152" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L152" t="n">
         <v>1.01</v>
       </c>
       <c r="M152" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N152" t="n">
-        <v>2.46</v>
+        <v>4.8</v>
       </c>
       <c r="O152" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P152" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="R152" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="S152" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="T152" t="n">
         <v>1.01</v>
@@ -20965,10 +20965,10 @@
         <v>1.01</v>
       </c>
       <c r="V152" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="W152" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="X152" t="n">
         <v>1000</v>
@@ -21028,7 +21028,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -21043,55 +21043,55 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="G153" t="n">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="H153" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="I153" t="n">
-        <v>7.8</v>
+        <v>3.35</v>
       </c>
       <c r="J153" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K153" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L153" t="n">
         <v>1.01</v>
       </c>
       <c r="M153" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N153" t="n">
-        <v>4.8</v>
+        <v>2.46</v>
       </c>
       <c r="O153" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="P153" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="R153" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="S153" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="T153" t="n">
         <v>1.01</v>
@@ -21100,28 +21100,28 @@
         <v>1.01</v>
       </c>
       <c r="V153" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="W153" t="n">
-        <v>2.28</v>
+        <v>1.65</v>
       </c>
       <c r="X153" t="n">
         <v>1000</v>
       </c>
       <c r="Y153" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z153" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA153" t="n">
         <v>1000</v>
       </c>
       <c r="AB153" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC153" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD153" t="n">
         <v>1000</v>
@@ -21130,7 +21130,7 @@
         <v>1000</v>
       </c>
       <c r="AF153" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG153" t="n">
         <v>1000</v>
@@ -21211,28 +21211,28 @@
         <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O154" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P154" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q154" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S154" t="n">
+        <v>4</v>
+      </c>
+      <c r="T154" t="n">
         <v>2.14</v>
       </c>
-      <c r="R154" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S154" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T154" t="n">
-        <v>2.12</v>
-      </c>
       <c r="U154" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V154" t="n">
         <v>1.18</v>
@@ -21244,7 +21244,7 @@
         <v>13</v>
       </c>
       <c r="Y154" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z154" t="n">
         <v>50</v>
@@ -21253,7 +21253,7 @@
         <v>200</v>
       </c>
       <c r="AB154" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC154" t="n">
         <v>8.800000000000001</v>
@@ -21280,16 +21280,16 @@
         <v>16</v>
       </c>
       <c r="AK154" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL154" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM154" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN154" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO154" t="n">
         <v>150</v>
@@ -21298,7 +21298,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -21313,127 +21313,127 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="G155" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="H155" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K155" t="n">
         <v>5</v>
       </c>
-      <c r="I155" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K155" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L155" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="M155" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N155" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="O155" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="P155" t="n">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="R155" t="n">
-        <v>1.29</v>
+        <v>1.59</v>
       </c>
       <c r="S155" t="n">
-        <v>3.85</v>
+        <v>2.06</v>
       </c>
       <c r="T155" t="n">
-        <v>1.96</v>
+        <v>1.39</v>
       </c>
       <c r="U155" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V155" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W155" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="X155" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y155" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Z155" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AA155" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB155" t="n">
-        <v>7.8</v>
+        <v>20</v>
       </c>
       <c r="AC155" t="n">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="AD155" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AE155" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF155" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AG155" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH155" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK155" t="n">
         <v>23</v>
       </c>
-      <c r="AI155" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>21</v>
-      </c>
       <c r="AL155" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM155" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AN155" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AO155" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -21448,127 +21448,127 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.23</v>
+        <v>2.26</v>
       </c>
       <c r="G156" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
-        <v>20</v>
+        <v>3.55</v>
       </c>
       <c r="I156" t="n">
-        <v>22</v>
+        <v>3.65</v>
       </c>
       <c r="J156" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="K156" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="L156" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M156" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N156" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="O156" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P156" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="R156" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="S156" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="T156" t="n">
-        <v>2.62</v>
+        <v>1.76</v>
       </c>
       <c r="U156" t="n">
-        <v>1.58</v>
+        <v>2.22</v>
       </c>
       <c r="V156" t="n">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="W156" t="n">
-        <v>5.1</v>
+        <v>1.77</v>
       </c>
       <c r="X156" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y156" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="Z156" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA156" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB156" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC156" t="n">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD156" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AE156" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF156" t="n">
-        <v>6.8</v>
+        <v>14</v>
       </c>
       <c r="AG156" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH156" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AI156" t="n">
-        <v>370</v>
+        <v>48</v>
       </c>
       <c r="AJ156" t="n">
-        <v>8.4</v>
+        <v>29</v>
       </c>
       <c r="AK156" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AL156" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM156" t="n">
-        <v>410</v>
+        <v>90</v>
       </c>
       <c r="AN156" t="n">
-        <v>4.4</v>
+        <v>17</v>
       </c>
       <c r="AO156" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -21583,127 +21583,127 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="G157" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="H157" t="n">
-        <v>4.7</v>
+        <v>20</v>
       </c>
       <c r="I157" t="n">
-        <v>5.3</v>
+        <v>22</v>
       </c>
       <c r="J157" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="K157" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N157" t="n">
         <v>5</v>
       </c>
-      <c r="L157" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N157" t="n">
-        <v>2.72</v>
-      </c>
       <c r="O157" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="P157" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="R157" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="S157" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="T157" t="n">
-        <v>1.39</v>
+        <v>2.62</v>
       </c>
       <c r="U157" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="V157" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="W157" t="n">
-        <v>2.32</v>
+        <v>5</v>
       </c>
       <c r="X157" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y157" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL157" t="n">
         <v>65</v>
       </c>
-      <c r="AA157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC157" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH157" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI157" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ157" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK157" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL157" t="n">
-        <v>36</v>
-      </c>
       <c r="AM157" t="n">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="AN157" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="AO157" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -21718,121 +21718,121 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="G158" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="H158" t="n">
+        <v>5</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J158" t="n">
         <v>3.55</v>
       </c>
-      <c r="I158" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K158" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L158" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M158" t="n">
         <v>1.07</v>
       </c>
       <c r="N158" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="O158" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P158" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="R158" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="S158" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T158" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="U158" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="V158" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="W158" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="X158" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y158" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z158" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AA158" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AB158" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF158" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC158" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD158" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE158" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF158" t="n">
-        <v>14</v>
-      </c>
       <c r="AG158" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH158" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI158" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AJ158" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AK158" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL158" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM158" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AN158" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO158" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159">
@@ -21865,13 +21865,13 @@
         <v>1.64</v>
       </c>
       <c r="G159" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H159" t="n">
         <v>6</v>
       </c>
       <c r="I159" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J159" t="n">
         <v>4.2</v>
@@ -21895,7 +21895,7 @@
         <v>2.08</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R159" t="n">
         <v>1.42</v>
@@ -21913,7 +21913,7 @@
         <v>1.18</v>
       </c>
       <c r="W159" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X159" t="n">
         <v>21</v>
@@ -22021,13 +22021,13 @@
         <v>1.08</v>
       </c>
       <c r="N160" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O160" t="n">
         <v>1.39</v>
       </c>
       <c r="P160" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q160" t="n">
         <v>2.2</v>
@@ -22243,7 +22243,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -22258,31 +22258,31 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Univ Catolica (Ecu)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Orense Sporting Club</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="G162" t="n">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="H162" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="I162" t="n">
-        <v>5.9</v>
+        <v>9.4</v>
       </c>
       <c r="J162" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K162" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L162" t="n">
         <v>1.01</v>
@@ -22291,34 +22291,34 @@
         <v>1.01</v>
       </c>
       <c r="N162" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="O162" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P162" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="R162" t="n">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="S162" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="T162" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="U162" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V162" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="W162" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="X162" t="n">
         <v>1000</v>
@@ -22378,7 +22378,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -22393,67 +22393,67 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Orense Sporting Club</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="F163" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K163" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T163" t="n">
         <v>1.47</v>
       </c>
-      <c r="G163" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H163" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I163" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K163" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L163" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M163" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N163" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O163" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P163" t="n">
+      <c r="U163" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W163" t="n">
         <v>2.18</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R163" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S163" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T163" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U163" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V163" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W163" t="n">
-        <v>2.68</v>
       </c>
       <c r="X163" t="n">
         <v>1000</v>
@@ -22540,7 +22540,7 @@
         <v>1.97</v>
       </c>
       <c r="G164" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>4.1</v>
@@ -22672,19 +22672,19 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="G165" t="n">
         <v>1.77</v>
       </c>
       <c r="H165" t="n">
-        <v>1.05</v>
+        <v>4.8</v>
       </c>
       <c r="I165" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J165" t="n">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="K165" t="n">
         <v>1000</v>
@@ -22696,22 +22696,22 @@
         <v>1.01</v>
       </c>
       <c r="N165" t="n">
-        <v>1.25</v>
+        <v>2.24</v>
       </c>
       <c r="O165" t="n">
         <v>1.19</v>
       </c>
       <c r="P165" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="R165" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>1.19</v>
+        <v>2.22</v>
       </c>
       <c r="T165" t="n">
         <v>1.01</v>
@@ -22720,7 +22720,7 @@
         <v>1.01</v>
       </c>
       <c r="V165" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W165" t="n">
         <v>2.28</v>
@@ -22807,16 +22807,16 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G166" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="H166" t="n">
         <v>5.9</v>
       </c>
       <c r="I166" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J166" t="n">
         <v>4.9</v>
@@ -22834,22 +22834,22 @@
         <v>6.8</v>
       </c>
       <c r="O166" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P166" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R166" t="n">
         <v>1.82</v>
       </c>
       <c r="S166" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T166" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U166" t="n">
         <v>2.48</v>
@@ -22858,7 +22858,7 @@
         <v>1.18</v>
       </c>
       <c r="W166" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X166" t="n">
         <v>42</v>
@@ -22885,10 +22885,10 @@
         <v>1000</v>
       </c>
       <c r="AF166" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG166" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH166" t="n">
         <v>22</v>
@@ -22897,10 +22897,10 @@
         <v>65</v>
       </c>
       <c r="AJ166" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK166" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL166" t="n">
         <v>26</v>
@@ -22913,6 +22913,1086 @@
       </c>
       <c r="AO166" t="n">
         <v>55</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Nacional Potosi</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Club Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K167" t="n">
+        <v>980</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" t="n">
+        <v>0</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S168" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X168" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Libertad FC</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Barcelona (ECU)</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K169" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P169" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
+      <c r="S170" t="n">
+        <v>0</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S171" t="n">
+        <v>4</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>22:05:00</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I172" t="n">
+        <v>14</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5</v>
+      </c>
+      <c r="K172" t="n">
+        <v>980</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P172" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S172" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W172" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Australian A-League Men</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Auckland FC</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K173" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S173" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W173" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X173" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>San Diego FC</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N174" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
         <v>3.5</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G3" t="n">
         <v>1.75</v>
@@ -820,22 +820,22 @@
         <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>1.4</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
         <v>1.54</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,13 +1105,13 @@
         <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
@@ -1231,13 +1231,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
         <v>2.06</v>
@@ -1246,7 +1246,7 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
         <v>1.98</v>
@@ -1360,34 +1360,34 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
         <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.26</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.25</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
         <v>1.5</v>
@@ -1615,61 +1615,61 @@
         <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P9" t="n">
         <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U9" t="n">
         <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1681,31 +1681,31 @@
         <v>6.4</v>
       </c>
       <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,49 +1747,49 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G10" t="n">
         <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I10" t="n">
         <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="U10" t="n">
         <v>1.04</v>
@@ -1906,28 +1906,28 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.24</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>1.02</v>
+        <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
         <v>1.33</v>
@@ -2026,10 +2026,10 @@
         <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
@@ -2038,25 +2038,25 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.23</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>1.23</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
@@ -2065,7 +2065,7 @@
         <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
         <v>1.44</v>
@@ -2074,13 +2074,13 @@
         <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>15.5</v>
@@ -2101,10 +2101,10 @@
         <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
         <v>65</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
         <v>3.95</v>
@@ -2200,7 +2200,7 @@
         <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
         <v>1.23</v>
@@ -2242,7 +2242,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
         <v>65</v>
@@ -2251,7 +2251,7 @@
         <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
         <v>65</v>
@@ -2854,7 +2854,7 @@
         <v>1.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
         <v>1.25</v>
@@ -2974,7 +2974,7 @@
         <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -2989,7 +2989,7 @@
         <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
@@ -3115,7 +3115,7 @@
         <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3250,7 +3250,7 @@
         <v>5.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3394,16 +3394,16 @@
         <v>3.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S22" t="n">
         <v>2.46</v>
@@ -3412,7 +3412,7 @@
         <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="V22" t="n">
         <v>1.05</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G25" t="n">
         <v>2.14</v>
@@ -3781,37 +3781,37 @@
         <v>3.8</v>
       </c>
       <c r="I25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K25" t="n">
         <v>6.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.6</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
         <v>1.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
         <v>1.04</v>
@@ -4051,7 +4051,7 @@
         <v>2.86</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.15</v>
@@ -4060,7 +4060,7 @@
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -4069,13 +4069,13 @@
         <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
         <v>1.3</v>
@@ -4090,46 +4090,46 @@
         <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
         <v>1.56</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
         <v>1000</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -4210,10 +4210,10 @@
         <v>2.26</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S28" t="n">
         <v>2.72</v>
@@ -4246,7 +4246,7 @@
         <v>14</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
         <v>21</v>
@@ -4474,7 +4474,7 @@
         <v>3.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
         <v>2.02</v>
@@ -4483,10 +4483,10 @@
         <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
         <v>1.04</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G32" t="n">
         <v>3.2</v>
@@ -4744,25 +4744,25 @@
         <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S32" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T32" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V32" t="n">
         <v>1.7</v>
@@ -4774,10 +4774,10 @@
         <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
         <v>36</v>
@@ -4795,7 +4795,7 @@
         <v>26</v>
       </c>
       <c r="AF32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG32" t="n">
         <v>16.5</v>
@@ -4810,7 +4810,7 @@
         <v>65</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
         <v>44</v>
@@ -4819,7 +4819,7 @@
         <v>60</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO32" t="n">
         <v>15.5</v>
@@ -4858,10 +4858,10 @@
         <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I33" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J33" t="n">
         <v>3.85</v>
@@ -4882,10 +4882,10 @@
         <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R33" t="n">
         <v>1.62</v>
@@ -4894,13 +4894,13 @@
         <v>2.38</v>
       </c>
       <c r="T33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U33" t="n">
         <v>2.56</v>
       </c>
       <c r="V33" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W33" t="n">
         <v>1.44</v>
@@ -4996,7 +4996,7 @@
         <v>2.82</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J34" t="n">
         <v>3.55</v>
@@ -5020,10 +5020,10 @@
         <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
         <v>2.96</v>
@@ -5032,7 +5032,7 @@
         <v>1.61</v>
       </c>
       <c r="U34" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
         <v>1.5</v>
@@ -5125,19 +5125,19 @@
         <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -5149,10 +5149,10 @@
         <v>4.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q35" t="n">
         <v>1.66</v>
@@ -5161,7 +5161,7 @@
         <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
         <v>1.55</v>
@@ -5173,7 +5173,7 @@
         <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
         <v>980</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H36" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I36" t="n">
         <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,22 +5281,22 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S36" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T36" t="n">
         <v>1.04</v>
@@ -5308,7 +5308,7 @@
         <v>1.29</v>
       </c>
       <c r="W36" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="G37" t="n">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
         <v>1.29</v>
@@ -5416,37 +5416,37 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="n">
         <v>3.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
         <v>16.5</v>
@@ -5455,7 +5455,7 @@
         <v>28</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="n">
         <v>13.5</v>
@@ -5470,7 +5470,7 @@
         <v>44</v>
       </c>
       <c r="AF37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG37" t="n">
         <v>14</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H38" t="n">
         <v>1.32</v>
@@ -5539,7 +5539,7 @@
         <v>1.49</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K38" t="n">
         <v>10.5</v>
@@ -5557,7 +5557,7 @@
         <v>1.14</v>
       </c>
       <c r="P38" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q38" t="n">
         <v>1.46</v>
@@ -5686,7 +5686,7 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.24</v>
@@ -5707,7 +5707,7 @@
         <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
         <v>1.27</v>
@@ -5806,7 +5806,7 @@
         <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
         <v>3.15</v>
@@ -5956,7 +5956,7 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O41" t="n">
         <v>1.52</v>
@@ -5980,13 +5980,13 @@
         <v>1.84</v>
       </c>
       <c r="V41" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W41" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X41" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y41" t="n">
         <v>10.5</v>
@@ -6001,7 +6001,7 @@
         <v>7.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD41" t="n">
         <v>15.5</v>
@@ -6238,7 +6238,7 @@
         <v>1.86</v>
       </c>
       <c r="R43" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
         <v>2.78</v>
@@ -6346,7 +6346,7 @@
         <v>2.16</v>
       </c>
       <c r="I44" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J44" t="n">
         <v>3.5</v>
@@ -6385,7 +6385,7 @@
         <v>2.46</v>
       </c>
       <c r="V44" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W44" t="n">
         <v>1.41</v>
@@ -6481,10 +6481,10 @@
         <v>2.26</v>
       </c>
       <c r="I45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
         <v>980</v>
@@ -6520,7 +6520,7 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6610,10 +6610,10 @@
         <v>2.56</v>
       </c>
       <c r="G46" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H46" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I46" t="n">
         <v>2.68</v>
@@ -6658,7 +6658,7 @@
         <v>1.59</v>
       </c>
       <c r="W46" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6748,10 +6748,10 @@
         <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I47" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J47" t="n">
         <v>3.1</v>
@@ -6763,7 +6763,7 @@
         <v>1.35</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
         <v>3.2</v>
@@ -6781,10 +6781,10 @@
         <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="T47" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U47" t="n">
         <v>2</v>
@@ -6796,7 +6796,7 @@
         <v>1.46</v>
       </c>
       <c r="X47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
         <v>12.5</v>
@@ -6835,13 +6835,13 @@
         <v>55</v>
       </c>
       <c r="AK47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="n">
         <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
         <v>44</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
         <v>2.54</v>
       </c>
       <c r="H50" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J50" t="n">
         <v>2.72</v>
@@ -7165,7 +7165,7 @@
         <v>980</v>
       </c>
       <c r="L50" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
@@ -7195,7 +7195,7 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W50" t="n">
         <v>1.64</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G51" t="n">
         <v>2.38</v>
@@ -7420,16 +7420,16 @@
         <v>1.04</v>
       </c>
       <c r="G52" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="H52" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I52" t="n">
         <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K52" t="n">
         <v>980</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="H53" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="K53" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -7576,7 +7576,7 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O53" t="n">
         <v>1.25</v>
@@ -7591,61 +7591,61 @@
         <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="T53" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U53" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="V53" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W53" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE53" t="n">
         <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL53" t="n">
         <v>1000</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="G55" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="H55" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="I55" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="J55" t="n">
         <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>1.43</v>
@@ -7870,10 +7870,10 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="W55" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7978,7 +7978,7 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
         <v>4.8</v>
@@ -7987,22 +7987,22 @@
         <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R56" t="n">
         <v>1.53</v>
       </c>
       <c r="S56" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V56" t="n">
         <v>1.27</v>
@@ -8011,58 +8011,58 @@
         <v>2.08</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -8095,13 +8095,13 @@
         <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>2.24</v>
       </c>
       <c r="I57" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J57" t="n">
         <v>3.35</v>
@@ -8140,7 +8140,7 @@
         <v>2.16</v>
       </c>
       <c r="V57" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W57" t="n">
         <v>1.37</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G58" t="n">
         <v>2.08</v>
@@ -8275,7 +8275,7 @@
         <v>2.42</v>
       </c>
       <c r="V58" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W58" t="n">
         <v>1.92</v>
@@ -8635,22 +8635,22 @@
         <v>2.88</v>
       </c>
       <c r="G61" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I61" t="n">
         <v>2.86</v>
       </c>
       <c r="J61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K61" t="n">
         <v>3.35</v>
       </c>
       <c r="L61" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M61" t="n">
         <v>1.09</v>
@@ -8662,7 +8662,7 @@
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q61" t="n">
         <v>2.22</v>
@@ -8671,19 +8671,19 @@
         <v>1.27</v>
       </c>
       <c r="S61" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T61" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U61" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V61" t="n">
         <v>1.54</v>
       </c>
       <c r="W61" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X61" t="n">
         <v>12</v>
@@ -8695,7 +8695,7 @@
         <v>18.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB61" t="n">
         <v>11</v>
@@ -8734,7 +8734,7 @@
         <v>150</v>
       </c>
       <c r="AN61" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO61" t="n">
         <v>980</v>
@@ -8806,7 +8806,7 @@
         <v>1.4</v>
       </c>
       <c r="S62" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T62" t="n">
         <v>1.73</v>
@@ -8815,7 +8815,7 @@
         <v>2.14</v>
       </c>
       <c r="V62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W62" t="n">
         <v>1.92</v>
@@ -8905,16 +8905,16 @@
         <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I63" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J63" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K63" t="n">
         <v>3.4</v>
@@ -8926,34 +8926,34 @@
         <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O63" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P63" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q63" t="n">
         <v>2.06</v>
       </c>
       <c r="R63" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S63" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T63" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U63" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V63" t="n">
         <v>1.27</v>
       </c>
       <c r="W63" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9046,7 +9046,7 @@
         <v>6.8</v>
       </c>
       <c r="I64" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J64" t="n">
         <v>4.4</v>
@@ -9064,13 +9064,13 @@
         <v>4.4</v>
       </c>
       <c r="O64" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P64" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R64" t="n">
         <v>1.47</v>
@@ -9088,16 +9088,16 @@
         <v>1.15</v>
       </c>
       <c r="W64" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X64" t="n">
         <v>23</v>
       </c>
       <c r="Y64" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z64" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA64" t="n">
         <v>250</v>
@@ -9139,7 +9139,7 @@
         <v>140</v>
       </c>
       <c r="AN64" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO64" t="n">
         <v>140</v>
@@ -9184,7 +9184,7 @@
         <v>4.6</v>
       </c>
       <c r="J65" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K65" t="n">
         <v>3.2</v>
@@ -9223,7 +9223,7 @@
         <v>1.28</v>
       </c>
       <c r="W65" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X65" t="n">
         <v>7.8</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G66" t="n">
         <v>2.88</v>
@@ -9478,10 +9478,10 @@
         <v>1.44</v>
       </c>
       <c r="R67" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S67" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T67" t="n">
         <v>1.54</v>
@@ -9577,112 +9577,112 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G68" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H68" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I68" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J68" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K68" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L68" t="n">
         <v>1.36</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P68" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q68" t="n">
         <v>2.06</v>
       </c>
       <c r="R68" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="S68" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V68" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W68" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X68" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z68" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA68" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB68" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC68" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AE68" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF68" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG68" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI68" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ68" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK68" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL68" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN68" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69">
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G70" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>2.82</v>
       </c>
       <c r="I70" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J70" t="n">
         <v>3.25</v>
@@ -9880,7 +9880,7 @@
         <v>1.84</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R70" t="n">
         <v>1.28</v>
@@ -9895,10 +9895,10 @@
         <v>1.04</v>
       </c>
       <c r="V70" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W70" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9985,10 +9985,10 @@
         <v>2.22</v>
       </c>
       <c r="G71" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H71" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I71" t="n">
         <v>4.2</v>
@@ -10003,19 +10003,19 @@
         <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N71" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="O71" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P71" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R71" t="n">
         <v>1.24</v>
@@ -10033,49 +10033,49 @@
         <v>1.32</v>
       </c>
       <c r="W71" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X71" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z71" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA71" t="n">
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC71" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD71" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE71" t="n">
         <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI71" t="n">
         <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK71" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL71" t="n">
         <v>1000</v>
@@ -10084,7 +10084,7 @@
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G72" t="n">
         <v>1.53</v>
@@ -10126,13 +10126,13 @@
         <v>6.6</v>
       </c>
       <c r="I72" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="J72" t="n">
         <v>4.4</v>
       </c>
       <c r="K72" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10144,7 +10144,7 @@
         <v>3.75</v>
       </c>
       <c r="O72" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P72" t="n">
         <v>2.04</v>
@@ -10276,7 +10276,7 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="O73" t="n">
         <v>1.27</v>
@@ -10291,7 +10291,7 @@
         <v>1.35</v>
       </c>
       <c r="S73" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="T73" t="n">
         <v>1.04</v>
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H74" t="n">
         <v>3.7</v>
@@ -10399,13 +10399,13 @@
         <v>5.1</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K74" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L74" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M74" t="n">
         <v>1.01</v>
@@ -10414,16 +10414,16 @@
         <v>2.96</v>
       </c>
       <c r="O74" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P74" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q74" t="n">
         <v>1.88</v>
       </c>
       <c r="R74" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S74" t="n">
         <v>3.15</v>
@@ -10438,7 +10438,7 @@
         <v>1.24</v>
       </c>
       <c r="W74" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10525,7 +10525,7 @@
         <v>3.35</v>
       </c>
       <c r="G75" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>2.4</v>
@@ -10543,13 +10543,13 @@
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N75" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="O75" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P75" t="n">
         <v>1.52</v>
@@ -10558,25 +10558,25 @@
         <v>2.44</v>
       </c>
       <c r="R75" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S75" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T75" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="U75" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="V75" t="n">
         <v>1.58</v>
       </c>
       <c r="W75" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X75" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y75" t="n">
         <v>1000</v>
@@ -10591,7 +10591,7 @@
         <v>1000</v>
       </c>
       <c r="AC75" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD75" t="n">
         <v>1000</v>
@@ -10618,7 +10618,7 @@
         <v>1000</v>
       </c>
       <c r="AL75" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM75" t="n">
         <v>1000</v>
@@ -10723,7 +10723,7 @@
         <v>180</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC76" t="n">
         <v>8.800000000000001</v>
@@ -10792,13 +10792,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="G77" t="n">
         <v>1.13</v>
       </c>
       <c r="H77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I77" t="n">
         <v>36</v>
@@ -10819,7 +10819,7 @@
         <v>11</v>
       </c>
       <c r="O77" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P77" t="n">
         <v>4.3</v>
@@ -10831,10 +10831,10 @@
         <v>2.36</v>
       </c>
       <c r="S77" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="T77" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U77" t="n">
         <v>1.79</v>
@@ -10843,10 +10843,10 @@
         <v>1.02</v>
       </c>
       <c r="W77" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="X77" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y77" t="n">
         <v>1000</v>
@@ -10858,7 +10858,7 @@
         <v>1000</v>
       </c>
       <c r="AB77" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC77" t="n">
         <v>32</v>
@@ -10876,7 +10876,7 @@
         <v>16</v>
       </c>
       <c r="AH77" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI77" t="n">
         <v>1000</v>
@@ -10894,7 +10894,7 @@
         <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="AO77" t="n">
         <v>1000</v>
@@ -10936,7 +10936,7 @@
         <v>3.05</v>
       </c>
       <c r="I78" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J78" t="n">
         <v>3.9</v>
@@ -10975,7 +10975,7 @@
         <v>2.72</v>
       </c>
       <c r="V78" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W78" t="n">
         <v>1.73</v>
@@ -11068,7 +11068,7 @@
         <v>1.74</v>
       </c>
       <c r="H79" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
         <v>5.1</v>
@@ -11104,7 +11104,7 @@
         <v>2.48</v>
       </c>
       <c r="T79" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U79" t="n">
         <v>2.46</v>
@@ -11113,7 +11113,7 @@
         <v>1.24</v>
       </c>
       <c r="W79" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X79" t="n">
         <v>25</v>
@@ -11200,7 +11200,7 @@
         <v>1.29</v>
       </c>
       <c r="G80" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H80" t="n">
         <v>9.4</v>
@@ -11248,7 +11248,7 @@
         <v>1.09</v>
       </c>
       <c r="W80" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X80" t="n">
         <v>70</v>
@@ -11332,25 +11332,25 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J81" t="n">
         <v>3.65</v>
       </c>
-      <c r="G81" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>3.8</v>
       </c>
-      <c r="K81" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L81" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M81" t="n">
         <v>1.06</v>
@@ -11362,10 +11362,10 @@
         <v>1.28</v>
       </c>
       <c r="P81" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R81" t="n">
         <v>1.42</v>
@@ -11380,10 +11380,10 @@
         <v>2.24</v>
       </c>
       <c r="V81" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X81" t="n">
         <v>16.5</v>
@@ -11401,7 +11401,7 @@
         <v>16</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD81" t="n">
         <v>11</v>
@@ -11422,7 +11422,7 @@
         <v>980</v>
       </c>
       <c r="AJ81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK81" t="n">
         <v>980</v>
@@ -11437,7 +11437,7 @@
         <v>40</v>
       </c>
       <c r="AO81" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -11470,19 +11470,19 @@
         <v>3.65</v>
       </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I82" t="n">
         <v>2.28</v>
       </c>
       <c r="J82" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K82" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L82" t="n">
         <v>1.34</v>
@@ -11539,7 +11539,7 @@
         <v>9.4</v>
       </c>
       <c r="AD82" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE82" t="n">
         <v>26</v>
@@ -11548,10 +11548,10 @@
         <v>29</v>
       </c>
       <c r="AG82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI82" t="n">
         <v>980</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G83" t="n">
         <v>1.27</v>
       </c>
-      <c r="G83" t="n">
-        <v>1.28</v>
-      </c>
       <c r="H83" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I83" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J83" t="n">
         <v>7</v>
@@ -11629,10 +11629,10 @@
         <v>5.9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q83" t="n">
         <v>1.56</v>
@@ -11647,19 +11647,19 @@
         <v>2.16</v>
       </c>
       <c r="U83" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V83" t="n">
         <v>1.07</v>
       </c>
       <c r="W83" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X83" t="n">
         <v>30</v>
       </c>
       <c r="Y83" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z83" t="n">
         <v>140</v>
@@ -11671,7 +11671,7 @@
         <v>10</v>
       </c>
       <c r="AC83" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD83" t="n">
         <v>50</v>
@@ -11692,7 +11692,7 @@
         <v>170</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK83" t="n">
         <v>13</v>
@@ -11746,7 +11746,7 @@
         <v>7.8</v>
       </c>
       <c r="I84" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J84" t="n">
         <v>4.8</v>
@@ -11767,10 +11767,10 @@
         <v>1.28</v>
       </c>
       <c r="P84" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R84" t="n">
         <v>1.44</v>
@@ -11779,13 +11779,13 @@
         <v>3.15</v>
       </c>
       <c r="T84" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U84" t="n">
         <v>1.9</v>
       </c>
       <c r="V84" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W84" t="n">
         <v>2.98</v>
@@ -11800,7 +11800,7 @@
         <v>70</v>
       </c>
       <c r="AA84" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AB84" t="n">
         <v>8.4</v>
@@ -11809,7 +11809,7 @@
         <v>10.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE84" t="n">
         <v>130</v>
@@ -11827,7 +11827,7 @@
         <v>110</v>
       </c>
       <c r="AJ84" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK84" t="n">
         <v>15.5</v>
@@ -11875,13 +11875,13 @@
         <v>3.2</v>
       </c>
       <c r="G85" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I85" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.48</v>
       </c>
       <c r="J85" t="n">
         <v>3.5</v>
@@ -11890,7 +11890,7 @@
         <v>3.55</v>
       </c>
       <c r="L85" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M85" t="n">
         <v>1.08</v>
@@ -11959,7 +11959,7 @@
         <v>17</v>
       </c>
       <c r="AI85" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ85" t="n">
         <v>50</v>
@@ -11968,7 +11968,7 @@
         <v>38</v>
       </c>
       <c r="AL85" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM85" t="n">
         <v>95</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G86" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H86" t="n">
         <v>5.5</v>
       </c>
       <c r="I86" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="J86" t="n">
         <v>4.2</v>
       </c>
       <c r="K86" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,22 +12031,22 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="O86" t="n">
         <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R86" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S86" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,10 +12055,10 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W86" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12151,19 +12151,19 @@
         <v>2.84</v>
       </c>
       <c r="I87" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K87" t="n">
         <v>3.75</v>
       </c>
       <c r="L87" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
         <v>3.25</v>
@@ -12190,7 +12190,7 @@
         <v>2.02</v>
       </c>
       <c r="V87" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W87" t="n">
         <v>1.56</v>
@@ -12211,7 +12211,7 @@
         <v>980</v>
       </c>
       <c r="AC87" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD87" t="n">
         <v>980</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G88" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H88" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I88" t="n">
         <v>2.98</v>
       </c>
       <c r="J88" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K88" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12307,16 +12307,16 @@
         <v>1.19</v>
       </c>
       <c r="P88" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R88" t="n">
         <v>1.35</v>
       </c>
       <c r="S88" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T88" t="n">
         <v>1.04</v>
@@ -12328,7 +12328,7 @@
         <v>1.5</v>
       </c>
       <c r="W88" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G89" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I89" t="n">
         <v>5.9</v>
       </c>
       <c r="J89" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K89" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
@@ -12439,16 +12439,16 @@
         <v>4.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P89" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R89" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S89" t="n">
         <v>2.06</v>
@@ -12463,7 +12463,7 @@
         <v>1.2</v>
       </c>
       <c r="W89" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G90" t="n">
         <v>2.66</v>
       </c>
       <c r="H90" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
         <v>4.9</v>
       </c>
       <c r="J90" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K90" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
@@ -12571,7 +12571,7 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O90" t="n">
         <v>1.3</v>
@@ -12580,13 +12580,13 @@
         <v>1.67</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R90" t="n">
         <v>1.23</v>
       </c>
       <c r="S90" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T90" t="n">
         <v>1.01</v>
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G91" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>2.68</v>
@@ -12694,10 +12694,10 @@
         <v>3.95</v>
       </c>
       <c r="J91" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K91" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
@@ -12709,19 +12709,19 @@
         <v>4.3</v>
       </c>
       <c r="O91" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P91" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q91" t="n">
         <v>1.5</v>
       </c>
       <c r="R91" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S91" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T91" t="n">
         <v>1.01</v>
@@ -12733,7 +12733,7 @@
         <v>1.34</v>
       </c>
       <c r="W91" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X91" t="n">
         <v>1000</v>
@@ -12826,13 +12826,13 @@
         <v>10.5</v>
       </c>
       <c r="I92" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="J92" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K92" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12844,13 +12844,13 @@
         <v>4.2</v>
       </c>
       <c r="O92" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P92" t="n">
         <v>2.28</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R92" t="n">
         <v>1.5</v>
@@ -12859,13 +12859,13 @@
         <v>2.58</v>
       </c>
       <c r="T92" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U92" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V92" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W92" t="n">
         <v>3.75</v>
@@ -12916,10 +12916,10 @@
         <v>980</v>
       </c>
       <c r="AM92" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN92" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="AO92" t="n">
         <v>1000</v>
@@ -12961,7 +12961,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J93" t="n">
         <v>3.45</v>
@@ -12988,22 +12988,22 @@
         <v>1.75</v>
       </c>
       <c r="R93" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S93" t="n">
         <v>2.9</v>
       </c>
       <c r="T93" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U93" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V93" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W93" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X93" t="n">
         <v>22</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G94" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J94" t="n">
         <v>3.7</v>
       </c>
       <c r="K94" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L94" t="n">
         <v>1.31</v>
@@ -13114,7 +13114,7 @@
         <v>3.25</v>
       </c>
       <c r="O94" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P94" t="n">
         <v>1.84</v>
@@ -13126,7 +13126,7 @@
         <v>1.31</v>
       </c>
       <c r="S94" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13135,10 +13135,10 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W94" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X94" t="n">
         <v>1000</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="G95" t="n">
         <v>1.46</v>
@@ -13261,7 +13261,7 @@
         <v>1.71</v>
       </c>
       <c r="S95" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T95" t="n">
         <v>1.01</v>
@@ -13363,16 +13363,16 @@
         <v>2.54</v>
       </c>
       <c r="H96" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J96" t="n">
         <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L96" t="n">
         <v>1.32</v>
@@ -13387,7 +13387,7 @@
         <v>1.25</v>
       </c>
       <c r="P96" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q96" t="n">
         <v>1.85</v>
@@ -13405,7 +13405,7 @@
         <v>1.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W96" t="n">
         <v>1.65</v>
@@ -13501,7 +13501,7 @@
         <v>2.22</v>
       </c>
       <c r="I97" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J97" t="n">
         <v>3.45</v>
@@ -13540,7 +13540,7 @@
         <v>2.02</v>
       </c>
       <c r="V97" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W97" t="n">
         <v>1.38</v>
@@ -13666,7 +13666,7 @@
         <v>1.95</v>
       </c>
       <c r="S98" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T98" t="n">
         <v>1.96</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G99" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H99" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I99" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J99" t="n">
         <v>3.1</v>
@@ -13786,7 +13786,7 @@
         <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O99" t="n">
         <v>1.44</v>
@@ -13804,16 +13804,16 @@
         <v>4.4</v>
       </c>
       <c r="T99" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U99" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V99" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W99" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X99" t="n">
         <v>11</v>
@@ -13900,7 +13900,7 @@
         <v>1.46</v>
       </c>
       <c r="G100" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="H100" t="n">
         <v>5.5</v>
@@ -13921,22 +13921,22 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="O100" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="P100" t="n">
         <v>1.81</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R100" t="n">
         <v>1.25</v>
       </c>
       <c r="S100" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="T100" t="n">
         <v>1.04</v>
@@ -13948,7 +13948,7 @@
         <v>1.04</v>
       </c>
       <c r="W100" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14032,19 +14032,19 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G101" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I101" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J101" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K101" t="n">
         <v>3.35</v>
@@ -14056,22 +14056,22 @@
         <v>1.1</v>
       </c>
       <c r="N101" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O101" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P101" t="n">
         <v>1.63</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R101" t="n">
         <v>1.22</v>
       </c>
       <c r="S101" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T101" t="n">
         <v>1.95</v>
@@ -14080,10 +14080,10 @@
         <v>1.89</v>
       </c>
       <c r="V101" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W101" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X101" t="n">
         <v>12</v>
@@ -14167,10 +14167,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H102" t="n">
         <v>2.12</v>
@@ -14332,10 +14332,10 @@
         <v>1.24</v>
       </c>
       <c r="P103" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R103" t="n">
         <v>1.29</v>
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="G104" t="n">
         <v>16</v>
       </c>
       <c r="H104" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I104" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J104" t="n">
         <v>4.7</v>
       </c>
       <c r="K104" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>
@@ -14461,7 +14461,7 @@
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O104" t="n">
         <v>1.2</v>
@@ -14473,10 +14473,10 @@
         <v>1.6</v>
       </c>
       <c r="R104" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S104" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="T104" t="n">
         <v>1.01</v>
@@ -14485,7 +14485,7 @@
         <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="W104" t="n">
         <v>1.06</v>
@@ -14575,10 +14575,10 @@
         <v>2.4</v>
       </c>
       <c r="G105" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H105" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I105" t="n">
         <v>3.15</v>
@@ -14623,7 +14623,7 @@
         <v>1.47</v>
       </c>
       <c r="W105" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X105" t="n">
         <v>23</v>
@@ -14659,7 +14659,7 @@
         <v>19</v>
       </c>
       <c r="AI105" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ105" t="n">
         <v>980</v>
@@ -14710,10 +14710,10 @@
         <v>1.04</v>
       </c>
       <c r="G106" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I106" t="n">
         <v>4.5</v>
@@ -14758,7 +14758,7 @@
         <v>1.28</v>
       </c>
       <c r="W106" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X106" t="n">
         <v>1000</v>
@@ -14845,16 +14845,16 @@
         <v>2.64</v>
       </c>
       <c r="G107" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>2.52</v>
       </c>
       <c r="I107" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J107" t="n">
-        <v>2.48</v>
+        <v>1.09</v>
       </c>
       <c r="K107" t="n">
         <v>950</v>
@@ -14866,7 +14866,7 @@
         <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="O107" t="n">
         <v>1.34</v>
@@ -14884,19 +14884,19 @@
         <v>2.02</v>
       </c>
       <c r="T107" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U107" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V107" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W107" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X107" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y107" t="n">
         <v>1000</v>
@@ -14989,7 +14989,7 @@
         <v>10</v>
       </c>
       <c r="J108" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K108" t="n">
         <v>5</v>
@@ -15004,7 +15004,7 @@
         <v>2</v>
       </c>
       <c r="O108" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="P108" t="n">
         <v>2</v>
@@ -15016,7 +15016,7 @@
         <v>1.31</v>
       </c>
       <c r="S108" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T108" t="n">
         <v>1.01</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="G109" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="H109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I109" t="n">
         <v>10</v>
       </c>
       <c r="J109" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K109" t="n">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
@@ -15148,28 +15148,28 @@
         <v>1.67</v>
       </c>
       <c r="R109" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S109" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="T109" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U109" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V109" t="n">
         <v>1.11</v>
       </c>
       <c r="W109" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="X109" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y109" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z109" t="n">
         <v>1000</v>
@@ -15178,43 +15178,43 @@
         <v>1000</v>
       </c>
       <c r="AB109" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC109" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD109" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE109" t="n">
         <v>1000</v>
       </c>
       <c r="AF109" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG109" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI109" t="n">
         <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK109" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL109" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM109" t="n">
         <v>1000</v>
       </c>
       <c r="AN109" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO109" t="n">
         <v>1000</v>
@@ -15250,13 +15250,13 @@
         <v>5.4</v>
       </c>
       <c r="G110" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H110" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="I110" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J110" t="n">
         <v>4.7</v>
@@ -15265,13 +15265,13 @@
         <v>4.9</v>
       </c>
       <c r="L110" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="M110" t="n">
         <v>1.02</v>
       </c>
       <c r="N110" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O110" t="n">
         <v>1.15</v>
@@ -15292,22 +15292,22 @@
         <v>1.56</v>
       </c>
       <c r="U110" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V110" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W110" t="n">
         <v>1.21</v>
       </c>
       <c r="X110" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y110" t="n">
         <v>15</v>
       </c>
       <c r="Z110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA110" t="n">
         <v>18</v>
@@ -15328,7 +15328,7 @@
         <v>55</v>
       </c>
       <c r="AG110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH110" t="n">
         <v>16.5</v>
@@ -15349,7 +15349,7 @@
         <v>60</v>
       </c>
       <c r="AN110" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO110" t="n">
         <v>5.5</v>
@@ -15382,10 +15382,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G111" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H111" t="n">
         <v>5.6</v>
@@ -15403,7 +15403,7 @@
         <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N111" t="n">
         <v>3.4</v>
@@ -15421,19 +15421,19 @@
         <v>1.28</v>
       </c>
       <c r="S111" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T111" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="U111" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V111" t="n">
         <v>1.18</v>
       </c>
       <c r="W111" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X111" t="n">
         <v>1000</v>
@@ -15448,7 +15448,7 @@
         <v>1000</v>
       </c>
       <c r="AB111" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC111" t="n">
         <v>13</v>
@@ -15460,7 +15460,7 @@
         <v>1000</v>
       </c>
       <c r="AF111" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG111" t="n">
         <v>15</v>
@@ -15523,16 +15523,16 @@
         <v>2.76</v>
       </c>
       <c r="H112" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I112" t="n">
         <v>3.2</v>
       </c>
       <c r="J112" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K112" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15553,16 +15553,16 @@
         <v>2.02</v>
       </c>
       <c r="R112" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S112" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T112" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U112" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V112" t="n">
         <v>1.46</v>
@@ -15571,7 +15571,7 @@
         <v>1.56</v>
       </c>
       <c r="X112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y112" t="n">
         <v>14</v>
@@ -15655,10 +15655,10 @@
         <v>2.76</v>
       </c>
       <c r="G113" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H113" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I113" t="n">
         <v>3.15</v>
@@ -15667,7 +15667,7 @@
         <v>3.05</v>
       </c>
       <c r="K113" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L113" t="n">
         <v>1.41</v>
@@ -15685,7 +15685,7 @@
         <v>1.62</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R113" t="n">
         <v>1.24</v>
@@ -15700,10 +15700,10 @@
         <v>1.9</v>
       </c>
       <c r="V113" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W113" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X113" t="n">
         <v>12</v>
@@ -15787,19 +15787,19 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G114" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="H114" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I114" t="n">
         <v>3.4</v>
       </c>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K114" t="n">
         <v>3.3</v>
@@ -15817,7 +15817,7 @@
         <v>1.46</v>
       </c>
       <c r="P114" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q114" t="n">
         <v>2.32</v>
@@ -15832,13 +15832,13 @@
         <v>1.78</v>
       </c>
       <c r="U114" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V114" t="n">
         <v>1.41</v>
       </c>
       <c r="W114" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X114" t="n">
         <v>10.5</v>
@@ -16195,7 +16195,7 @@
         <v>2.46</v>
       </c>
       <c r="G117" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>3.05</v>
@@ -16207,7 +16207,7 @@
         <v>3.1</v>
       </c>
       <c r="K117" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L117" t="n">
         <v>1.01</v>
@@ -16216,67 +16216,67 @@
         <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O117" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P117" t="n">
         <v>1.69</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R117" t="n">
         <v>1.2</v>
       </c>
       <c r="S117" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T117" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U117" t="n">
         <v>1.86</v>
       </c>
       <c r="V117" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W117" t="n">
         <v>1.58</v>
       </c>
       <c r="X117" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z117" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA117" t="n">
         <v>1000</v>
       </c>
       <c r="AB117" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC117" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE117" t="n">
         <v>1000</v>
       </c>
       <c r="AF117" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG117" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH117" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI117" t="n">
         <v>1000</v>
@@ -16285,7 +16285,7 @@
         <v>1000</v>
       </c>
       <c r="AK117" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL117" t="n">
         <v>1000</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G118" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H118" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I118" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J118" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K118" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="L118" t="n">
         <v>1.01</v>
@@ -16351,22 +16351,22 @@
         <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="O118" t="n">
         <v>1.25</v>
       </c>
       <c r="P118" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R118" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S118" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T118" t="n">
         <v>1.01</v>
@@ -16378,7 +16378,7 @@
         <v>1.11</v>
       </c>
       <c r="W118" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X118" t="n">
         <v>1000</v>
@@ -16477,7 +16477,7 @@
         <v>3.55</v>
       </c>
       <c r="K119" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L119" t="n">
         <v>1.38</v>
@@ -16597,19 +16597,19 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="G120" t="n">
         <v>1.75</v>
       </c>
       <c r="H120" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I120" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="J120" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K120" t="n">
         <v>4.5</v>
@@ -16618,7 +16618,7 @@
         <v>1.01</v>
       </c>
       <c r="M120" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N120" t="n">
         <v>4.4</v>
@@ -16627,25 +16627,25 @@
         <v>1.25</v>
       </c>
       <c r="P120" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q120" t="n">
         <v>1.73</v>
       </c>
       <c r="R120" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S120" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T120" t="n">
         <v>1.75</v>
       </c>
       <c r="U120" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V120" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W120" t="n">
         <v>2.32</v>
@@ -16660,7 +16660,7 @@
         <v>980</v>
       </c>
       <c r="AA120" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB120" t="n">
         <v>10.5</v>
@@ -16672,7 +16672,7 @@
         <v>980</v>
       </c>
       <c r="AE120" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF120" t="n">
         <v>980</v>
@@ -16699,10 +16699,10 @@
         <v>110</v>
       </c>
       <c r="AN120" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO120" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
@@ -16738,16 +16738,16 @@
         <v>2.32</v>
       </c>
       <c r="H121" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I121" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J121" t="n">
         <v>3.35</v>
       </c>
       <c r="K121" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
@@ -16756,13 +16756,13 @@
         <v>1.01</v>
       </c>
       <c r="N121" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O121" t="n">
         <v>1.16</v>
       </c>
       <c r="P121" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="Q121" t="n">
         <v>1.58</v>
@@ -16774,13 +16774,13 @@
         <v>2.34</v>
       </c>
       <c r="T121" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U121" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V121" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W121" t="n">
         <v>1.75</v>
@@ -16867,109 +16867,109 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="G122" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="H122" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I122" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J122" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K122" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L122" t="n">
         <v>1.01</v>
       </c>
       <c r="M122" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O122" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P122" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R122" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S122" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="T122" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="U122" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V122" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W122" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="X122" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y122" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z122" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA122" t="n">
         <v>1000</v>
       </c>
       <c r="AB122" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC122" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD122" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE122" t="n">
         <v>1000</v>
       </c>
       <c r="AF122" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG122" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI122" t="n">
         <v>1000</v>
       </c>
       <c r="AJ122" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK122" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL122" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM122" t="n">
         <v>1000</v>
       </c>
       <c r="AN122" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO122" t="n">
         <v>1000</v>
@@ -17005,13 +17005,13 @@
         <v>1.36</v>
       </c>
       <c r="G123" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H123" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I123" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J123" t="n">
         <v>5.4</v>
@@ -17050,10 +17050,10 @@
         <v>1.62</v>
       </c>
       <c r="V123" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W123" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X123" t="n">
         <v>15.5</v>
@@ -17092,7 +17092,7 @@
         <v>240</v>
       </c>
       <c r="AJ123" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK123" t="n">
         <v>17</v>
@@ -17143,7 +17143,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I124" t="n">
         <v>1.79</v>
@@ -17152,7 +17152,7 @@
         <v>3.85</v>
       </c>
       <c r="K124" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="L124" t="n">
         <v>1.01</v>
@@ -17167,7 +17167,7 @@
         <v>1.01</v>
       </c>
       <c r="P124" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q124" t="n">
         <v>1.54</v>
@@ -17278,13 +17278,13 @@
         <v>1.24</v>
       </c>
       <c r="H125" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I125" t="n">
         <v>21</v>
       </c>
       <c r="J125" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K125" t="n">
         <v>8.6</v>
@@ -17305,25 +17305,25 @@
         <v>2.58</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R125" t="n">
         <v>1.63</v>
       </c>
       <c r="S125" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T125" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="U125" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="V125" t="n">
         <v>1.05</v>
       </c>
       <c r="W125" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X125" t="n">
         <v>32</v>
@@ -17338,7 +17338,7 @@
         <v>1000</v>
       </c>
       <c r="AB125" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC125" t="n">
         <v>22</v>
@@ -17377,7 +17377,7 @@
         <v>4.3</v>
       </c>
       <c r="AO125" t="n">
-        <v>560</v>
+        <v>650</v>
       </c>
     </row>
     <row r="126">
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="G126" t="n">
         <v>6.4</v>
@@ -17419,10 +17419,10 @@
         <v>2.14</v>
       </c>
       <c r="J126" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="L126" t="n">
         <v>1.35</v>
@@ -17431,10 +17431,10 @@
         <v>1.01</v>
       </c>
       <c r="N126" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="O126" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P126" t="n">
         <v>1.7</v>
@@ -17557,7 +17557,7 @@
         <v>3.1</v>
       </c>
       <c r="K127" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L127" t="n">
         <v>1.01</v>
@@ -17566,7 +17566,7 @@
         <v>1.01</v>
       </c>
       <c r="N127" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="O127" t="n">
         <v>1.23</v>
@@ -17695,7 +17695,7 @@
         <v>3.55</v>
       </c>
       <c r="L128" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M128" t="n">
         <v>1.09</v>
@@ -17710,19 +17710,19 @@
         <v>1.81</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R128" t="n">
         <v>1.3</v>
       </c>
       <c r="S128" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T128" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U128" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V128" t="n">
         <v>1.78</v>
@@ -17734,7 +17734,7 @@
         <v>12</v>
       </c>
       <c r="Y128" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z128" t="n">
         <v>13.5</v>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G129" t="n">
         <v>3.05</v>
@@ -17821,49 +17821,49 @@
         <v>2.56</v>
       </c>
       <c r="I129" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J129" t="n">
         <v>3.1</v>
       </c>
       <c r="K129" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L129" t="n">
         <v>1.01</v>
       </c>
       <c r="M129" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N129" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O129" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P129" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R129" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S129" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T129" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U129" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V129" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W129" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X129" t="n">
         <v>1000</v>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G130" t="n">
         <v>1.66</v>
@@ -17956,7 +17956,7 @@
         <v>6.4</v>
       </c>
       <c r="I130" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J130" t="n">
         <v>3.8</v>
@@ -17968,37 +17968,37 @@
         <v>1.01</v>
       </c>
       <c r="M130" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N130" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O130" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P130" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q130" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R130" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S130" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T130" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="U130" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="V130" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W130" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="X130" t="n">
         <v>980</v>
@@ -18010,7 +18010,7 @@
         <v>60</v>
       </c>
       <c r="AA130" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB130" t="n">
         <v>7</v>
@@ -18085,7 +18085,7 @@
         <v>1.32</v>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H131" t="n">
         <v>9.800000000000001</v>
@@ -18094,7 +18094,7 @@
         <v>14.5</v>
       </c>
       <c r="J131" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="K131" t="n">
         <v>7</v>
@@ -18133,7 +18133,7 @@
         <v>1.07</v>
       </c>
       <c r="W131" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18217,16 +18217,16 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G132" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H132" t="n">
         <v>5.5</v>
       </c>
       <c r="I132" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J132" t="n">
         <v>3.85</v>
@@ -18241,16 +18241,16 @@
         <v>1.01</v>
       </c>
       <c r="N132" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O132" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P132" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R132" t="n">
         <v>1.37</v>
@@ -18259,16 +18259,16 @@
         <v>2.72</v>
       </c>
       <c r="T132" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U132" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V132" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W132" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X132" t="n">
         <v>980</v>
@@ -18352,13 +18352,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G133" t="n">
         <v>1.7</v>
       </c>
       <c r="H133" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I133" t="n">
         <v>9.199999999999999</v>
@@ -18367,7 +18367,7 @@
         <v>3.55</v>
       </c>
       <c r="K133" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="L133" t="n">
         <v>1.01</v>
@@ -18376,13 +18376,13 @@
         <v>1.01</v>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O133" t="n">
         <v>1.27</v>
       </c>
       <c r="P133" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q133" t="n">
         <v>1.87</v>
@@ -18391,13 +18391,13 @@
         <v>1.26</v>
       </c>
       <c r="S133" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T133" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U133" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V133" t="n">
         <v>1.12</v>
@@ -18520,7 +18520,7 @@
         <v>2.52</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R134" t="n">
         <v>1.62</v>
@@ -18586,13 +18586,13 @@
         <v>30</v>
       </c>
       <c r="AM134" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN134" t="n">
         <v>15</v>
       </c>
       <c r="AO134" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -18646,19 +18646,19 @@
         <v>1.08</v>
       </c>
       <c r="N135" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O135" t="n">
         <v>1.35</v>
       </c>
       <c r="P135" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R135" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S135" t="n">
         <v>3.75</v>
@@ -18721,13 +18721,13 @@
         <v>46</v>
       </c>
       <c r="AM135" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN135" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO135" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
@@ -18766,10 +18766,10 @@
         <v>5.5</v>
       </c>
       <c r="I136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J136" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K136" t="n">
         <v>10.5</v>
@@ -18787,7 +18787,7 @@
         <v>1.15</v>
       </c>
       <c r="P136" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q136" t="n">
         <v>1.62</v>
@@ -18805,7 +18805,7 @@
         <v>1.01</v>
       </c>
       <c r="V136" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W136" t="n">
         <v>2.48</v>
@@ -18895,19 +18895,19 @@
         <v>2.12</v>
       </c>
       <c r="G137" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H137" t="n">
         <v>3.45</v>
       </c>
       <c r="I137" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J137" t="n">
         <v>3.65</v>
       </c>
       <c r="K137" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L137" t="n">
         <v>1.32</v>
@@ -18916,19 +18916,19 @@
         <v>1.05</v>
       </c>
       <c r="N137" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O137" t="n">
         <v>1.24</v>
       </c>
       <c r="P137" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q137" t="n">
         <v>1.73</v>
       </c>
       <c r="R137" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S137" t="n">
         <v>2.8</v>
@@ -18943,7 +18943,7 @@
         <v>1.36</v>
       </c>
       <c r="W137" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X137" t="n">
         <v>23</v>
@@ -18958,10 +18958,10 @@
         <v>75</v>
       </c>
       <c r="AB137" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD137" t="n">
         <v>18</v>
@@ -19027,16 +19027,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H138" t="n">
         <v>2.66</v>
       </c>
       <c r="I138" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J138" t="n">
         <v>3.5</v>
@@ -19048,91 +19048,91 @@
         <v>1.32</v>
       </c>
       <c r="M138" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N138" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S138" t="n">
         <v>3.4</v>
       </c>
-      <c r="O138" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P138" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R138" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S138" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T138" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U138" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V138" t="n">
         <v>1.53</v>
       </c>
       <c r="W138" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X138" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y138" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB138" t="n">
         <v>14</v>
       </c>
-      <c r="Z138" t="n">
+      <c r="AC138" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO138" t="n">
         <v>27</v>
-      </c>
-      <c r="AA138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO138" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="139">
@@ -19195,7 +19195,7 @@
         <v>2.02</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R139" t="n">
         <v>1.4</v>
@@ -19321,13 +19321,13 @@
         <v>1.05</v>
       </c>
       <c r="N140" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O140" t="n">
         <v>1.24</v>
       </c>
       <c r="P140" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q140" t="n">
         <v>1.74</v>
@@ -19432,19 +19432,19 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G141" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H141" t="n">
         <v>2.72</v>
       </c>
       <c r="I141" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J141" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K141" t="n">
         <v>3.5</v>
@@ -19453,13 +19453,13 @@
         <v>1.37</v>
       </c>
       <c r="M141" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N141" t="n">
-        <v>1.62</v>
+        <v>2.66</v>
       </c>
       <c r="O141" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P141" t="n">
         <v>1.62</v>
@@ -19471,25 +19471,25 @@
         <v>1.21</v>
       </c>
       <c r="S141" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="T141" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U141" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="V141" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="W141" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="X141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z141" t="n">
         <v>1000</v>
@@ -19498,13 +19498,13 @@
         <v>1000</v>
       </c>
       <c r="AB141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC141" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE141" t="n">
         <v>1000</v>
@@ -19849,7 +19849,7 @@
         <v>7.8</v>
       </c>
       <c r="J144" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K144" t="n">
         <v>3.75</v>
@@ -19861,13 +19861,13 @@
         <v>1.01</v>
       </c>
       <c r="N144" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O144" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P144" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q144" t="n">
         <v>2.1</v>
@@ -20155,10 +20155,10 @@
         <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W146" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="X146" t="n">
         <v>1000</v>
@@ -20245,16 +20245,16 @@
         <v>1.76</v>
       </c>
       <c r="G147" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H147" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I147" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J147" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K147" t="n">
         <v>5.2</v>
@@ -20263,31 +20263,31 @@
         <v>1.01</v>
       </c>
       <c r="M147" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N147" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U147" t="n">
         <v>2.04</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P147" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R147" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S147" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T147" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U147" t="n">
-        <v>1.01</v>
       </c>
       <c r="V147" t="n">
         <v>1.23</v>
@@ -20380,7 +20380,7 @@
         <v>2.5</v>
       </c>
       <c r="G148" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H148" t="n">
         <v>3.1</v>
@@ -20401,16 +20401,16 @@
         <v>1.07</v>
       </c>
       <c r="N148" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O148" t="n">
         <v>1.39</v>
       </c>
       <c r="P148" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R148" t="n">
         <v>1.26</v>
@@ -20482,7 +20482,7 @@
         <v>32</v>
       </c>
       <c r="AO148" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149">
@@ -20512,22 +20512,22 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G149" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H149" t="n">
         <v>2.1</v>
       </c>
       <c r="I149" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J149" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K149" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="L149" t="n">
         <v>1.01</v>
@@ -20560,10 +20560,10 @@
         <v>1.01</v>
       </c>
       <c r="V149" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W149" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X149" t="n">
         <v>1000</v>
@@ -20794,7 +20794,7 @@
         <v>3.1</v>
       </c>
       <c r="J151" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K151" t="n">
         <v>6</v>
@@ -20815,13 +20815,13 @@
         <v>2.28</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R151" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="S151" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="T151" t="n">
         <v>1.01</v>
@@ -20920,16 +20920,16 @@
         <v>1.52</v>
       </c>
       <c r="G152" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H152" t="n">
         <v>4.6</v>
       </c>
       <c r="I152" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J152" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K152" t="n">
         <v>950</v>
@@ -20941,7 +20941,7 @@
         <v>1.03</v>
       </c>
       <c r="N152" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O152" t="n">
         <v>1.12</v>
@@ -20968,7 +20968,7 @@
         <v>1.16</v>
       </c>
       <c r="W152" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X152" t="n">
         <v>1000</v>
@@ -21124,19 +21124,19 @@
         <v>13</v>
       </c>
       <c r="AD153" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE153" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF153" t="n">
         <v>28</v>
       </c>
       <c r="AG153" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH153" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI153" t="n">
         <v>1000</v>
@@ -21145,10 +21145,10 @@
         <v>1000</v>
       </c>
       <c r="AK153" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL153" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM153" t="n">
         <v>1000</v>
@@ -21205,7 +21205,7 @@
         <v>4.2</v>
       </c>
       <c r="L154" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M154" t="n">
         <v>1.08</v>
@@ -21217,7 +21217,7 @@
         <v>1.39</v>
       </c>
       <c r="P154" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q154" t="n">
         <v>2.16</v>
@@ -21229,7 +21229,7 @@
         <v>4</v>
       </c>
       <c r="T154" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U154" t="n">
         <v>1.82</v>
@@ -21271,7 +21271,7 @@
         <v>10</v>
       </c>
       <c r="AH154" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI154" t="n">
         <v>110</v>
@@ -21325,7 +21325,7 @@
         <v>1.67</v>
       </c>
       <c r="G155" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H155" t="n">
         <v>4.8</v>
@@ -21367,13 +21367,13 @@
         <v>1.39</v>
       </c>
       <c r="U155" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V155" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W155" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X155" t="n">
         <v>1000</v>
@@ -21496,7 +21496,7 @@
         <v>1.38</v>
       </c>
       <c r="S156" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T156" t="n">
         <v>1.76</v>
@@ -21529,7 +21529,7 @@
         <v>7.6</v>
       </c>
       <c r="AD156" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE156" t="n">
         <v>40</v>
@@ -21544,7 +21544,7 @@
         <v>17</v>
       </c>
       <c r="AI156" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ156" t="n">
         <v>29</v>
@@ -21562,7 +21562,7 @@
         <v>17</v>
       </c>
       <c r="AO156" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
@@ -21604,13 +21604,13 @@
         <v>22</v>
       </c>
       <c r="J157" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K157" t="n">
         <v>7.4</v>
       </c>
       <c r="L157" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M157" t="n">
         <v>1.05</v>
@@ -21748,7 +21748,7 @@
         <v>1.43</v>
       </c>
       <c r="M158" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N158" t="n">
         <v>3.25</v>
@@ -21862,10 +21862,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G159" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H159" t="n">
         <v>6</v>
@@ -21895,13 +21895,13 @@
         <v>2.08</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R159" t="n">
         <v>1.42</v>
       </c>
       <c r="S159" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T159" t="n">
         <v>1.9</v>
@@ -21916,58 +21916,58 @@
         <v>2.5</v>
       </c>
       <c r="X159" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y159" t="n">
         <v>22</v>
       </c>
       <c r="Z159" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA159" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB159" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC159" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG159" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD159" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE159" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF159" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG159" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH159" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI159" t="n">
         <v>85</v>
       </c>
       <c r="AJ159" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK159" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL159" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM159" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN159" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO159" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -22006,7 +22006,7 @@
         <v>6.4</v>
       </c>
       <c r="I160" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J160" t="n">
         <v>3.65</v>
@@ -22018,13 +22018,13 @@
         <v>1.48</v>
       </c>
       <c r="M160" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N160" t="n">
-        <v>1.68</v>
+        <v>2.7</v>
       </c>
       <c r="O160" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P160" t="n">
         <v>1.68</v>
@@ -22033,76 +22033,76 @@
         <v>2.2</v>
       </c>
       <c r="R160" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S160" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T160" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U160" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="V160" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W160" t="n">
         <v>2.36</v>
       </c>
       <c r="X160" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y160" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z160" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA160" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB160" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AC160" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD160" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AE160" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF160" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AG160" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH160" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI160" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ160" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK160" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL160" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM160" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN160" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO160" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161">
@@ -22156,13 +22156,13 @@
         <v>1.01</v>
       </c>
       <c r="N161" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O161" t="n">
         <v>1.24</v>
       </c>
       <c r="P161" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q161" t="n">
         <v>1.8</v>
@@ -22408,7 +22408,7 @@
         <v>1.84</v>
       </c>
       <c r="H163" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I163" t="n">
         <v>5.9</v>
@@ -22435,7 +22435,7 @@
         <v>2.4</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="R163" t="n">
         <v>1.65</v>
@@ -22537,22 +22537,22 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H164" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I164" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J164" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K164" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L164" t="n">
         <v>1.01</v>
@@ -22561,19 +22561,19 @@
         <v>1.01</v>
       </c>
       <c r="N164" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O164" t="n">
         <v>1.01</v>
       </c>
       <c r="P164" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R164" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S164" t="n">
         <v>3.6</v>
@@ -22585,10 +22585,10 @@
         <v>1.01</v>
       </c>
       <c r="V164" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W164" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X164" t="n">
         <v>1000</v>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="G165" t="n">
         <v>1.77</v>
@@ -22687,7 +22687,7 @@
         <v>3.1</v>
       </c>
       <c r="K165" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L165" t="n">
         <v>1.01</v>
@@ -22819,7 +22819,7 @@
         <v>6.4</v>
       </c>
       <c r="J166" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K166" t="n">
         <v>5.2</v>
@@ -22858,7 +22858,7 @@
         <v>1.18</v>
       </c>
       <c r="W166" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="X166" t="n">
         <v>42</v>
@@ -22876,10 +22876,10 @@
         <v>15</v>
       </c>
       <c r="AC166" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AD166" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE166" t="n">
         <v>1000</v>
@@ -22897,10 +22897,10 @@
         <v>65</v>
       </c>
       <c r="AJ166" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK166" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL166" t="n">
         <v>26</v>
@@ -23077,16 +23077,16 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G168" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H168" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I168" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J168" t="n">
         <v>3.3</v>
@@ -23095,7 +23095,7 @@
         <v>3.6</v>
       </c>
       <c r="L168" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M168" t="n">
         <v>1.06</v>
@@ -23110,7 +23110,7 @@
         <v>1.64</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R168" t="n">
         <v>1.21</v>
@@ -23125,16 +23125,16 @@
         <v>1.71</v>
       </c>
       <c r="V168" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W168" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X168" t="n">
         <v>15.5</v>
       </c>
       <c r="Y168" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z168" t="n">
         <v>20</v>
@@ -23164,7 +23164,7 @@
         <v>30</v>
       </c>
       <c r="AI168" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ168" t="n">
         <v>100</v>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G169" t="n">
         <v>3.95</v>
@@ -23221,13 +23221,13 @@
         <v>2.18</v>
       </c>
       <c r="I169" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J169" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K169" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L169" t="n">
         <v>1.01</v>
@@ -23260,7 +23260,7 @@
         <v>1.01</v>
       </c>
       <c r="V169" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="W169" t="n">
         <v>1.33</v>
@@ -23482,22 +23482,22 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H171" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="J171" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K171" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L171" t="n">
         <v>1.01</v>
@@ -23506,16 +23506,16 @@
         <v>1.01</v>
       </c>
       <c r="N171" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="O171" t="n">
         <v>1.48</v>
       </c>
       <c r="P171" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="R171" t="n">
         <v>1.16</v>
@@ -23533,7 +23533,7 @@
         <v>1.42</v>
       </c>
       <c r="W171" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X171" t="n">
         <v>1000</v>
@@ -23620,13 +23620,13 @@
         <v>1.09</v>
       </c>
       <c r="G172" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H172" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="I172" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J172" t="n">
         <v>5</v>
@@ -23653,7 +23653,7 @@
         <v>1.44</v>
       </c>
       <c r="R172" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S172" t="n">
         <v>2.02</v>
@@ -23665,10 +23665,10 @@
         <v>2.04</v>
       </c>
       <c r="V172" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W172" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="X172" t="n">
         <v>1000</v>
@@ -23890,10 +23890,10 @@
         <v>2.42</v>
       </c>
       <c r="G174" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H174" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I174" t="n">
         <v>3.05</v>
@@ -23911,10 +23911,10 @@
         <v>1.04</v>
       </c>
       <c r="N174" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="O174" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P174" t="n">
         <v>2.4</v>
@@ -23923,10 +23923,10 @@
         <v>1.65</v>
       </c>
       <c r="R174" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S174" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="T174" t="n">
         <v>1.58</v>
@@ -23935,64 +23935,64 @@
         <v>2.56</v>
       </c>
       <c r="V174" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W174" t="n">
         <v>1.65</v>
       </c>
       <c r="X174" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y174" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Z174" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL174" t="n">
         <v>32</v>
       </c>
-      <c r="AA174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC174" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE174" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH174" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK174" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL174" t="n">
-        <v>44</v>
-      </c>
       <c r="AM174" t="n">
         <v>1000</v>
       </c>
       <c r="AN174" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO174" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-29.xlsx
@@ -673,106 +673,106 @@
         <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="T2" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
@@ -832,28 +832,28 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="H4" t="n">
         <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
         <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
         <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
         <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
@@ -1231,13 +1231,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
         <v>2.06</v>
@@ -1246,19 +1246,19 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
@@ -1366,16 +1366,16 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
@@ -1384,7 +1384,7 @@
         <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
         <v>2.04</v>
@@ -1393,7 +1393,7 @@
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>9.199999999999999</v>
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="G8" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.45</v>
@@ -1507,49 +1507,49 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,10 +1558,10 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1612,49 +1612,49 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="O9" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
         <v>1.56</v>
@@ -1663,7 +1663,7 @@
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X9" t="n">
         <v>10.5</v>
@@ -1672,19 +1672,19 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1696,16 +1696,16 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,10 +1750,10 @@
         <v>2.74</v>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
         <v>2.8</v>
@@ -1771,34 +1771,34 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
         <v>14.5</v>
@@ -1831,7 +1831,7 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
         <v>1.77</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="R11" t="n">
         <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.35</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
@@ -2038,82 +2038,82 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
         <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2158,10 +2158,10 @@
         <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
         <v>3.95</v>
@@ -2170,16 +2170,16 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
         <v>2.08</v>
@@ -2191,7 +2191,7 @@
         <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.8</v>
@@ -2203,7 +2203,7 @@
         <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
         <v>16.5</v>
@@ -2218,7 +2218,7 @@
         <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2248,7 +2248,7 @@
         <v>65</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>100</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2323,7 +2323,7 @@
         <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
         <v>2.44</v>
@@ -2332,28 +2332,28 @@
         <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA14" t="n">
         <v>980</v>
       </c>
-      <c r="AA14" t="n">
-        <v>32</v>
-      </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
         <v>10</v>
@@ -2362,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
         <v>980</v>
@@ -2371,28 +2371,28 @@
         <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2860,7 +2860,7 @@
         <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="R18" t="n">
         <v>1.15</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
         <v>2.5</v>
@@ -2992,7 +2992,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
         <v>1.79</v>
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G20" t="n">
         <v>1.67</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
         <v>9.199999999999999</v>
@@ -3250,7 +3250,7 @@
         <v>5.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3265,7 +3265,7 @@
         <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
         <v>1.28</v>
@@ -3370,55 +3370,55 @@
         <v>1.23</v>
       </c>
       <c r="G22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
         <v>980</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K22" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
         <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S22" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
         <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3526,13 +3526,13 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="Q23" t="n">
         <v>1.89</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
         <v>2.14</v>
@@ -3781,19 +3781,19 @@
         <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>3.25</v>
@@ -3802,16 +3802,16 @@
         <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q25" t="n">
         <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
         <v>1.04</v>
@@ -3823,7 +3823,7 @@
         <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3910,16 +3910,16 @@
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>2.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
         <v>4.7</v>
@@ -3931,7 +3931,7 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.18</v>
@@ -3940,22 +3940,22 @@
         <v>2.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R26" t="n">
         <v>1.58</v>
       </c>
       <c r="S26" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T26" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
         <v>1.4</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J28" t="n">
         <v>3.85</v>
@@ -4198,82 +4198,82 @@
         <v>1.34</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R28" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T28" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U28" t="n">
         <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W28" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
         <v>85</v>
       </c>
       <c r="AB28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG28" t="n">
         <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
         <v>980</v>
       </c>
       <c r="AJ28" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
         <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM28" t="n">
         <v>960</v>
@@ -4333,7 +4333,7 @@
         <v>1.28</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
         <v>3.45</v>
@@ -4453,7 +4453,7 @@
         <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I30" t="n">
         <v>3.3</v>
@@ -4483,10 +4483,10 @@
         <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
         <v>1.04</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J32" t="n">
         <v>3.8</v>
@@ -4747,13 +4747,13 @@
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S32" t="n">
         <v>2.62</v>
@@ -4765,10 +4765,10 @@
         <v>2.48</v>
       </c>
       <c r="V32" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W32" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X32" t="n">
         <v>25</v>
@@ -4783,7 +4783,7 @@
         <v>36</v>
       </c>
       <c r="AB32" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC32" t="n">
         <v>10.5</v>
@@ -4804,13 +4804,13 @@
         <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
         <v>65</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
         <v>44</v>
@@ -4819,7 +4819,7 @@
         <v>60</v>
       </c>
       <c r="AN32" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AO32" t="n">
         <v>15.5</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I33" t="n">
         <v>2.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4894,7 +4894,7 @@
         <v>2.38</v>
       </c>
       <c r="T33" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U33" t="n">
         <v>2.56</v>
@@ -4987,25 +4987,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G34" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5017,13 +5017,13 @@
         <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q34" t="n">
         <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S34" t="n">
         <v>2.96</v>
@@ -5032,19 +5032,19 @@
         <v>1.61</v>
       </c>
       <c r="U34" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X34" t="n">
         <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z34" t="n">
         <v>22</v>
@@ -5092,7 +5092,7 @@
         <v>22</v>
       </c>
       <c r="AO34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -5134,7 +5134,7 @@
         <v>3.65</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
@@ -5155,7 +5155,7 @@
         <v>2.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
         <v>1.42</v>
@@ -5194,7 +5194,7 @@
         <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
         <v>980</v>
@@ -5281,7 +5281,7 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O36" t="n">
         <v>1.17</v>
@@ -5290,10 +5290,10 @@
         <v>2.02</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S36" t="n">
         <v>2.54</v>
@@ -5416,10 +5416,10 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
         <v>1.96</v>
@@ -5563,10 +5563,10 @@
         <v>1.46</v>
       </c>
       <c r="R38" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S38" t="n">
-        <v>2.14</v>
+        <v>1.46</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5671,10 +5671,10 @@
         <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
         <v>4.7</v>
@@ -5683,25 +5683,25 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
         <v>3.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R39" t="n">
         <v>1.39</v>
       </c>
       <c r="S39" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T39" t="n">
         <v>1.73</v>
@@ -5803,7 +5803,7 @@
         <v>2.66</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
         <v>3.75</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G41" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H41" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
         <v>3.7</v>
@@ -5956,7 +5956,7 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O41" t="n">
         <v>1.52</v>
@@ -5983,10 +5983,10 @@
         <v>1.37</v>
       </c>
       <c r="W41" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X41" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y41" t="n">
         <v>10.5</v>
@@ -5995,22 +5995,22 @@
         <v>23</v>
       </c>
       <c r="AA41" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE41" t="n">
         <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
         <v>12</v>
@@ -6232,7 +6232,7 @@
         <v>1.02</v>
       </c>
       <c r="P43" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="Q43" t="n">
         <v>1.86</v>
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H44" t="n">
         <v>2.16</v>
       </c>
       <c r="I44" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
         <v>4.3</v>
@@ -6373,7 +6373,7 @@
         <v>1.53</v>
       </c>
       <c r="R44" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S44" t="n">
         <v>2.5</v>
@@ -6385,10 +6385,10 @@
         <v>2.46</v>
       </c>
       <c r="V44" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W44" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X44" t="n">
         <v>980</v>
@@ -6442,7 +6442,7 @@
         <v>980</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="45">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G45" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H45" t="n">
         <v>2.26</v>
@@ -6487,7 +6487,7 @@
         <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,22 +6496,22 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O45" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
         <v>2.16</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R45" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S45" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6523,7 +6523,7 @@
         <v>1.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="G46" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K46" t="n">
         <v>4.6</v>
@@ -6631,10 +6631,10 @@
         <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P46" t="n">
         <v>2.74</v>
@@ -6643,10 +6643,10 @@
         <v>1.41</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="S46" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T46" t="n">
         <v>1.36</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="W46" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6748,7 +6748,7 @@
         <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I47" t="n">
         <v>2.92</v>
@@ -6781,10 +6781,10 @@
         <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="T47" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U47" t="n">
         <v>2</v>
@@ -6793,7 +6793,7 @@
         <v>1.52</v>
       </c>
       <c r="W47" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -6832,13 +6832,13 @@
         <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="n">
         <v>44</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="n">
         <v>130</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="G50" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J50" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="K50" t="n">
         <v>980</v>
@@ -7171,22 +7171,22 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="O50" t="n">
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
@@ -7195,10 +7195,10 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W50" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G51" t="n">
         <v>2.38</v>
@@ -7291,13 +7291,13 @@
         <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7312,7 +7312,7 @@
         <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q51" t="n">
         <v>2.24</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
       <c r="G52" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="H52" t="n">
-        <v>1.09</v>
+        <v>1.96</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J52" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K52" t="n">
         <v>980</v>
@@ -7552,76 +7552,76 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="G53" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K53" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="O53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V53" t="n">
         <v>1.25</v>
       </c>
-      <c r="P53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W53" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="X53" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y53" t="n">
         <v>15.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC53" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD53" t="n">
         <v>24</v>
@@ -7630,31 +7630,31 @@
         <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG53" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM53" t="n">
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G54" t="n">
         <v>3.05</v>
@@ -7720,13 +7720,13 @@
         <v>2.26</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R54" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S54" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T54" t="n">
         <v>1.04</v>
@@ -7825,28 +7825,28 @@
         <v>6.8</v>
       </c>
       <c r="G55" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H55" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K55" t="n">
         <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O55" t="n">
         <v>1.39</v>
@@ -7855,13 +7855,13 @@
         <v>1.51</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R55" t="n">
         <v>1.18</v>
       </c>
       <c r="S55" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T55" t="n">
         <v>1.01</v>
@@ -7870,7 +7870,7 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="W55" t="n">
         <v>1.13</v>
@@ -8059,7 +8059,7 @@
         <v>90</v>
       </c>
       <c r="AN56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO56" t="n">
         <v>55</v>
@@ -8095,10 +8095,10 @@
         <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H57" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I57" t="n">
         <v>2.38</v>
@@ -8173,7 +8173,7 @@
         <v>980</v>
       </c>
       <c r="AG57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH57" t="n">
         <v>980</v>
@@ -8182,19 +8182,19 @@
         <v>980</v>
       </c>
       <c r="AJ57" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK57" t="n">
         <v>980</v>
       </c>
       <c r="AL57" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM57" t="n">
         <v>110</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G58" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I58" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J58" t="n">
         <v>4</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.9</v>
       </c>
       <c r="K58" t="n">
         <v>4.3</v>
@@ -8248,43 +8248,43 @@
         <v>1.28</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O58" t="n">
         <v>1.21</v>
       </c>
       <c r="P58" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R58" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S58" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T58" t="n">
         <v>1.6</v>
       </c>
       <c r="U58" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V58" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W58" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X58" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y58" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="n">
         <v>980</v>
@@ -8293,31 +8293,31 @@
         <v>70</v>
       </c>
       <c r="AB58" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD58" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE58" t="n">
         <v>980</v>
       </c>
       <c r="AF58" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI58" t="n">
         <v>980</v>
       </c>
       <c r="AJ58" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK58" t="n">
         <v>980</v>
@@ -8329,7 +8329,7 @@
         <v>65</v>
       </c>
       <c r="AN58" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G59" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H59" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="I59" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J59" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K59" t="n">
         <v>980</v>
@@ -8392,16 +8392,16 @@
         <v>1.23</v>
       </c>
       <c r="P59" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R59" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S59" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T59" t="n">
         <v>1.04</v>
@@ -8410,10 +8410,10 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W59" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8638,46 +8638,46 @@
         <v>3.1</v>
       </c>
       <c r="H61" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I61" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J61" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
         <v>3.35</v>
       </c>
       <c r="L61" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M61" t="n">
         <v>1.09</v>
       </c>
       <c r="N61" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O61" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P61" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R61" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S61" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T61" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U61" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V61" t="n">
         <v>1.54</v>
@@ -8686,25 +8686,25 @@
         <v>1.48</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AA61" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB61" t="n">
         <v>11</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE61" t="n">
         <v>980</v>
@@ -8716,10 +8716,10 @@
         <v>14</v>
       </c>
       <c r="AH61" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ61" t="n">
         <v>55</v>
@@ -8728,13 +8728,13 @@
         <v>980</v>
       </c>
       <c r="AL61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM61" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN61" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AO61" t="n">
         <v>980</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="G62" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I62" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J62" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K62" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
         <v>1.38</v>
@@ -8791,88 +8791,88 @@
         <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O62" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P62" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R62" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S62" t="n">
         <v>3.15</v>
       </c>
       <c r="T62" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U62" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V62" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W62" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="X62" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z62" t="n">
         <v>34</v>
       </c>
       <c r="AA62" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB62" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD62" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE62" t="n">
         <v>55</v>
       </c>
       <c r="AF62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH62" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI62" t="n">
         <v>60</v>
       </c>
       <c r="AJ62" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AK62" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AL62" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM62" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN62" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -8905,19 +8905,19 @@
         <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H63" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J63" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K63" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8926,34 +8926,34 @@
         <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O63" t="n">
         <v>1.37</v>
       </c>
       <c r="P63" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q63" t="n">
         <v>2.06</v>
       </c>
       <c r="R63" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S63" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="T63" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U63" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W63" t="n">
         <v>1.79</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1.81</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G64" t="n">
         <v>1.57</v>
@@ -9070,13 +9070,13 @@
         <v>2.2</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R64" t="n">
         <v>1.47</v>
       </c>
       <c r="S64" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T64" t="n">
         <v>1.87</v>
@@ -9091,10 +9091,10 @@
         <v>2.74</v>
       </c>
       <c r="X64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y64" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z64" t="n">
         <v>65</v>
@@ -9103,22 +9103,22 @@
         <v>250</v>
       </c>
       <c r="AB64" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC64" t="n">
         <v>12.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE64" t="n">
         <v>120</v>
       </c>
       <c r="AF64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG64" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH64" t="n">
         <v>27</v>
@@ -9127,19 +9127,19 @@
         <v>110</v>
       </c>
       <c r="AJ64" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AK64" t="n">
         <v>19</v>
       </c>
       <c r="AL64" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM64" t="n">
         <v>140</v>
       </c>
       <c r="AN64" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO64" t="n">
         <v>140</v>
@@ -9178,16 +9178,16 @@
         <v>2.18</v>
       </c>
       <c r="H65" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I65" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J65" t="n">
         <v>3.1</v>
       </c>
       <c r="K65" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L65" t="n">
         <v>1.61</v>
@@ -9220,10 +9220,10 @@
         <v>1.7</v>
       </c>
       <c r="V65" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W65" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X65" t="n">
         <v>7.8</v>
@@ -9271,7 +9271,7 @@
         <v>70</v>
       </c>
       <c r="AM65" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AN65" t="n">
         <v>32</v>
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G66" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -9349,7 +9349,7 @@
         <v>4.7</v>
       </c>
       <c r="T66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>1.96</v>
@@ -9361,7 +9361,7 @@
         <v>1.53</v>
       </c>
       <c r="X66" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y66" t="n">
         <v>9.4</v>
@@ -9394,7 +9394,7 @@
         <v>20</v>
       </c>
       <c r="AI66" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ66" t="n">
         <v>46</v>
@@ -9406,7 +9406,7 @@
         <v>60</v>
       </c>
       <c r="AM66" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN66" t="n">
         <v>40</v>
@@ -9445,7 +9445,7 @@
         <v>1.96</v>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H67" t="n">
         <v>3.2</v>
@@ -9454,7 +9454,7 @@
         <v>4.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K67" t="n">
         <v>5.7</v>
@@ -9466,10 +9466,10 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>2.32</v>
+        <v>4.3</v>
       </c>
       <c r="O67" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P67" t="n">
         <v>2.24</v>
@@ -9493,7 +9493,7 @@
         <v>1.31</v>
       </c>
       <c r="W67" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9595,16 +9595,16 @@
         <v>4.1</v>
       </c>
       <c r="L68" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
         <v>3.4</v>
       </c>
       <c r="O68" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P68" t="n">
         <v>1.86</v>
@@ -9622,7 +9622,7 @@
         <v>1.9</v>
       </c>
       <c r="U68" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V68" t="n">
         <v>1.18</v>
@@ -9631,7 +9631,7 @@
         <v>2.2</v>
       </c>
       <c r="X68" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y68" t="n">
         <v>980</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G69" t="n">
         <v>2.88</v>
       </c>
       <c r="H69" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I69" t="n">
         <v>3.65</v>
       </c>
       <c r="J69" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9745,13 +9745,13 @@
         <v>2.12</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="R69" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S69" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9850,7 +9850,7 @@
         <v>2.5</v>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H70" t="n">
         <v>2.82</v>
@@ -9859,7 +9859,7 @@
         <v>3.2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K70" t="n">
         <v>3.7</v>
@@ -9880,25 +9880,25 @@
         <v>1.84</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R70" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S70" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T70" t="n">
-        <v>1.06</v>
+        <v>1.64</v>
       </c>
       <c r="U70" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="V70" t="n">
         <v>1.45</v>
       </c>
       <c r="W70" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9985,7 +9985,7 @@
         <v>2.22</v>
       </c>
       <c r="G71" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H71" t="n">
         <v>3.8</v>
@@ -10006,13 +10006,13 @@
         <v>1.1</v>
       </c>
       <c r="N71" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O71" t="n">
         <v>1.45</v>
       </c>
       <c r="P71" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q71" t="n">
         <v>2.34</v>
@@ -10024,16 +10024,16 @@
         <v>4.5</v>
       </c>
       <c r="T71" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U71" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V71" t="n">
         <v>1.32</v>
       </c>
       <c r="W71" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X71" t="n">
         <v>12.5</v>
@@ -10120,7 +10120,7 @@
         <v>1.35</v>
       </c>
       <c r="G72" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H72" t="n">
         <v>6.6</v>
@@ -10138,7 +10138,7 @@
         <v>1.01</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N72" t="n">
         <v>3.75</v>
@@ -10147,16 +10147,16 @@
         <v>1.19</v>
       </c>
       <c r="P72" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R72" t="n">
         <v>1.39</v>
       </c>
       <c r="S72" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T72" t="n">
         <v>1.04</v>
@@ -10168,7 +10168,7 @@
         <v>1.09</v>
       </c>
       <c r="W72" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10252,28 +10252,28 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H73" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I73" t="n">
         <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K73" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L73" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M73" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
         <v>3.95</v>
@@ -10282,16 +10282,16 @@
         <v>1.27</v>
       </c>
       <c r="P73" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R73" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S73" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="T73" t="n">
         <v>1.04</v>
@@ -10303,7 +10303,7 @@
         <v>1.33</v>
       </c>
       <c r="W73" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10387,46 +10387,46 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G74" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I74" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J74" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K74" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L74" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O74" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R74" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S74" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T74" t="n">
         <v>1.01</v>
@@ -10438,7 +10438,7 @@
         <v>1.24</v>
       </c>
       <c r="W74" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G75" t="n">
         <v>3.8</v>
@@ -10531,13 +10531,13 @@
         <v>2.4</v>
       </c>
       <c r="I75" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J75" t="n">
         <v>2.9</v>
       </c>
       <c r="K75" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -10555,28 +10555,28 @@
         <v>1.52</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="R75" t="n">
         <v>1.19</v>
       </c>
       <c r="S75" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T75" t="n">
         <v>2.04</v>
       </c>
       <c r="U75" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V75" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W75" t="n">
         <v>1.36</v>
       </c>
       <c r="X75" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y75" t="n">
         <v>1000</v>
@@ -10657,13 +10657,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H76" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I76" t="n">
         <v>5.8</v>
@@ -10675,7 +10675,7 @@
         <v>4.3</v>
       </c>
       <c r="L76" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M76" t="n">
         <v>1.07</v>
@@ -10687,10 +10687,10 @@
         <v>1.33</v>
       </c>
       <c r="P76" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R76" t="n">
         <v>1.37</v>
@@ -10705,10 +10705,10 @@
         <v>1.98</v>
       </c>
       <c r="V76" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W76" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X76" t="n">
         <v>14.5</v>
@@ -10720,10 +10720,10 @@
         <v>44</v>
       </c>
       <c r="AA76" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC76" t="n">
         <v>8.800000000000001</v>
@@ -10756,7 +10756,7 @@
         <v>36</v>
       </c>
       <c r="AM76" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN76" t="n">
         <v>11</v>
@@ -10792,19 +10792,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G77" t="n">
         <v>1.13</v>
       </c>
       <c r="H77" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I77" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J77" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="K77" t="n">
         <v>13</v>
@@ -10828,22 +10828,22 @@
         <v>1.28</v>
       </c>
       <c r="R77" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="S77" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T77" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U77" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V77" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W77" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="X77" t="n">
         <v>990</v>
@@ -10885,7 +10885,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK77" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL77" t="n">
         <v>42</v>
@@ -10933,7 +10933,7 @@
         <v>2.36</v>
       </c>
       <c r="H78" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I78" t="n">
         <v>3.15</v>
@@ -10945,13 +10945,13 @@
         <v>3.95</v>
       </c>
       <c r="L78" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O78" t="n">
         <v>1.19</v>
@@ -10960,7 +10960,7 @@
         <v>2.58</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R78" t="n">
         <v>1.65</v>
@@ -10984,7 +10984,7 @@
         <v>23</v>
       </c>
       <c r="Y78" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z78" t="n">
         <v>25</v>
@@ -10993,7 +10993,7 @@
         <v>48</v>
       </c>
       <c r="AB78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC78" t="n">
         <v>9.4</v>
@@ -11029,10 +11029,10 @@
         <v>55</v>
       </c>
       <c r="AN78" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO78" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="79">
@@ -11074,7 +11074,7 @@
         <v>5.1</v>
       </c>
       <c r="J79" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K79" t="n">
         <v>4.6</v>
@@ -11092,19 +11092,19 @@
         <v>1.19</v>
       </c>
       <c r="P79" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R79" t="n">
         <v>1.64</v>
       </c>
       <c r="S79" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T79" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U79" t="n">
         <v>2.46</v>
@@ -11113,19 +11113,19 @@
         <v>1.24</v>
       </c>
       <c r="W79" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X79" t="n">
         <v>25</v>
       </c>
       <c r="Y79" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z79" t="n">
         <v>44</v>
       </c>
       <c r="AA79" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB79" t="n">
         <v>12.5</v>
@@ -11164,7 +11164,7 @@
         <v>70</v>
       </c>
       <c r="AN79" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO79" t="n">
         <v>42</v>
@@ -11200,7 +11200,7 @@
         <v>1.29</v>
       </c>
       <c r="G80" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H80" t="n">
         <v>9.4</v>
@@ -11215,7 +11215,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L80" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="M80" t="n">
         <v>1.01</v>
@@ -11230,16 +11230,16 @@
         <v>3.8</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R80" t="n">
         <v>2.14</v>
       </c>
       <c r="S80" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T80" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U80" t="n">
         <v>2.28</v>
@@ -11251,31 +11251,31 @@
         <v>3.95</v>
       </c>
       <c r="X80" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y80" t="n">
         <v>70</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>65</v>
       </c>
       <c r="Z80" t="n">
         <v>140</v>
       </c>
       <c r="AA80" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB80" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC80" t="n">
         <v>20</v>
       </c>
       <c r="AD80" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE80" t="n">
         <v>140</v>
       </c>
       <c r="AF80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG80" t="n">
         <v>13.5</v>
@@ -11287,10 +11287,10 @@
         <v>85</v>
       </c>
       <c r="AJ80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK80" t="n">
         <v>14</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>14.5</v>
       </c>
       <c r="AL80" t="n">
         <v>27</v>
@@ -11299,7 +11299,7 @@
         <v>80</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO80" t="n">
         <v>100</v>
@@ -11332,16 +11332,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G81" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H81" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I81" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J81" t="n">
         <v>3.65</v>
@@ -11374,16 +11374,16 @@
         <v>3.05</v>
       </c>
       <c r="T81" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U81" t="n">
         <v>2.24</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W81" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X81" t="n">
         <v>16.5</v>
@@ -11425,16 +11425,16 @@
         <v>75</v>
       </c>
       <c r="AK81" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL81" t="n">
         <v>980</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>50</v>
       </c>
       <c r="AM81" t="n">
         <v>85</v>
       </c>
       <c r="AN81" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO81" t="n">
         <v>15</v>
@@ -11536,7 +11536,7 @@
         <v>16</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD82" t="n">
         <v>13</v>
@@ -11557,13 +11557,13 @@
         <v>980</v>
       </c>
       <c r="AJ82" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AK82" t="n">
         <v>60</v>
       </c>
       <c r="AL82" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM82" t="n">
         <v>130</v>
@@ -11611,7 +11611,7 @@
         <v>14</v>
       </c>
       <c r="I83" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J83" t="n">
         <v>7</v>
@@ -11620,7 +11620,7 @@
         <v>7.2</v>
       </c>
       <c r="L83" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
@@ -11674,7 +11674,7 @@
         <v>15.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE83" t="n">
         <v>240</v>
@@ -11698,13 +11698,13 @@
         <v>13</v>
       </c>
       <c r="AL83" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM83" t="n">
         <v>180</v>
       </c>
       <c r="AN83" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO83" t="n">
         <v>250</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G84" t="n">
         <v>1.51</v>
@@ -11746,7 +11746,7 @@
         <v>7.8</v>
       </c>
       <c r="I84" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J84" t="n">
         <v>4.8</v>
@@ -11788,13 +11788,13 @@
         <v>1.14</v>
       </c>
       <c r="W84" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="X84" t="n">
         <v>17</v>
       </c>
       <c r="Y84" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z84" t="n">
         <v>70</v>
@@ -11827,7 +11827,7 @@
         <v>110</v>
       </c>
       <c r="AJ84" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK84" t="n">
         <v>15.5</v>
@@ -11842,7 +11842,7 @@
         <v>7.4</v>
       </c>
       <c r="AO84" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G85" t="n">
         <v>3.3</v>
@@ -11890,7 +11890,7 @@
         <v>3.55</v>
       </c>
       <c r="L85" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M85" t="n">
         <v>1.08</v>
@@ -11914,16 +11914,16 @@
         <v>3.65</v>
       </c>
       <c r="T85" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U85" t="n">
         <v>2.14</v>
       </c>
       <c r="V85" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W85" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X85" t="n">
         <v>12.5</v>
@@ -12016,10 +12016,10 @@
         <v>5.5</v>
       </c>
       <c r="I86" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="J86" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K86" t="n">
         <v>9.199999999999999</v>
@@ -12055,7 +12055,7 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W86" t="n">
         <v>2.58</v>
@@ -12211,7 +12211,7 @@
         <v>980</v>
       </c>
       <c r="AC87" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD87" t="n">
         <v>980</v>
@@ -12238,7 +12238,7 @@
         <v>980</v>
       </c>
       <c r="AL87" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM87" t="n">
         <v>130</v>
@@ -12307,13 +12307,13 @@
         <v>1.19</v>
       </c>
       <c r="P88" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q88" t="n">
         <v>1.69</v>
       </c>
       <c r="R88" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S88" t="n">
         <v>2.62</v>
@@ -12379,7 +12379,7 @@
         <v>1000</v>
       </c>
       <c r="AN88" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO88" t="n">
         <v>980</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G89" t="n">
         <v>2.1</v>
@@ -12451,7 +12451,7 @@
         <v>1.54</v>
       </c>
       <c r="S89" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T89" t="n">
         <v>1.01</v>
@@ -12547,47 +12547,47 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="G90" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="H90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K90" t="n">
+        <v>6</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S90" t="n">
         <v>3.2</v>
       </c>
-      <c r="I90" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S90" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T90" t="n">
         <v>1.01</v>
       </c>
@@ -12595,10 +12595,10 @@
         <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W90" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12688,16 +12688,16 @@
         <v>2.7</v>
       </c>
       <c r="H91" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I91" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J91" t="n">
         <v>3.35</v>
       </c>
       <c r="K91" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
@@ -12715,7 +12715,7 @@
         <v>2.16</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R91" t="n">
         <v>1.48</v>
@@ -12730,7 +12730,7 @@
         <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W91" t="n">
         <v>1.59</v>
@@ -12832,7 +12832,7 @@
         <v>5.5</v>
       </c>
       <c r="K92" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12889,7 +12889,7 @@
         <v>980</v>
       </c>
       <c r="AD92" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AE92" t="n">
         <v>1000</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G93" t="n">
         <v>2.5</v>
@@ -12961,7 +12961,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J93" t="n">
         <v>3.45</v>
@@ -12982,7 +12982,7 @@
         <v>1.26</v>
       </c>
       <c r="P93" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q93" t="n">
         <v>1.75</v>
@@ -12991,7 +12991,7 @@
         <v>1.42</v>
       </c>
       <c r="S93" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="T93" t="n">
         <v>1.63</v>
@@ -13000,10 +13000,10 @@
         <v>2.24</v>
       </c>
       <c r="V93" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W93" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X93" t="n">
         <v>22</v>
@@ -13096,7 +13096,7 @@
         <v>4.9</v>
       </c>
       <c r="I94" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="J94" t="n">
         <v>3.7</v>
@@ -13108,91 +13108,91 @@
         <v>1.31</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O94" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P94" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="R94" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S94" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="T94" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U94" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V94" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W94" t="n">
         <v>2.16</v>
       </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
@@ -13246,16 +13246,16 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O95" t="n">
         <v>1.01</v>
       </c>
       <c r="P95" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R95" t="n">
         <v>1.71</v>
@@ -13366,16 +13366,16 @@
         <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
         <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L96" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M96" t="n">
         <v>1.01</v>
@@ -13384,16 +13384,16 @@
         <v>3</v>
       </c>
       <c r="O96" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P96" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q96" t="n">
         <v>1.85</v>
       </c>
       <c r="R96" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S96" t="n">
         <v>3</v>
@@ -13405,7 +13405,7 @@
         <v>1.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W96" t="n">
         <v>1.65</v>
@@ -13552,7 +13552,7 @@
         <v>11</v>
       </c>
       <c r="Z97" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA97" t="n">
         <v>38</v>
@@ -13627,13 +13627,13 @@
         </is>
       </c>
       <c r="F98" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G98" t="n">
         <v>1.22</v>
       </c>
-      <c r="G98" t="n">
-        <v>1.23</v>
-      </c>
       <c r="H98" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I98" t="n">
         <v>17</v>
@@ -13642,7 +13642,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L98" t="n">
         <v>1.18</v>
@@ -13660,16 +13660,16 @@
         <v>3.3</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R98" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S98" t="n">
         <v>2</v>
       </c>
       <c r="T98" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U98" t="n">
         <v>1.97</v>
@@ -13678,7 +13678,7 @@
         <v>1.06</v>
       </c>
       <c r="W98" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X98" t="n">
         <v>42</v>
@@ -13696,10 +13696,10 @@
         <v>13.5</v>
       </c>
       <c r="AC98" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD98" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE98" t="n">
         <v>270</v>
@@ -13723,13 +13723,13 @@
         <v>13</v>
       </c>
       <c r="AL98" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM98" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO98" t="n">
         <v>290</v>
@@ -13762,19 +13762,19 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G99" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I99" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K99" t="n">
         <v>3.3</v>
@@ -13792,13 +13792,13 @@
         <v>1.44</v>
       </c>
       <c r="P99" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R99" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S99" t="n">
         <v>4.4</v>
@@ -13810,7 +13810,7 @@
         <v>1.95</v>
       </c>
       <c r="V99" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W99" t="n">
         <v>1.52</v>
@@ -13924,7 +13924,7 @@
         <v>2.52</v>
       </c>
       <c r="O100" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="P100" t="n">
         <v>1.81</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G101" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H101" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I101" t="n">
         <v>3.35</v>
       </c>
       <c r="J101" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K101" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L101" t="n">
         <v>1.53</v>
@@ -14062,28 +14062,28 @@
         <v>1.46</v>
       </c>
       <c r="P101" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R101" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S101" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T101" t="n">
         <v>1.95</v>
       </c>
       <c r="U101" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V101" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W101" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X101" t="n">
         <v>12</v>
@@ -14101,7 +14101,7 @@
         <v>9</v>
       </c>
       <c r="AC101" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD101" t="n">
         <v>15.5</v>
@@ -14116,10 +14116,10 @@
         <v>13</v>
       </c>
       <c r="AH101" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI101" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ101" t="n">
         <v>980</v>
@@ -14137,7 +14137,7 @@
         <v>980</v>
       </c>
       <c r="AO101" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102">
@@ -14167,19 +14167,19 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G102" t="n">
         <v>4.2</v>
       </c>
       <c r="H102" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I102" t="n">
         <v>2.24</v>
       </c>
       <c r="J102" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K102" t="n">
         <v>3.55</v>
@@ -14197,13 +14197,13 @@
         <v>1.41</v>
       </c>
       <c r="P102" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q102" t="n">
         <v>2.22</v>
       </c>
       <c r="R102" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S102" t="n">
         <v>4.1</v>
@@ -14218,19 +14218,19 @@
         <v>1.8</v>
       </c>
       <c r="W102" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X102" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y102" t="n">
         <v>8.6</v>
       </c>
       <c r="Z102" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA102" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB102" t="n">
         <v>13</v>
@@ -14239,7 +14239,7 @@
         <v>8</v>
       </c>
       <c r="AD102" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE102" t="n">
         <v>980</v>
@@ -14248,10 +14248,10 @@
         <v>980</v>
       </c>
       <c r="AG102" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH102" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI102" t="n">
         <v>980</v>
@@ -14260,16 +14260,16 @@
         <v>95</v>
       </c>
       <c r="AK102" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL102" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM102" t="n">
         <v>160</v>
       </c>
       <c r="AN102" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO102" t="n">
         <v>24</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G103" t="n">
         <v>1.79</v>
@@ -14311,7 +14311,7 @@
         <v>5.1</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J103" t="n">
         <v>3.65</v>
@@ -14320,7 +14320,7 @@
         <v>980</v>
       </c>
       <c r="L103" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M103" t="n">
         <v>1.01</v>
@@ -14329,19 +14329,19 @@
         <v>3.15</v>
       </c>
       <c r="O103" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P103" t="n">
         <v>1.81</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="R103" t="n">
         <v>1.29</v>
       </c>
       <c r="S103" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="T103" t="n">
         <v>1.01</v>
@@ -14437,64 +14437,64 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G104" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H104" t="n">
         <v>1.31</v>
       </c>
       <c r="I104" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J104" t="n">
         <v>4.7</v>
       </c>
       <c r="K104" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>
       </c>
       <c r="M104" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="O104" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P104" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="R104" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S104" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="T104" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U104" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V104" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="W104" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X104" t="n">
         <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z104" t="n">
         <v>1000</v>
@@ -14542,7 +14542,7 @@
         <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G105" t="n">
         <v>2.52</v>
       </c>
       <c r="H105" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J105" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L105" t="n">
         <v>1.01</v>
@@ -14596,34 +14596,34 @@
         <v>1.05</v>
       </c>
       <c r="N105" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O105" t="n">
         <v>1.23</v>
       </c>
       <c r="P105" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q105" t="n">
         <v>1.73</v>
       </c>
       <c r="R105" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S105" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="T105" t="n">
         <v>1.62</v>
       </c>
       <c r="U105" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V105" t="n">
         <v>1.47</v>
       </c>
       <c r="W105" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X105" t="n">
         <v>23</v>
@@ -14638,7 +14638,7 @@
         <v>60</v>
       </c>
       <c r="AB105" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC105" t="n">
         <v>11</v>
@@ -14677,7 +14677,7 @@
         <v>19.5</v>
       </c>
       <c r="AO105" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
@@ -14743,13 +14743,13 @@
         <v>1.01</v>
       </c>
       <c r="R106" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S106" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T106" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U106" t="n">
         <v>1.01</v>
@@ -14845,19 +14845,19 @@
         <v>2.64</v>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H107" t="n">
-        <v>2.52</v>
+        <v>1.09</v>
       </c>
       <c r="I107" t="n">
         <v>3.35</v>
       </c>
       <c r="J107" t="n">
-        <v>1.09</v>
+        <v>2.64</v>
       </c>
       <c r="K107" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L107" t="n">
         <v>1.42</v>
@@ -14866,13 +14866,13 @@
         <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="O107" t="n">
         <v>1.34</v>
       </c>
       <c r="P107" t="n">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="Q107" t="n">
         <v>2.02</v>
@@ -14890,10 +14890,10 @@
         <v>1.93</v>
       </c>
       <c r="V107" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W107" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X107" t="n">
         <v>18.5</v>
@@ -15115,19 +15115,19 @@
         <v>1.45</v>
       </c>
       <c r="G109" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H109" t="n">
         <v>7</v>
       </c>
       <c r="I109" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J109" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K109" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
@@ -15145,31 +15145,31 @@
         <v>2.18</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R109" t="n">
         <v>1.47</v>
       </c>
       <c r="S109" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T109" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U109" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V109" t="n">
         <v>1.11</v>
       </c>
       <c r="W109" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X109" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y109" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z109" t="n">
         <v>1000</v>
@@ -15253,19 +15253,19 @@
         <v>5.7</v>
       </c>
       <c r="H110" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I110" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J110" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K110" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L110" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="M110" t="n">
         <v>1.02</v>
@@ -15277,13 +15277,13 @@
         <v>1.15</v>
       </c>
       <c r="P110" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R110" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S110" t="n">
         <v>2.14</v>
@@ -15295,7 +15295,7 @@
         <v>2.64</v>
       </c>
       <c r="V110" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="W110" t="n">
         <v>1.21</v>
@@ -15310,7 +15310,7 @@
         <v>13</v>
       </c>
       <c r="AA110" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB110" t="n">
         <v>32</v>
@@ -15322,7 +15322,7 @@
         <v>10.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF110" t="n">
         <v>55</v>
@@ -15337,7 +15337,7 @@
         <v>23</v>
       </c>
       <c r="AJ110" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK110" t="n">
         <v>55</v>
@@ -15385,16 +15385,16 @@
         <v>1.65</v>
       </c>
       <c r="G111" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H111" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I111" t="n">
         <v>6.4</v>
       </c>
       <c r="J111" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K111" t="n">
         <v>4.3</v>
@@ -15415,7 +15415,7 @@
         <v>1.81</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R111" t="n">
         <v>1.28</v>
@@ -15424,22 +15424,22 @@
         <v>3.55</v>
       </c>
       <c r="T111" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U111" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V111" t="n">
         <v>1.18</v>
       </c>
       <c r="W111" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X111" t="n">
         <v>1000</v>
       </c>
       <c r="Y111" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z111" t="n">
         <v>70</v>
@@ -15472,10 +15472,10 @@
         <v>1000</v>
       </c>
       <c r="AJ111" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK111" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL111" t="n">
         <v>60</v>
@@ -15517,31 +15517,31 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G112" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H112" t="n">
         <v>2.86</v>
       </c>
       <c r="I112" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J112" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K112" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N112" t="n">
-        <v>1.86</v>
+        <v>3.45</v>
       </c>
       <c r="O112" t="n">
         <v>1.34</v>
@@ -15550,79 +15550,79 @@
         <v>1.86</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R112" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S112" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T112" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U112" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V112" t="n">
         <v>1.46</v>
       </c>
       <c r="W112" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X112" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD112" t="n">
         <v>14</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>18.5</v>
       </c>
       <c r="AE112" t="n">
         <v>980</v>
       </c>
       <c r="AF112" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG112" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AH112" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI112" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ112" t="n">
         <v>980</v>
       </c>
       <c r="AK112" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AL112" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM112" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN112" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO112" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G113" t="n">
         <v>2.94</v>
@@ -15664,19 +15664,19 @@
         <v>3.15</v>
       </c>
       <c r="J113" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
         <v>3.35</v>
       </c>
       <c r="L113" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="M113" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N113" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O113" t="n">
         <v>1.45</v>
@@ -15685,7 +15685,7 @@
         <v>1.62</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R113" t="n">
         <v>1.24</v>
@@ -15721,7 +15721,7 @@
         <v>11</v>
       </c>
       <c r="AC113" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD113" t="n">
         <v>16.5</v>
@@ -15787,13 +15787,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G114" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H114" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I114" t="n">
         <v>3.4</v>
@@ -15805,49 +15805,49 @@
         <v>3.3</v>
       </c>
       <c r="L114" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M114" t="n">
         <v>1.1</v>
       </c>
       <c r="N114" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O114" t="n">
         <v>1.46</v>
       </c>
       <c r="P114" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R114" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S114" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T114" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="U114" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V114" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W114" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X114" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z114" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA114" t="n">
         <v>65</v>
@@ -15859,22 +15859,22 @@
         <v>7.6</v>
       </c>
       <c r="AD114" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE114" t="n">
         <v>980</v>
       </c>
       <c r="AF114" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG114" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH114" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI114" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ114" t="n">
         <v>980</v>
@@ -16084,7 +16084,7 @@
         <v>1.01</v>
       </c>
       <c r="O116" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="P116" t="n">
         <v>1.82</v>
@@ -16093,7 +16093,7 @@
         <v>1.76</v>
       </c>
       <c r="R116" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S116" t="n">
         <v>1.76</v>
@@ -16192,13 +16192,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H117" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>3.45</v>
@@ -16228,13 +16228,13 @@
         <v>2.22</v>
       </c>
       <c r="R117" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S117" t="n">
         <v>3.6</v>
       </c>
       <c r="T117" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U117" t="n">
         <v>1.86</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G118" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H118" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I118" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J118" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K118" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L118" t="n">
         <v>1.01</v>
@@ -16351,22 +16351,22 @@
         <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="O118" t="n">
         <v>1.25</v>
       </c>
       <c r="P118" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R118" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S118" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="T118" t="n">
         <v>1.01</v>
@@ -16378,7 +16378,7 @@
         <v>1.11</v>
       </c>
       <c r="W118" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X118" t="n">
         <v>1000</v>
@@ -16462,16 +16462,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G119" t="n">
         <v>3.55</v>
       </c>
       <c r="H119" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I119" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J119" t="n">
         <v>3.55</v>
@@ -16501,7 +16501,7 @@
         <v>1.41</v>
       </c>
       <c r="S119" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T119" t="n">
         <v>1.69</v>
@@ -16510,7 +16510,7 @@
         <v>2.26</v>
       </c>
       <c r="V119" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W119" t="n">
         <v>1.39</v>
@@ -16597,22 +16597,22 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G120" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H120" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I120" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J120" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K120" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>
@@ -16630,7 +16630,7 @@
         <v>2.2</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R120" t="n">
         <v>1.48</v>
@@ -16639,58 +16639,58 @@
         <v>2.84</v>
       </c>
       <c r="T120" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="U120" t="n">
         <v>2.16</v>
       </c>
       <c r="V120" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W120" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X120" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y120" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z120" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA120" t="n">
         <v>140</v>
       </c>
       <c r="AB120" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC120" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD120" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE120" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF120" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG120" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH120" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI120" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ120" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK120" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL120" t="n">
         <v>980</v>
@@ -16735,7 +16735,7 @@
         <v>1.91</v>
       </c>
       <c r="G121" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>3.25</v>
@@ -16744,7 +16744,7 @@
         <v>4.1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K121" t="n">
         <v>5.9</v>
@@ -16762,10 +16762,10 @@
         <v>1.16</v>
       </c>
       <c r="P121" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="R121" t="n">
         <v>1.18</v>
@@ -16783,7 +16783,7 @@
         <v>1.32</v>
       </c>
       <c r="W121" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X121" t="n">
         <v>1000</v>
@@ -16891,22 +16891,22 @@
         <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O122" t="n">
         <v>1.25</v>
       </c>
       <c r="P122" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R122" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S122" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T122" t="n">
         <v>1.66</v>
@@ -17014,10 +17014,10 @@
         <v>12</v>
       </c>
       <c r="J123" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K123" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L123" t="n">
         <v>1.39</v>
@@ -17068,16 +17068,16 @@
         <v>680</v>
       </c>
       <c r="AB123" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC123" t="n">
         <v>12</v>
       </c>
       <c r="AD123" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE123" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AF123" t="n">
         <v>6.8</v>
@@ -17137,22 +17137,22 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G124" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I124" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J124" t="n">
         <v>3.85</v>
       </c>
       <c r="K124" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L124" t="n">
         <v>1.01</v>
@@ -17161,7 +17161,7 @@
         <v>1.01</v>
       </c>
       <c r="N124" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O124" t="n">
         <v>1.01</v>
@@ -17170,19 +17170,19 @@
         <v>2.12</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R124" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S124" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T124" t="n">
         <v>1.63</v>
       </c>
       <c r="U124" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V124" t="n">
         <v>2.26</v>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G125" t="n">
         <v>1.24</v>
@@ -17281,7 +17281,7 @@
         <v>17.5</v>
       </c>
       <c r="I125" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J125" t="n">
         <v>7.4</v>
@@ -17308,19 +17308,19 @@
         <v>1.51</v>
       </c>
       <c r="R125" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S125" t="n">
         <v>2.28</v>
       </c>
       <c r="T125" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U125" t="n">
         <v>1.65</v>
       </c>
       <c r="V125" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W125" t="n">
         <v>5.2</v>
@@ -17683,7 +17683,7 @@
         <v>3.75</v>
       </c>
       <c r="H128" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I128" t="n">
         <v>2.28</v>
@@ -17692,10 +17692,10 @@
         <v>3.45</v>
       </c>
       <c r="K128" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L128" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M128" t="n">
         <v>1.09</v>
@@ -17737,7 +17737,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z128" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA128" t="n">
         <v>30</v>
@@ -17755,7 +17755,7 @@
         <v>26</v>
       </c>
       <c r="AF128" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG128" t="n">
         <v>15</v>
@@ -17770,7 +17770,7 @@
         <v>75</v>
       </c>
       <c r="AK128" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL128" t="n">
         <v>60</v>
@@ -17779,7 +17779,7 @@
         <v>120</v>
       </c>
       <c r="AN128" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO128" t="n">
         <v>21</v>
@@ -17812,58 +17812,58 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G129" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="H129" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="I129" t="n">
         <v>3.25</v>
       </c>
       <c r="J129" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K129" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L129" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M129" t="n">
         <v>1.04</v>
       </c>
       <c r="N129" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="O129" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P129" t="n">
         <v>1.97</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R129" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S129" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T129" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="U129" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="V129" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W129" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X129" t="n">
         <v>1000</v>
@@ -17947,16 +17947,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G130" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H130" t="n">
         <v>6.4</v>
       </c>
       <c r="I130" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J130" t="n">
         <v>3.8</v>
@@ -17992,7 +17992,7 @@
         <v>2.1</v>
       </c>
       <c r="U130" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="V130" t="n">
         <v>1.16</v>
@@ -18010,7 +18010,7 @@
         <v>60</v>
       </c>
       <c r="AA130" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB130" t="n">
         <v>7</v>
@@ -18034,7 +18034,7 @@
         <v>980</v>
       </c>
       <c r="AI130" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ130" t="n">
         <v>980</v>
@@ -18052,7 +18052,7 @@
         <v>13</v>
       </c>
       <c r="AO130" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131">
@@ -18085,19 +18085,19 @@
         <v>1.32</v>
       </c>
       <c r="G131" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H131" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I131" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J131" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K131" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L131" t="n">
         <v>1.01</v>
@@ -18106,22 +18106,22 @@
         <v>1.01</v>
       </c>
       <c r="N131" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="O131" t="n">
         <v>1.16</v>
       </c>
       <c r="P131" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R131" t="n">
         <v>1.48</v>
       </c>
       <c r="S131" t="n">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="T131" t="n">
         <v>1.01</v>
@@ -18130,10 +18130,10 @@
         <v>1.01</v>
       </c>
       <c r="V131" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W131" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18217,46 +18217,46 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G132" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H132" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I132" t="n">
         <v>8.6</v>
       </c>
       <c r="J132" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K132" t="n">
         <v>6.4</v>
       </c>
       <c r="L132" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M132" t="n">
         <v>1.01</v>
       </c>
       <c r="N132" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O132" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P132" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R132" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S132" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T132" t="n">
         <v>1.75</v>
@@ -18268,7 +18268,7 @@
         <v>1.14</v>
       </c>
       <c r="W132" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X132" t="n">
         <v>980</v>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G133" t="n">
         <v>1.7</v>
@@ -18364,7 +18364,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J133" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K133" t="n">
         <v>6.4</v>
@@ -18376,7 +18376,7 @@
         <v>1.01</v>
       </c>
       <c r="N133" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O133" t="n">
         <v>1.27</v>
@@ -18385,10 +18385,10 @@
         <v>1.74</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R133" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S133" t="n">
         <v>3.25</v>
@@ -18403,7 +18403,7 @@
         <v>1.12</v>
       </c>
       <c r="W133" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X133" t="n">
         <v>1000</v>
@@ -18493,16 +18493,16 @@
         <v>2.7</v>
       </c>
       <c r="H134" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I134" t="n">
         <v>2.76</v>
       </c>
       <c r="J134" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K134" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K134" t="n">
-        <v>3.85</v>
       </c>
       <c r="L134" t="n">
         <v>1.29</v>
@@ -18520,7 +18520,7 @@
         <v>2.52</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R134" t="n">
         <v>1.62</v>
@@ -18535,10 +18535,10 @@
         <v>2.72</v>
       </c>
       <c r="V134" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W134" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X134" t="n">
         <v>22</v>
@@ -18628,10 +18628,10 @@
         <v>2.92</v>
       </c>
       <c r="H135" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I135" t="n">
         <v>2.76</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.78</v>
       </c>
       <c r="J135" t="n">
         <v>3.4</v>
@@ -18640,7 +18640,7 @@
         <v>3.45</v>
       </c>
       <c r="L135" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M135" t="n">
         <v>1.08</v>
@@ -18703,7 +18703,7 @@
         <v>18</v>
       </c>
       <c r="AG135" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH135" t="n">
         <v>17.5</v>
@@ -18712,7 +18712,7 @@
         <v>46</v>
       </c>
       <c r="AJ135" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK135" t="n">
         <v>32</v>
@@ -18727,7 +18727,7 @@
         <v>30</v>
       </c>
       <c r="AO135" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
@@ -18766,13 +18766,13 @@
         <v>5.5</v>
       </c>
       <c r="I136" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J136" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K136" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L136" t="n">
         <v>1.26</v>
@@ -18781,19 +18781,19 @@
         <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O136" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P136" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q136" t="n">
         <v>1.62</v>
       </c>
       <c r="R136" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S136" t="n">
         <v>1.63</v>
@@ -18805,10 +18805,10 @@
         <v>1.01</v>
       </c>
       <c r="V136" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W136" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X136" t="n">
         <v>1000</v>
@@ -18892,13 +18892,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G137" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I137" t="n">
         <v>3.8</v>
@@ -18907,7 +18907,7 @@
         <v>3.65</v>
       </c>
       <c r="K137" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L137" t="n">
         <v>1.32</v>
@@ -18916,7 +18916,7 @@
         <v>1.05</v>
       </c>
       <c r="N137" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O137" t="n">
         <v>1.24</v>
@@ -18931,10 +18931,10 @@
         <v>1.49</v>
       </c>
       <c r="S137" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T137" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="U137" t="n">
         <v>2.36</v>
@@ -18943,46 +18943,46 @@
         <v>1.36</v>
       </c>
       <c r="W137" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X137" t="n">
         <v>23</v>
       </c>
       <c r="Y137" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z137" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA137" t="n">
         <v>75</v>
       </c>
       <c r="AB137" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC137" t="n">
         <v>10</v>
       </c>
       <c r="AD137" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE137" t="n">
         <v>44</v>
       </c>
       <c r="AF137" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH137" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG137" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI137" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ137" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK137" t="n">
         <v>26</v>
@@ -18991,13 +18991,13 @@
         <v>38</v>
       </c>
       <c r="AM137" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN137" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
     </row>
     <row r="138">
@@ -19030,13 +19030,13 @@
         <v>2.7</v>
       </c>
       <c r="G138" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H138" t="n">
         <v>2.66</v>
       </c>
       <c r="I138" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J138" t="n">
         <v>3.5</v>
@@ -19045,22 +19045,22 @@
         <v>3.65</v>
       </c>
       <c r="L138" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M138" t="n">
         <v>1.07</v>
       </c>
       <c r="N138" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O138" t="n">
         <v>1.31</v>
       </c>
       <c r="P138" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R138" t="n">
         <v>1.34</v>
@@ -19069,10 +19069,10 @@
         <v>3.4</v>
       </c>
       <c r="T138" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="U138" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V138" t="n">
         <v>1.53</v>
@@ -19162,10 +19162,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G139" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H139" t="n">
         <v>4.7</v>
@@ -19174,13 +19174,13 @@
         <v>4.9</v>
       </c>
       <c r="J139" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K139" t="n">
         <v>4</v>
       </c>
       <c r="L139" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M139" t="n">
         <v>1.06</v>
@@ -19195,13 +19195,13 @@
         <v>2.02</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R139" t="n">
         <v>1.4</v>
       </c>
       <c r="S139" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T139" t="n">
         <v>1.83</v>
@@ -19213,13 +19213,13 @@
         <v>1.25</v>
       </c>
       <c r="W139" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X139" t="n">
         <v>16.5</v>
       </c>
       <c r="Y139" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z139" t="n">
         <v>40</v>
@@ -19231,7 +19231,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC139" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD139" t="n">
         <v>20</v>
@@ -19246,7 +19246,7 @@
         <v>10.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI139" t="n">
         <v>70</v>
@@ -19264,10 +19264,10 @@
         <v>130</v>
       </c>
       <c r="AN139" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO139" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140">
@@ -19297,7 +19297,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G140" t="n">
         <v>10.5</v>
@@ -19321,22 +19321,22 @@
         <v>1.05</v>
       </c>
       <c r="N140" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O140" t="n">
         <v>1.24</v>
       </c>
       <c r="P140" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q140" t="n">
         <v>1.74</v>
       </c>
       <c r="R140" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S140" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T140" t="n">
         <v>2.06</v>
@@ -19357,13 +19357,13 @@
         <v>10.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA140" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC140" t="n">
         <v>13</v>
@@ -19378,16 +19378,16 @@
         <v>110</v>
       </c>
       <c r="AG140" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH140" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI140" t="n">
         <v>980</v>
       </c>
       <c r="AJ140" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AK140" t="n">
         <v>200</v>
@@ -19399,10 +19399,10 @@
         <v>200</v>
       </c>
       <c r="AN140" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AO140" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="141">
@@ -19438,13 +19438,13 @@
         <v>3.15</v>
       </c>
       <c r="H141" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I141" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J141" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K141" t="n">
         <v>3.5</v>
@@ -19456,37 +19456,37 @@
         <v>1.09</v>
       </c>
       <c r="N141" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="O141" t="n">
         <v>1.41</v>
       </c>
       <c r="P141" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q141" t="n">
         <v>2.38</v>
       </c>
       <c r="R141" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S141" t="n">
         <v>4.2</v>
       </c>
       <c r="T141" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U141" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V141" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W141" t="n">
         <v>1.47</v>
       </c>
       <c r="X141" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y141" t="n">
         <v>980</v>
@@ -19498,25 +19498,25 @@
         <v>1000</v>
       </c>
       <c r="AB141" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC141" t="n">
         <v>980</v>
-      </c>
-      <c r="AC141" t="n">
-        <v>7.4</v>
       </c>
       <c r="AD141" t="n">
         <v>980</v>
       </c>
       <c r="AE141" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF141" t="n">
         <v>980</v>
       </c>
       <c r="AG141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI141" t="n">
         <v>1000</v>
@@ -19525,7 +19525,7 @@
         <v>1000</v>
       </c>
       <c r="AK141" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL141" t="n">
         <v>1000</v>
@@ -19591,22 +19591,22 @@
         <v>1.01</v>
       </c>
       <c r="N142" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O142" t="n">
         <v>1.24</v>
       </c>
       <c r="P142" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R142" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S142" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T142" t="n">
         <v>1.01</v>
@@ -19717,7 +19717,7 @@
         <v>3.3</v>
       </c>
       <c r="K143" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L143" t="n">
         <v>1.01</v>
@@ -19837,37 +19837,37 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="G144" t="n">
         <v>1.83</v>
       </c>
       <c r="H144" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I144" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="J144" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K144" t="n">
         <v>3.75</v>
       </c>
       <c r="L144" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M144" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N144" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O144" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P144" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="Q144" t="n">
         <v>2.1</v>
@@ -19882,10 +19882,10 @@
         <v>1.01</v>
       </c>
       <c r="U144" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V144" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="W144" t="n">
         <v>2.2</v>
@@ -19975,7 +19975,7 @@
         <v>1.72</v>
       </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H145" t="n">
         <v>3.85</v>
@@ -20002,10 +20002,10 @@
         <v>1.28</v>
       </c>
       <c r="P145" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R145" t="n">
         <v>1.24</v>
@@ -20023,7 +20023,7 @@
         <v>1.18</v>
       </c>
       <c r="W145" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X145" t="n">
         <v>1000</v>
@@ -20107,19 +20107,19 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G146" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="H146" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J146" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K146" t="n">
         <v>4.3</v>
@@ -20131,22 +20131,22 @@
         <v>1.01</v>
       </c>
       <c r="N146" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O146" t="n">
         <v>1.19</v>
       </c>
       <c r="P146" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R146" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S146" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T146" t="n">
         <v>1.01</v>
@@ -20155,10 +20155,10 @@
         <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W146" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="X146" t="n">
         <v>1000</v>
@@ -20251,10 +20251,10 @@
         <v>3.85</v>
       </c>
       <c r="I147" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J147" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K147" t="n">
         <v>5.2</v>
@@ -20272,10 +20272,10 @@
         <v>1.19</v>
       </c>
       <c r="P147" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R147" t="n">
         <v>1.48</v>
@@ -20380,7 +20380,7 @@
         <v>2.5</v>
       </c>
       <c r="G148" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H148" t="n">
         <v>3.1</v>
@@ -20398,13 +20398,13 @@
         <v>1.38</v>
       </c>
       <c r="M148" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N148" t="n">
         <v>3.1</v>
       </c>
       <c r="O148" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P148" t="n">
         <v>1.73</v>
@@ -20413,7 +20413,7 @@
         <v>2.18</v>
       </c>
       <c r="R148" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S148" t="n">
         <v>4</v>
@@ -20422,7 +20422,7 @@
         <v>1.86</v>
       </c>
       <c r="U148" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V148" t="n">
         <v>1.42</v>
@@ -20431,7 +20431,7 @@
         <v>1.61</v>
       </c>
       <c r="X148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y148" t="n">
         <v>11.5</v>
@@ -20452,7 +20452,7 @@
         <v>14</v>
       </c>
       <c r="AE148" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF148" t="n">
         <v>16</v>
@@ -20479,7 +20479,7 @@
         <v>130</v>
       </c>
       <c r="AN148" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO148" t="n">
         <v>46</v>
@@ -20512,22 +20512,22 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="G149" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H149" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I149" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="J149" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="K149" t="n">
-        <v>150</v>
+        <v>3.85</v>
       </c>
       <c r="L149" t="n">
         <v>1.01</v>
@@ -20536,7 +20536,7 @@
         <v>1.01</v>
       </c>
       <c r="N149" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O149" t="n">
         <v>1.27</v>
@@ -20545,13 +20545,13 @@
         <v>1.66</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R149" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S149" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T149" t="n">
         <v>1.01</v>
@@ -20560,10 +20560,10 @@
         <v>1.01</v>
       </c>
       <c r="V149" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W149" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X149" t="n">
         <v>1000</v>
@@ -20647,19 +20647,19 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H150" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I150" t="n">
         <v>11</v>
       </c>
       <c r="J150" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K150" t="n">
         <v>4.7</v>
@@ -20671,7 +20671,7 @@
         <v>1.06</v>
       </c>
       <c r="N150" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O150" t="n">
         <v>1.35</v>
@@ -20680,13 +20680,13 @@
         <v>1.78</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R150" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S150" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T150" t="n">
         <v>1.01</v>
@@ -20698,7 +20698,7 @@
         <v>1.1</v>
       </c>
       <c r="W150" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X150" t="n">
         <v>1000</v>
@@ -20782,22 +20782,22 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G151" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H151" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I151" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="n">
         <v>3.4</v>
       </c>
       <c r="K151" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L151" t="n">
         <v>1.01</v>
@@ -20812,13 +20812,13 @@
         <v>1.13</v>
       </c>
       <c r="P151" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q151" t="n">
         <v>1.51</v>
       </c>
       <c r="R151" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="S151" t="n">
         <v>1.51</v>
@@ -20830,10 +20830,10 @@
         <v>1.01</v>
       </c>
       <c r="V151" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W151" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X151" t="n">
         <v>1000</v>
@@ -20917,22 +20917,22 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G152" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="H152" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I152" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4</v>
+      </c>
+      <c r="K152" t="n">
         <v>7.6</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K152" t="n">
-        <v>950</v>
       </c>
       <c r="L152" t="n">
         <v>1.01</v>
@@ -20950,25 +20950,25 @@
         <v>2.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R152" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S152" t="n">
         <v>1.51</v>
       </c>
       <c r="T152" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U152" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V152" t="n">
         <v>1.16</v>
       </c>
       <c r="W152" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="X152" t="n">
         <v>1000</v>
@@ -21052,22 +21052,22 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G153" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H153" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I153" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J153" t="n">
         <v>3.7</v>
       </c>
       <c r="K153" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L153" t="n">
         <v>1.01</v>
@@ -21076,88 +21076,88 @@
         <v>1.04</v>
       </c>
       <c r="N153" t="n">
-        <v>2.46</v>
+        <v>5.1</v>
       </c>
       <c r="O153" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P153" t="n">
         <v>2.46</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R153" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="S153" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T153" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U153" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V153" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W153" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X153" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y153" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Z153" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA153" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB153" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC153" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AD153" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE153" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF153" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG153" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH153" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI153" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ153" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK153" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL153" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM153" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN153" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO153" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="154">
@@ -21187,73 +21187,73 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G154" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H154" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I154" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J154" t="n">
+        <v>4</v>
+      </c>
+      <c r="K154" t="n">
         <v>4.1</v>
       </c>
-      <c r="K154" t="n">
+      <c r="L154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S154" t="n">
         <v>4.2</v>
       </c>
-      <c r="L154" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M154" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N154" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O154" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P154" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R154" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S154" t="n">
-        <v>4</v>
-      </c>
       <c r="T154" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U154" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="V154" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W154" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X154" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y154" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z154" t="n">
         <v>50</v>
       </c>
       <c r="AA154" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB154" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC154" t="n">
         <v>8.800000000000001</v>
@@ -21262,37 +21262,37 @@
         <v>25</v>
       </c>
       <c r="AE154" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF154" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG154" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH154" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI154" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ154" t="n">
         <v>16</v>
       </c>
       <c r="AK154" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL154" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM154" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN154" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO154" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155">
@@ -21322,10 +21322,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G155" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H155" t="n">
         <v>4.8</v>
@@ -21334,10 +21334,10 @@
         <v>5.4</v>
       </c>
       <c r="J155" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K155" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L155" t="n">
         <v>1.25</v>
@@ -21346,7 +21346,7 @@
         <v>1.03</v>
       </c>
       <c r="N155" t="n">
-        <v>2.72</v>
+        <v>5.7</v>
       </c>
       <c r="O155" t="n">
         <v>1.15</v>
@@ -21355,79 +21355,79 @@
         <v>2.72</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R155" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S155" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="T155" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="U155" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="V155" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W155" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X155" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y155" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z155" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AA155" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB155" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AC155" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD155" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE155" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM155" t="n">
         <v>75</v>
       </c>
-      <c r="AF155" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL155" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM155" t="n">
-        <v>90</v>
-      </c>
       <c r="AN155" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AO155" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156">
@@ -21457,16 +21457,16 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I156" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.65</v>
       </c>
       <c r="J156" t="n">
         <v>3.5</v>
@@ -21505,10 +21505,10 @@
         <v>2.22</v>
       </c>
       <c r="V156" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W156" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="X156" t="n">
         <v>14</v>
@@ -21529,7 +21529,7 @@
         <v>7.6</v>
       </c>
       <c r="AD156" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE156" t="n">
         <v>40</v>
@@ -21544,7 +21544,7 @@
         <v>17</v>
       </c>
       <c r="AI156" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ156" t="n">
         <v>29</v>
@@ -21559,10 +21559,10 @@
         <v>90</v>
       </c>
       <c r="AN156" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO156" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
@@ -21592,22 +21592,22 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G157" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H157" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="I157" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J157" t="n">
         <v>6.8</v>
       </c>
       <c r="K157" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L157" t="n">
         <v>1.32</v>
@@ -21619,7 +21619,7 @@
         <v>5</v>
       </c>
       <c r="O157" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P157" t="n">
         <v>2.32</v>
@@ -21634,7 +21634,7 @@
         <v>2.78</v>
       </c>
       <c r="T157" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U157" t="n">
         <v>1.58</v>
@@ -21643,10 +21643,10 @@
         <v>1.05</v>
       </c>
       <c r="W157" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X157" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y157" t="n">
         <v>50</v>
@@ -21661,7 +21661,7 @@
         <v>8.4</v>
       </c>
       <c r="AC157" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD157" t="n">
         <v>75</v>
@@ -21679,19 +21679,19 @@
         <v>50</v>
       </c>
       <c r="AI157" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AJ157" t="n">
         <v>8.4</v>
       </c>
       <c r="AK157" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL157" t="n">
         <v>65</v>
       </c>
       <c r="AM157" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AN157" t="n">
         <v>4.4</v>
@@ -21730,16 +21730,16 @@
         <v>1.86</v>
       </c>
       <c r="G158" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H158" t="n">
         <v>5</v>
       </c>
       <c r="I158" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J158" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K158" t="n">
         <v>3.75</v>
@@ -21754,10 +21754,10 @@
         <v>3.25</v>
       </c>
       <c r="O158" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P158" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q158" t="n">
         <v>2.12</v>
@@ -21766,25 +21766,25 @@
         <v>1.29</v>
       </c>
       <c r="S158" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T158" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="U158" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V158" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W158" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X158" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y158" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Z158" t="n">
         <v>38</v>
@@ -21796,7 +21796,7 @@
         <v>7.8</v>
       </c>
       <c r="AC158" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD158" t="n">
         <v>21</v>
@@ -21811,10 +21811,10 @@
         <v>12.5</v>
       </c>
       <c r="AH158" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI158" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ158" t="n">
         <v>20</v>
@@ -21829,7 +21829,7 @@
         <v>160</v>
       </c>
       <c r="AN158" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO158" t="n">
         <v>100</v>
@@ -21865,13 +21865,13 @@
         <v>1.65</v>
       </c>
       <c r="G159" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H159" t="n">
         <v>6</v>
       </c>
       <c r="I159" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J159" t="n">
         <v>4.2</v>
@@ -21880,13 +21880,13 @@
         <v>4.3</v>
       </c>
       <c r="L159" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M159" t="n">
         <v>1.06</v>
       </c>
       <c r="N159" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O159" t="n">
         <v>1.29</v>
@@ -21904,28 +21904,28 @@
         <v>3.2</v>
       </c>
       <c r="T159" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U159" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V159" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W159" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X159" t="n">
         <v>17</v>
       </c>
       <c r="Y159" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z159" t="n">
         <v>50</v>
       </c>
       <c r="AA159" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AB159" t="n">
         <v>8.800000000000001</v>
@@ -21952,19 +21952,19 @@
         <v>85</v>
       </c>
       <c r="AJ159" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK159" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL159" t="n">
         <v>34</v>
       </c>
       <c r="AM159" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN159" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO159" t="n">
         <v>100</v>
@@ -21997,13 +21997,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G160" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H160" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I160" t="n">
         <v>7.6</v>
@@ -22021,34 +22021,34 @@
         <v>1.09</v>
       </c>
       <c r="N160" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="O160" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P160" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q160" t="n">
         <v>2.2</v>
       </c>
       <c r="R160" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S160" t="n">
         <v>4.1</v>
       </c>
       <c r="T160" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U160" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V160" t="n">
         <v>1.15</v>
       </c>
       <c r="W160" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X160" t="n">
         <v>14</v>
@@ -22060,7 +22060,7 @@
         <v>60</v>
       </c>
       <c r="AA160" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB160" t="n">
         <v>7</v>
@@ -22072,7 +22072,7 @@
         <v>980</v>
       </c>
       <c r="AE160" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF160" t="n">
         <v>9.4</v>
@@ -22084,7 +22084,7 @@
         <v>980</v>
       </c>
       <c r="AI160" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ160" t="n">
         <v>980</v>
@@ -22096,13 +22096,13 @@
         <v>55</v>
       </c>
       <c r="AM160" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN160" t="n">
         <v>14</v>
       </c>
       <c r="AO160" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161">
@@ -22132,22 +22132,22 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G161" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H161" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="I161" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J161" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K161" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L161" t="n">
         <v>1.01</v>
@@ -22156,19 +22156,19 @@
         <v>1.01</v>
       </c>
       <c r="N161" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O161" t="n">
         <v>1.24</v>
       </c>
       <c r="P161" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R161" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S161" t="n">
         <v>2.86</v>
@@ -22180,10 +22180,10 @@
         <v>1.01</v>
       </c>
       <c r="V161" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="W161" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X161" t="n">
         <v>1000</v>
@@ -22303,10 +22303,10 @@
         <v>1.67</v>
       </c>
       <c r="R162" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S162" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T162" t="n">
         <v>1.01</v>
@@ -22402,22 +22402,22 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="G163" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="H163" t="n">
         <v>4.3</v>
       </c>
       <c r="I163" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J163" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K163" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L163" t="n">
         <v>1.01</v>
@@ -22426,7 +22426,7 @@
         <v>1.01</v>
       </c>
       <c r="N163" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O163" t="n">
         <v>1.14</v>
@@ -22438,22 +22438,22 @@
         <v>1.42</v>
       </c>
       <c r="R163" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S163" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T163" t="n">
         <v>1.47</v>
       </c>
       <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W163" t="n">
         <v>2.22</v>
-      </c>
-      <c r="V163" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W163" t="n">
-        <v>2.18</v>
       </c>
       <c r="X163" t="n">
         <v>1000</v>
@@ -22537,43 +22537,43 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q164" t="n">
         <v>2.24</v>
       </c>
-      <c r="H164" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J164" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K164" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L164" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M164" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N164" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O164" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P164" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>2.28</v>
-      </c>
       <c r="R164" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S164" t="n">
         <v>3.6</v>
@@ -22588,7 +22588,7 @@
         <v>1.23</v>
       </c>
       <c r="W164" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X164" t="n">
         <v>1000</v>
@@ -22705,16 +22705,16 @@
         <v>2.24</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R165" t="n">
         <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T165" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U165" t="n">
         <v>1.01</v>
@@ -22807,13 +22807,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G166" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H166" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I166" t="n">
         <v>6.4</v>
@@ -22837,7 +22837,7 @@
         <v>1.15</v>
       </c>
       <c r="P166" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q166" t="n">
         <v>1.46</v>
@@ -22852,13 +22852,13 @@
         <v>1.6</v>
       </c>
       <c r="U166" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V166" t="n">
         <v>1.18</v>
       </c>
       <c r="W166" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X166" t="n">
         <v>42</v>
@@ -22885,13 +22885,13 @@
         <v>1000</v>
       </c>
       <c r="AF166" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG166" t="n">
         <v>11</v>
       </c>
       <c r="AH166" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI166" t="n">
         <v>65</v>
@@ -23083,10 +23083,10 @@
         <v>3.8</v>
       </c>
       <c r="H168" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I168" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J168" t="n">
         <v>3.3</v>
@@ -23101,13 +23101,13 @@
         <v>1.06</v>
       </c>
       <c r="N168" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O168" t="n">
         <v>1.45</v>
       </c>
       <c r="P168" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q168" t="n">
         <v>2.28</v>
@@ -23125,7 +23125,7 @@
         <v>1.71</v>
       </c>
       <c r="V168" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W168" t="n">
         <v>1.35</v>
@@ -23215,16 +23215,16 @@
         <v>3.15</v>
       </c>
       <c r="G169" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="H169" t="n">
         <v>2.18</v>
       </c>
       <c r="I169" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="J169" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K169" t="n">
         <v>4.5</v>
@@ -23242,16 +23242,16 @@
         <v>1.28</v>
       </c>
       <c r="P169" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R169" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S169" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T169" t="n">
         <v>1.01</v>
@@ -23260,10 +23260,10 @@
         <v>1.01</v>
       </c>
       <c r="V169" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="W169" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X169" t="n">
         <v>1000</v>
@@ -23356,7 +23356,7 @@
         <v>3</v>
       </c>
       <c r="I170" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J170" t="n">
         <v>2.94</v>
@@ -23515,7 +23515,7 @@
         <v>1.61</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="R171" t="n">
         <v>1.16</v>
@@ -23620,7 +23620,7 @@
         <v>1.09</v>
       </c>
       <c r="G172" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>6.8</v>
@@ -23668,7 +23668,7 @@
         <v>1.01</v>
       </c>
       <c r="W172" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="X172" t="n">
         <v>1000</v>
@@ -23788,7 +23788,7 @@
         <v>1.56</v>
       </c>
       <c r="R173" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S173" t="n">
         <v>2.38</v>
@@ -23806,34 +23806,34 @@
         <v>2.44</v>
       </c>
       <c r="X173" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y173" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Z173" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA173" t="n">
         <v>140</v>
       </c>
       <c r="AB173" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC173" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD173" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE173" t="n">
         <v>65</v>
       </c>
       <c r="AF173" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG173" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH173" t="n">
         <v>21</v>
@@ -23842,13 +23842,13 @@
         <v>55</v>
       </c>
       <c r="AJ173" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AK173" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AL173" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM173" t="n">
         <v>75</v>
@@ -23857,7 +23857,7 @@
         <v>6.6</v>
       </c>
       <c r="AO173" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G174" t="n">
         <v>2.52</v>
@@ -23926,7 +23926,7 @@
         <v>1.57</v>
       </c>
       <c r="S174" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T174" t="n">
         <v>1.58</v>
@@ -23935,13 +23935,13 @@
         <v>2.56</v>
       </c>
       <c r="V174" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W174" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X174" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y174" t="n">
         <v>17</v>
@@ -23953,22 +23953,22 @@
         <v>55</v>
       </c>
       <c r="AB174" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC174" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD174" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE174" t="n">
         <v>30</v>
       </c>
       <c r="AF174" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AG174" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH174" t="n">
         <v>16</v>
@@ -23989,10 +23989,10 @@
         <v>1000</v>
       </c>
       <c r="AN174" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO174" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>
